--- a/account.xlsx
+++ b/account.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G310"/>
+  <dimension ref="A1:H372"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,6 +457,11 @@
           <t>Lxq7mcX/7ihu6U5BjiCR/A==</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -494,6 +499,11 @@
           <t>Ul0mnX4F+KexpEFBAxhc3Q==</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -531,6 +541,11 @@
           <t>qyC8ojxp/la0R/06oDbvlQ==</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -568,6 +583,11 @@
           <t>ZDx6W7V3FEqV33JZ2QptWQ==</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -605,6 +625,11 @@
           <t>piynCrJ9pFi1f3NxkfoLmw==</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -642,6 +667,11 @@
           <t>4vnZyX3USr0yIr0bcm1zhA==</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -679,6 +709,11 @@
           <t>NpwAvTwAlYe9417Mbupizg==</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -716,6 +751,11 @@
           <t>3n7rHdoP9s71Yt/3hTElrQ==</t>
         </is>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -753,6 +793,11 @@
           <t>FyHiWY9hHURSr3b4EhyDaA==</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -790,6 +835,11 @@
           <t>V+2jXBNyUSn1KgarZkkjmw==</t>
         </is>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -827,6 +877,11 @@
           <t>hcJoKThBuneBJsCgKXMDow==</t>
         </is>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -864,6 +919,11 @@
           <t>e2z8aKDLXu6nc/bZs9GM8Q==</t>
         </is>
       </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -901,6 +961,11 @@
           <t>uWbWxbxsmVmt9UHSyfRLqA==</t>
         </is>
       </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -938,6 +1003,11 @@
           <t>lD3a/NkrUT1U7HbcH+YEFQ==</t>
         </is>
       </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -975,6 +1045,11 @@
           <t>yaBP+bPO3rCvlJ68KbkpJg==</t>
         </is>
       </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1012,6 +1087,11 @@
           <t>96kAUEcf6aZLCw5Lk/2SrQ==</t>
         </is>
       </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1049,6 +1129,11 @@
           <t>1mG4gyCP3v6skOOG9oRyIw==</t>
         </is>
       </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1086,6 +1171,11 @@
           <t>N3s7Ot8nMyWl3o6h/9KsnA==</t>
         </is>
       </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1123,6 +1213,11 @@
           <t>SoV6WKlOiCK04IgED41Nng==</t>
         </is>
       </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1160,6 +1255,11 @@
           <t>/opv3dmrTlapLj/oWVRdTg==</t>
         </is>
       </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1197,6 +1297,11 @@
           <t>gKtldab2KdWLs6F3wziDUA==</t>
         </is>
       </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1234,6 +1339,11 @@
           <t>YFLFzxeQHfGDxPk5MWKLmg==</t>
         </is>
       </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1271,6 +1381,11 @@
           <t>jiNOd/dCvvZMPqPnZWgLsQ==</t>
         </is>
       </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1308,6 +1423,11 @@
           <t>felrv8OAZ+VOwxofxV9esw==</t>
         </is>
       </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1345,6 +1465,11 @@
           <t>hMhYHTP592+2An4usBF2QQ==</t>
         </is>
       </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1382,6 +1507,11 @@
           <t>lLdvhvYuZeD3wiJycVDBDw==</t>
         </is>
       </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1419,6 +1549,11 @@
           <t>Tc6UsXa4gzNBZjGvv83WjA==</t>
         </is>
       </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1456,6 +1591,11 @@
           <t>mrrJ7hTxr16/1GIUZoItBw==</t>
         </is>
       </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1493,6 +1633,11 @@
           <t>L66QHlv1SLEDTbzJ8elzNw==</t>
         </is>
       </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1530,6 +1675,11 @@
           <t>CfmaPL4giYWNSpEgQtrsYQ==</t>
         </is>
       </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1567,6 +1717,11 @@
           <t>M+FyXF/j5Dsu1WPQb5hbRg==</t>
         </is>
       </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1604,6 +1759,11 @@
           <t>My4rAEltGSmqL+MJG27Wrw==</t>
         </is>
       </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1641,6 +1801,11 @@
           <t>jOVAUUJsM7dz31HiVkdkoA==</t>
         </is>
       </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1678,6 +1843,11 @@
           <t>e+r/TJvr8MiwnFaxmdLzzg==</t>
         </is>
       </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1715,6 +1885,11 @@
           <t>2+OOt55TQ5MIIbAWEC55vA==</t>
         </is>
       </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1752,6 +1927,11 @@
           <t>k8OguFgPr+ORLHGw5jCNOg==</t>
         </is>
       </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1789,6 +1969,11 @@
           <t>azsD0EIneU1NO9L+dph58Q==</t>
         </is>
       </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1826,6 +2011,11 @@
           <t>VuOB8mX5Pztg3y3hbwU+4w==</t>
         </is>
       </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1863,6 +2053,11 @@
           <t>qGg2k44ORh8mZ6O/W3rIbQ==</t>
         </is>
       </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1900,6 +2095,11 @@
           <t>UH1cScSp9CuKyMG4r/lmoQ==</t>
         </is>
       </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1937,6 +2137,11 @@
           <t>pgEEsJL5Ok7jnSjz/hYtpw==</t>
         </is>
       </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1974,6 +2179,11 @@
           <t>+v06gyyinJjRW2JN7OQmcg==</t>
         </is>
       </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2011,6 +2221,11 @@
           <t>7/jmRXpKc6rotqz746NWyg==</t>
         </is>
       </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2048,6 +2263,11 @@
           <t>9Qni/WfjYfy9LOxJc13YXA==</t>
         </is>
       </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2085,6 +2305,11 @@
           <t>Kqw3Amb9B5aiPbv2z0cC9Q==</t>
         </is>
       </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2122,6 +2347,11 @@
           <t>6ioq8cQATmT6CT42hcey5w==</t>
         </is>
       </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2159,6 +2389,11 @@
           <t>7crHxrw0aKYif1CGBmDz4g==</t>
         </is>
       </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2196,6 +2431,11 @@
           <t>rEzW+nzFfNUxfyOtU8IZEA==</t>
         </is>
       </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2233,6 +2473,11 @@
           <t>K/I9bcWSJaKNByh0+9SqpA==</t>
         </is>
       </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2270,6 +2515,11 @@
           <t>3fCizby8gwBoblkDWD7IQg==</t>
         </is>
       </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2307,6 +2557,11 @@
           <t>rGWwlz3L5g/u/JIFJF2o0Q==</t>
         </is>
       </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2344,6 +2599,11 @@
           <t>AXl2R2st6AWng7mEmZs6SA==</t>
         </is>
       </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2381,6 +2641,11 @@
           <t>tDLniYYMtizKZAkN24+30w==</t>
         </is>
       </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2418,6 +2683,11 @@
           <t>nmvWNeefpBEICAFK9MSBVQ==</t>
         </is>
       </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2455,6 +2725,11 @@
           <t>9k1wzxZlck/t/YnIERX5lw==</t>
         </is>
       </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2492,6 +2767,11 @@
           <t>1SD5IVxYXZmUjS32GqNPdQ==</t>
         </is>
       </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2529,6 +2809,11 @@
           <t>zdXgDR8zocAyJszNUKFXHw==</t>
         </is>
       </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2566,6 +2851,11 @@
           <t>3+oBG8YYNtu5mYJ66/ULbA==</t>
         </is>
       </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2603,6 +2893,11 @@
           <t>X9LlBNot6pWAM3t5ZNpylg==</t>
         </is>
       </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2640,6 +2935,11 @@
           <t>cWHUbNhwWmGm+Qn3m8Hx5w==</t>
         </is>
       </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2677,6 +2977,11 @@
           <t>7By6CUo2080Lb1YRiyER3w==</t>
         </is>
       </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2714,6 +3019,11 @@
           <t>f9nCll7OZdKaFmJ8f4hUkw==</t>
         </is>
       </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2751,6 +3061,11 @@
           <t>j84M4Sxu+q3qopbTSo7+Iw==</t>
         </is>
       </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2788,6 +3103,11 @@
           <t>/tddhE2DHRfOwGsFkoCvdg==</t>
         </is>
       </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2825,6 +3145,11 @@
           <t>2AwWuQkEc91g+2XygbNaBA==</t>
         </is>
       </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2862,6 +3187,11 @@
           <t>D3hqeIhRn0R02n2TXNJRAQ==</t>
         </is>
       </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2899,6 +3229,11 @@
           <t>9hxspdeE7A8lOPr0ChQyaA==</t>
         </is>
       </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2936,6 +3271,11 @@
           <t>6cFNDQmDFyxVxXaU/PGxTQ==</t>
         </is>
       </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2973,6 +3313,11 @@
           <t>bY2Cc5D8ud4vIjhnOpz5fg==</t>
         </is>
       </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3010,6 +3355,11 @@
           <t>9JHJ/qAak1Ju6XrNIddpHA==</t>
         </is>
       </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3047,6 +3397,11 @@
           <t>Dhn4BiTmn4FXjHWcOtnq4Q==</t>
         </is>
       </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3084,6 +3439,11 @@
           <t>yLfN6sA9x5I5rWUG5fNJuA==</t>
         </is>
       </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3121,6 +3481,11 @@
           <t>FZT9JyxnTvriqtvjtcusCg==</t>
         </is>
       </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3158,6 +3523,11 @@
           <t>t7/OE7VbLJsLh8C3yi11Rg==</t>
         </is>
       </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3195,6 +3565,11 @@
           <t>16k4Sk55U2PVFSwp4dMgdA==</t>
         </is>
       </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3232,6 +3607,11 @@
           <t>3xX85CsLXSdBc0cuavGGNQ==</t>
         </is>
       </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3269,6 +3649,11 @@
           <t>ItJFLnuaWjutFNMQ//qv5Q==</t>
         </is>
       </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3306,6 +3691,11 @@
           <t>GN8iHnAjlwr0/8yn6/iN/g==</t>
         </is>
       </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3343,6 +3733,11 @@
           <t>TwlzahlpiVMkVq0DiKHPOg==</t>
         </is>
       </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3380,6 +3775,11 @@
           <t>8wBUiX8BQSGGGigQl6gTuQ==</t>
         </is>
       </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3417,6 +3817,11 @@
           <t>7oyhFU77QnNMLyxsqAhDZw==</t>
         </is>
       </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3454,6 +3859,11 @@
           <t>8xnb7gndfTLj0YuKroLkyw==</t>
         </is>
       </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3491,6 +3901,11 @@
           <t>5g7BiVzSlqrz6aszx1GB8Q==</t>
         </is>
       </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3528,6 +3943,11 @@
           <t>FF8Ioe1Dfcl4Ilw31YXCFg==</t>
         </is>
       </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3565,6 +3985,11 @@
           <t>Y5aKgBrXlOwH/cq+hWtM3w==</t>
         </is>
       </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3602,6 +4027,11 @@
           <t>3KsWWfDoXgyt048YRytNyw==</t>
         </is>
       </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3639,6 +4069,11 @@
           <t>eOnEKmaOg7oTqTCzUVQK1w==</t>
         </is>
       </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3676,6 +4111,11 @@
           <t>0hjdtz8AEbiP63fcRrzIyg==</t>
         </is>
       </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3713,6 +4153,11 @@
           <t>jFocpa+ceTUOhaptQamvMA==</t>
         </is>
       </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3750,6 +4195,11 @@
           <t>VbB2CSMlLSNWHOAABpy3uw==</t>
         </is>
       </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3787,6 +4237,11 @@
           <t>vKhgK+s68KhVtXjTD0VBVA==</t>
         </is>
       </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3824,6 +4279,11 @@
           <t>6ZjUjRzLhOXPMid7s5rR3w==</t>
         </is>
       </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3861,16 +4321,21 @@
           <t>fsz8GXQrFk29QflF6IMv8A==</t>
         </is>
       </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>0ELMm8VHJkm7JQZrb9ereVwS/bxMDfaFhyKdHvLsg5U=</t>
+          <t>Vt0H6U/FRKeTo2nzX08waQ==</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>WUuikfwq96Mh17C/IL0XtbpqlJr+LkRyAw57zS7K3pI=</t>
+          <t>vIHq8pxswAB6S+5ROv585g==</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3880,34 +4345,39 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>QGsSConPUcRQaV6t8nBSAg==</t>
+          <t>vDPXMPiOntx7aNU2MSK2og==</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>AvCnKjitOhiOVtQOSA8K8LchH1GORHl3fcEgw70trRI=</t>
+          <t>IVqHvWKeXSHd78dZ7iBW+4JWUy4JhnDcG5OrUzAxjZo=</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>ki01YY6jvlEQdHWdyBdUrg==</t>
+          <t>p8qn1akZ8X0W1ss2rZbiFQ==</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>kcg4dv9vwUVSV28bSXh4rw==</t>
+          <t>eai/RjKky9d0kmj+Jr03Gw==</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>bZCFEPUieInyQGlVqI4Wm2Uh4b4aUzc7gSk/ldU/zTs=</t>
+          <t>0ELMm8VHJkm7JQZrb9ereVwS/bxMDfaFhyKdHvLsg5U=</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>VXvXaitzHLY5Ta1W06HSyZWmWbdyl112D6GY2/auv4U=</t>
+          <t>WUuikfwq96Mh17C/IL0XtbpqlJr+LkRyAw57zS7K3pI=</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3917,12 +4387,12 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>TVTGc4PNm0HcSEcb7iBryA==</t>
+          <t>QGsSConPUcRQaV6t8nBSAg==</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>3vdQEUvucKqtxr9CUf7DEem5zv+kUdZ1voKcCh051b8=</t>
+          <t>AvCnKjitOhiOVtQOSA8K8LchH1GORHl3fcEgw70trRI=</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -3932,19 +4402,24 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>smqEW+AiYbidMNYCoRE+9g==</t>
+          <t>kcg4dv9vwUVSV28bSXh4rw==</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>XOjSQwEd52Rg5Krntwr5BEBixxt89FCsys/DWZD2tMY=</t>
+          <t>bZCFEPUieInyQGlVqI4Wm2Uh4b4aUzc7gSk/ldU/zTs=</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>J/awriIbdp0suDRw5oYUOMxAgGAo6iZKAHdLQVIaG9k=</t>
+          <t>VXvXaitzHLY5Ta1W06HSyZWmWbdyl112D6GY2/auv4U=</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3954,12 +4429,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>eiZgPQkcsMOw0oXK0g2BFQ==</t>
+          <t>TVTGc4PNm0HcSEcb7iBryA==</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>TCwVyX1lGq/bjmNUQ788Y1A7hab43hFyQ5uTGlICOdo=</t>
+          <t>3vdQEUvucKqtxr9CUf7DEem5zv+kUdZ1voKcCh051b8=</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -3969,19 +4444,24 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>4/GT3zY7KA8VSqiUtSGnWw==</t>
+          <t>smqEW+AiYbidMNYCoRE+9g==</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>VwjoR9fE2ML/r08UNr514Q==</t>
+          <t>XOjSQwEd52Rg5Krntwr5BEBixxt89FCsys/DWZD2tMY=</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>mcMHGXONMf8roV4ziSzmPzX2kfHzZAL9Tyam2pOgGn4=</t>
+          <t>J/awriIbdp0suDRw5oYUOMxAgGAo6iZKAHdLQVIaG9k=</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3991,12 +4471,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>pnY52dh3mplZxLyjnHFr6g==</t>
+          <t>eiZgPQkcsMOw0oXK0g2BFQ==</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>gfPB5YO44n2oTA7CWeF8VIt6ROdJYAhTeGDLBje5BPs=</t>
+          <t>TCwVyX1lGq/bjmNUQ788Y1A7hab43hFyQ5uTGlICOdo=</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -4006,19 +4486,24 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>G4bbQogUYfJy4s/RWvskNA==</t>
+          <t>4/GT3zY7KA8VSqiUtSGnWw==</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>+e/AE1h58FiVLdAzFk7nbA==</t>
+          <t>VwjoR9fE2ML/r08UNr514Q==</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>vDPXMPiOntx7aNU2MSK2og==</t>
+          <t>mcMHGXONMf8roV4ziSzmPzX2kfHzZAL9Tyam2pOgGn4=</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4028,29 +4513,34 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>vDPXMPiOntx7aNU2MSK2og==</t>
+          <t>pnY52dh3mplZxLyjnHFr6g==</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>+bth+0nXN7Jkv+rLIAuSAcZAwNf95A5+5FelmotLwDg=</t>
+          <t>gfPB5YO44n2oTA7CWeF8VIt6ROdJYAhTeGDLBje5BPs=</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>JP6yqO8a1Y+U5hKV7JWoZQ==</t>
+          <t>ki01YY6jvlEQdHWdyBdUrg==</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>c0/dqPHRdalAGB3uRiyqvQ==</t>
+          <t>G4bbQogUYfJy4s/RWvskNA==</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Jw4Ugz/raFHAHcLyJK9tSQ==</t>
+          <t>+e/AE1h58FiVLdAzFk7nbA==</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -4065,12 +4555,12 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>SnGhr1snpE+Nk3zCF6HCmg==</t>
+          <t>vDPXMPiOntx7aNU2MSK2og==</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>74ntEqiwFSra7Kxtlzaw3CfbH2aNXzV3lTqsEzWOP2M=</t>
+          <t>+bth+0nXN7Jkv+rLIAuSAcZAwNf95A5+5FelmotLwDg=</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -4080,14 +4570,19 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>COc/4GDJEaR6wV/YYlF0fQ==</t>
+          <t>c0/dqPHRdalAGB3uRiyqvQ==</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>G/5r/5Tx5OwZBz5XNJIcvg==</t>
+          <t>Jw4Ugz/raFHAHcLyJK9tSQ==</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -4107,7 +4602,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>sr5VrDHNsMjd3xb+F5PxvEH31JGVYKgweEwVdRUVbek=</t>
+          <t>74ntEqiwFSra7Kxtlzaw3CfbH2aNXzV3lTqsEzWOP2M=</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -4117,14 +4612,19 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>hiJlpBGZSOlQ/+Nq31A9pA==</t>
+          <t>COc/4GDJEaR6wV/YYlF0fQ==</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>PV6OAdImrUuyTDVRfNWCWw==</t>
+          <t>G/5r/5Tx5OwZBz5XNJIcvg==</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -4144,7 +4644,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>PZ52yQRYtIph9ZvwkNNrIQOV6AOv22+E7Gesw+qWhhE=</t>
+          <t>sr5VrDHNsMjd3xb+F5PxvEH31JGVYKgweEwVdRUVbek=</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -4154,14 +4654,19 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>PAC2XolI4ko/AKDAT1X1XQ==</t>
+          <t>hiJlpBGZSOlQ/+Nq31A9pA==</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>g3QnXcQYKocYMvE34zNChQ==</t>
+          <t>PV6OAdImrUuyTDVRfNWCWw==</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -4181,7 +4686,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>SKaUbuM1Ka4dGwWE5aZc34RGNZkYg6n6mGYiOsDg+MQ=</t>
+          <t>PZ52yQRYtIph9ZvwkNNrIQOV6AOv22+E7Gesw+qWhhE=</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -4191,14 +4696,19 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>PbuNbpgh3bBTeTEyAP8zMg==</t>
+          <t>PAC2XolI4ko/AKDAT1X1XQ==</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>/4udpd0+duZOl6T8U4/9vA==</t>
+          <t>g3QnXcQYKocYMvE34zNChQ==</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -4218,7 +4728,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>2y6RC8F/bva7DaoNYyKP/6GaX6cE8f5RGtyUnIz3qyg=</t>
+          <t>SKaUbuM1Ka4dGwWE5aZc34RGNZkYg6n6mGYiOsDg+MQ=</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -4228,14 +4738,19 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>KN60gEoV/XY2FDRHTdnUHg==</t>
+          <t>PbuNbpgh3bBTeTEyAP8zMg==</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>ly+uW3ySnAlwCDdXcFTCvg==</t>
+          <t>/4udpd0+duZOl6T8U4/9vA==</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -4255,7 +4770,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>4PDOCMxaLzotUI/alpPbYQcOrVy/rl8pRmkxR4Jhp+k=</t>
+          <t>2y6RC8F/bva7DaoNYyKP/6GaX6cE8f5RGtyUnIz3qyg=</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -4265,14 +4780,19 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>oi5P2mtIxXOk9Yw3tTvcZQ==</t>
+          <t>KN60gEoV/XY2FDRHTdnUHg==</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>awVIQvDov1woI9OGdaekRw==</t>
+          <t>ly+uW3ySnAlwCDdXcFTCvg==</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -4292,7 +4812,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Cr3x+1c/0LvJ5tFk4xKHPGeiBVabvFqTLk3zqo6mko8=</t>
+          <t>4PDOCMxaLzotUI/alpPbYQcOrVy/rl8pRmkxR4Jhp+k=</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -4302,14 +4822,19 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>qO9k0TqMfS+u/1IOjNmY9A==</t>
+          <t>oi5P2mtIxXOk9Yw3tTvcZQ==</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>onMCR4pXT8+GBAOQor5X6g==</t>
+          <t>awVIQvDov1woI9OGdaekRw==</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4329,7 +4854,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>UplZ/BaGH9hbAc9eBlRQY5yRB+CFNyB98WfOIaX520U=</t>
+          <t>Cr3x+1c/0LvJ5tFk4xKHPGeiBVabvFqTLk3zqo6mko8=</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -4339,14 +4864,19 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>ERPg9saYPONb/Xk8+YSkjA==</t>
+          <t>qO9k0TqMfS+u/1IOjNmY9A==</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>mBB3gVRnQsHo8t5KnJxmkQ==</t>
+          <t>onMCR4pXT8+GBAOQor5X6g==</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4366,7 +4896,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>ozGMYV8o+TAXBIc6wgiHSJK0f7+yuO8NVmWkGG9ZndA=</t>
+          <t>UplZ/BaGH9hbAc9eBlRQY5yRB+CFNyB98WfOIaX520U=</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -4376,14 +4906,19 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>pMGkrBUqzunL1cLlkbrrWw==</t>
+          <t>ERPg9saYPONb/Xk8+YSkjA==</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>LdzjSuM7neeKRXz5EUrR4w==</t>
+          <t>mBB3gVRnQsHo8t5KnJxmkQ==</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -4403,7 +4938,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>AkDSj0ALDOm/I0/XVJHRDPsVh7reEZX8VsBJe+gHt9k=</t>
+          <t>ozGMYV8o+TAXBIc6wgiHSJK0f7+yuO8NVmWkGG9ZndA=</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -4413,14 +4948,19 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>0lk8KNOMawJtvQ9peouwkg==</t>
+          <t>pMGkrBUqzunL1cLlkbrrWw==</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>hGx+DQTDZogWKHVOnRlpLg==</t>
+          <t>LdzjSuM7neeKRXz5EUrR4w==</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4440,7 +4980,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>FbFWp3SphI0kbp4/4IqFFobfgyoYpWjQNQT+gu9UFMM=</t>
+          <t>AkDSj0ALDOm/I0/XVJHRDPsVh7reEZX8VsBJe+gHt9k=</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -4450,14 +4990,19 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>6f0qzlwJN87FNsQ05lJufA==</t>
+          <t>0lk8KNOMawJtvQ9peouwkg==</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>6IAAdvPeVl13kFu64yVhpA==</t>
+          <t>hGx+DQTDZogWKHVOnRlpLg==</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4477,7 +5022,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>6beeoQdzSPSCbpbcjqkADTSPWoZobW7BHOlQH4z4k5g=</t>
+          <t>FbFWp3SphI0kbp4/4IqFFobfgyoYpWjQNQT+gu9UFMM=</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -4487,14 +5032,19 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>qINTSqaAbYJKEMEZLn0HjQ==</t>
+          <t>6f0qzlwJN87FNsQ05lJufA==</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>9x2Hgwop0UBdqLx56Enm1Q==</t>
+          <t>6IAAdvPeVl13kFu64yVhpA==</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4514,7 +5064,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>aYc1v4f6MKYMqHx5/BHPs/UK6q3mjqNfYeHsHhDzN38=</t>
+          <t>6beeoQdzSPSCbpbcjqkADTSPWoZobW7BHOlQH4z4k5g=</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -4524,14 +5074,19 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>wfGvSqAMPO3xOr/BuA6ysA==</t>
+          <t>qINTSqaAbYJKEMEZLn0HjQ==</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>MN9Nq1SJ1NQfFAqF/bWloQ==</t>
+          <t>9x2Hgwop0UBdqLx56Enm1Q==</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -4551,7 +5106,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>etV147LrWcnDtrJahRPYWhCSJCWRSC+nXO9yhAy3R/M=</t>
+          <t>aYc1v4f6MKYMqHx5/BHPs/UK6q3mjqNfYeHsHhDzN38=</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -4561,14 +5116,19 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>qyKBNgRUzTxOjKdrzq1Qlg==</t>
+          <t>wfGvSqAMPO3xOr/BuA6ysA==</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>WXVGdFZfYO+pwCoKvaV9Kg==</t>
+          <t>MN9Nq1SJ1NQfFAqF/bWloQ==</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4588,7 +5148,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>+UBSVLdP0WE51j/w09YFItWpcNJRLvLiaajv055G8pU=</t>
+          <t>etV147LrWcnDtrJahRPYWhCSJCWRSC+nXO9yhAy3R/M=</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -4598,14 +5158,19 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>g8JwFCwQywf8E3ObhcoNjQ==</t>
+          <t>qyKBNgRUzTxOjKdrzq1Qlg==</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>5zctOQIHjYC8R7v1vFsV0w==</t>
+          <t>WXVGdFZfYO+pwCoKvaV9Kg==</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -4625,7 +5190,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>ghLJ3ttMe9C+/F++4E8JrOzz1Kxuvxynh2x3vahOJGc=</t>
+          <t>+UBSVLdP0WE51j/w09YFItWpcNJRLvLiaajv055G8pU=</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -4635,14 +5200,19 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Nja+4XN6e4K+t17LIL0kZw==</t>
+          <t>g8JwFCwQywf8E3ObhcoNjQ==</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>+0da/LaklVvWHAwdsV/85w==</t>
+          <t>5zctOQIHjYC8R7v1vFsV0w==</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4662,7 +5232,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>7TBvL5WpTOgmxvBUNBhBVBMyjFmZZnBwGBDmkSn1xgs=</t>
+          <t>ghLJ3ttMe9C+/F++4E8JrOzz1Kxuvxynh2x3vahOJGc=</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -4672,14 +5242,19 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>HoKYrHAgNl4bhUld1qhnVg==</t>
+          <t>Nja+4XN6e4K+t17LIL0kZw==</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>oxTSZascjbvoqmYn2bWgDw==</t>
+          <t>+0da/LaklVvWHAwdsV/85w==</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4694,12 +5269,12 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>lzpD7uoEwSGxvmejvqYlFA==</t>
+          <t>SnGhr1snpE+Nk3zCF6HCmg==</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>0/MLK5q5Vc/C0Czz1chj9FYWQPTVWfEHSnzDa9Txj5A=</t>
+          <t>7TBvL5WpTOgmxvBUNBhBVBMyjFmZZnBwGBDmkSn1xgs=</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -4709,14 +5284,19 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>kPRuuHSAqU2q4G+5yoCUBg==</t>
+          <t>HoKYrHAgNl4bhUld1qhnVg==</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>VGQFFAnJ7XdpL22lXXdRtQ==</t>
+          <t>oxTSZascjbvoqmYn2bWgDw==</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4736,7 +5316,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>HZn+MgxG+lXZLdpkL9LprapZ/xrw9M3WME146oVCogk=</t>
+          <t>0/MLK5q5Vc/C0Czz1chj9FYWQPTVWfEHSnzDa9Txj5A=</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -4746,14 +5326,19 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>61NUruABsGatZP3UJr68Dw==</t>
+          <t>kPRuuHSAqU2q4G+5yoCUBg==</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>I4jh3xxUe6ram1btI+zPng==</t>
+          <t>VGQFFAnJ7XdpL22lXXdRtQ==</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4773,7 +5358,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>QpzMZDXgowXc0al92xx/Qqqle9pWge3HuEAX7lt4USc=</t>
+          <t>HZn+MgxG+lXZLdpkL9LprapZ/xrw9M3WME146oVCogk=</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -4783,14 +5368,19 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>SYC7ws3syg7tRExvZDZxsQ==</t>
+          <t>61NUruABsGatZP3UJr68Dw==</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>TPL+2cjH7J4kNh3491kPTg==</t>
+          <t>I4jh3xxUe6ram1btI+zPng==</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4810,7 +5400,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>MSRf7T70PSi6jGSsDt8Rxv5Xnc/TBFanBTK6J5R+/+k=</t>
+          <t>QpzMZDXgowXc0al92xx/Qqqle9pWge3HuEAX7lt4USc=</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -4820,14 +5410,19 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>UQNwEgFg7jWYxT9WUNBCxg==</t>
+          <t>SYC7ws3syg7tRExvZDZxsQ==</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>T4yFiwe3ghL6mBVC9/PPCA==</t>
+          <t>TPL+2cjH7J4kNh3491kPTg==</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4847,7 +5442,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>MoqXaQd9xvif/ni7iQgWwyGQrSHTaqzt6br/eVVWZhI=</t>
+          <t>MSRf7T70PSi6jGSsDt8Rxv5Xnc/TBFanBTK6J5R+/+k=</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -4857,14 +5452,19 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>w4pdDSm9jdSL5GuRhIbwzw==</t>
+          <t>UQNwEgFg7jWYxT9WUNBCxg==</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Q+naSTdWEVdDLkc51H96ng==</t>
+          <t>T4yFiwe3ghL6mBVC9/PPCA==</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4884,7 +5484,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Qd95q/2EXCFCA1rYsPjHOQw9wotf3IYHv+2uytDhOc0=</t>
+          <t>MoqXaQd9xvif/ni7iQgWwyGQrSHTaqzt6br/eVVWZhI=</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -4894,14 +5494,19 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>R2VobxgmMPy34QA7fyYccg==</t>
+          <t>w4pdDSm9jdSL5GuRhIbwzw==</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2OdYRlbfsWQmKWS5V1sW9Q==</t>
+          <t>Q+naSTdWEVdDLkc51H96ng==</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4921,7 +5526,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>m8uHhHuvtgDhNx2myw4NwHMmSuFxq8AkctgLB2VSjI0=</t>
+          <t>Qd95q/2EXCFCA1rYsPjHOQw9wotf3IYHv+2uytDhOc0=</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -4931,14 +5536,19 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>+O3EBeb0bR76DYcri2SJeA==</t>
+          <t>R2VobxgmMPy34QA7fyYccg==</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>gyckaVaSTQTwqCrrgH7SjA==</t>
+          <t>2OdYRlbfsWQmKWS5V1sW9Q==</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4958,7 +5568,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>PJYYrcHvFZGKpiS45RGzYvAWMKilhUYZQ26CLBUSu2E=</t>
+          <t>m8uHhHuvtgDhNx2myw4NwHMmSuFxq8AkctgLB2VSjI0=</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -4968,14 +5578,19 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>usjIh098p+e19ZjhWModww==</t>
+          <t>+O3EBeb0bR76DYcri2SJeA==</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>JjrwncoCs4L6F3BU7H+ucA==</t>
+          <t>gyckaVaSTQTwqCrrgH7SjA==</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4995,7 +5610,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>o8t/0hk88cKPuB0e30nwW7zb8vViOEDZ+d4OLF5TLZY=</t>
+          <t>PJYYrcHvFZGKpiS45RGzYvAWMKilhUYZQ26CLBUSu2E=</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -5005,14 +5620,19 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>tIFpAvJqbfknJ4GneocmZA==</t>
+          <t>usjIh098p+e19ZjhWModww==</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Dbkfc3LJDTxgNuRgg0wLRA==</t>
+          <t>JjrwncoCs4L6F3BU7H+ucA==</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -5032,7 +5652,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Oi/WgDMl4rpXxJChGoWY82QBXeSK1S3WtjgfCsZz8fg=</t>
+          <t>o8t/0hk88cKPuB0e30nwW7zb8vViOEDZ+d4OLF5TLZY=</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -5042,14 +5662,19 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>qhitjsxw+mRmT7A6VLF+kQ==</t>
+          <t>tIFpAvJqbfknJ4GneocmZA==</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>1CyyfGyY/oYv/yNef0nv6Q==</t>
+          <t>Dbkfc3LJDTxgNuRgg0wLRA==</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -5069,7 +5694,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>ih2e/UvPRQEaLBb/CP//FxkgkkbPwFHaa1EWppDQSAA=</t>
+          <t>Oi/WgDMl4rpXxJChGoWY82QBXeSK1S3WtjgfCsZz8fg=</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -5079,14 +5704,19 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>in1h1YcvrcaxTeIHOK3vgQ==</t>
+          <t>qhitjsxw+mRmT7A6VLF+kQ==</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>rkcU18wtuw5e2uQ+dKxKAQ==</t>
+          <t>1CyyfGyY/oYv/yNef0nv6Q==</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -5106,7 +5736,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>iaqhgIOdes1aOextMFBn8G7MRTeXBZfxQj8xychTaUs=</t>
+          <t>ih2e/UvPRQEaLBb/CP//FxkgkkbPwFHaa1EWppDQSAA=</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -5116,14 +5746,19 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>dfKNAexouf6cdsQhemBBGw==</t>
+          <t>in1h1YcvrcaxTeIHOK3vgQ==</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>E1n9WRyv4G8tDFK2evo8rA==</t>
+          <t>rkcU18wtuw5e2uQ+dKxKAQ==</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -5143,7 +5778,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>WE+Y9fj68Z90GJWR4M0ewZrmxZuPyFAjFRZ1jKII5gc=</t>
+          <t>iaqhgIOdes1aOextMFBn8G7MRTeXBZfxQj8xychTaUs=</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -5153,14 +5788,19 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>oQdVqxpfefqX8WyFG+njxQ==</t>
+          <t>dfKNAexouf6cdsQhemBBGw==</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>L3SYERgUKjYq5OdPiUX1zg==</t>
+          <t>E1n9WRyv4G8tDFK2evo8rA==</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -5180,7 +5820,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>v8J74i2f7TbS/rzUoAqwiFUxWZEfiUgrIPM42mOK2fQ=</t>
+          <t>WE+Y9fj68Z90GJWR4M0ewZrmxZuPyFAjFRZ1jKII5gc=</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -5190,14 +5830,19 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>FkTxdiRWPn+8BySXy1jJzQ==</t>
+          <t>oQdVqxpfefqX8WyFG+njxQ==</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>sMlOnQ7zkiT7Y3OzTyRZ5Q==</t>
+          <t>L3SYERgUKjYq5OdPiUX1zg==</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -5217,7 +5862,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>77bNSoyC8hkyZDCCTLlv765K3L3zTOz1v77nzmeMHLM=</t>
+          <t>v8J74i2f7TbS/rzUoAqwiFUxWZEfiUgrIPM42mOK2fQ=</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -5227,14 +5872,19 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>d+GC3nSnfTCNTA+xJ3Rmmg==</t>
+          <t>FkTxdiRWPn+8BySXy1jJzQ==</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>yy4NfbeegnnRWWdo4WD95g==</t>
+          <t>sMlOnQ7zkiT7Y3OzTyRZ5Q==</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -5254,7 +5904,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>tPejm/m6Hj4iPBKuArnzGqi1C6HuJJsJTwcSC+qFeVo=</t>
+          <t>77bNSoyC8hkyZDCCTLlv765K3L3zTOz1v77nzmeMHLM=</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -5264,14 +5914,19 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>0NOl7HnVNRS5YHNxfIcYxQ==</t>
+          <t>d+GC3nSnfTCNTA+xJ3Rmmg==</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>i5PWVxT5x8RtXSPvBHpFLQ==</t>
+          <t>yy4NfbeegnnRWWdo4WD95g==</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -5291,7 +5946,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>2DTiWo/3oSOQ/n8Fronu/H1qE0eouMiey/uU9U3n+pY=</t>
+          <t>tPejm/m6Hj4iPBKuArnzGqi1C6HuJJsJTwcSC+qFeVo=</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -5301,14 +5956,19 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>xFB9+r1/em/j7NyMuR2Nwg==</t>
+          <t>0NOl7HnVNRS5YHNxfIcYxQ==</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>KYUD9is0y+18aR4lBvI3YQ==</t>
+          <t>i5PWVxT5x8RtXSPvBHpFLQ==</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -5328,7 +5988,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>I1wCKbDAl3QMUL9YCXklO1QCLGQqi2m/pOXv2mEsgac=</t>
+          <t>2DTiWo/3oSOQ/n8Fronu/H1qE0eouMiey/uU9U3n+pY=</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -5338,7 +5998,12 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>ubsUvHMW9NW5a6FtTKo7PQ==</t>
+          <t>xFB9+r1/em/j7NyMuR2Nwg==</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
@@ -5378,6 +6043,11 @@
           <t>ksPSvzCp/I/6+iRqoFArPQ==</t>
         </is>
       </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -5415,6 +6085,11 @@
           <t>+hlIofVrRsHP+gS4U7HkNA==</t>
         </is>
       </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -5452,6 +6127,11 @@
           <t>10+qM5sw61QU95XXrOZLug==</t>
         </is>
       </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -5489,6 +6169,11 @@
           <t>lGW0AT+BSUDsMI0gqB6yKQ==</t>
         </is>
       </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -5526,6 +6211,11 @@
           <t>nKVx1C4rvZR/Z8rgAMTcSA==</t>
         </is>
       </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -5563,6 +6253,11 @@
           <t>9xvHWQ/vEktvpcAXgTXEUw==</t>
         </is>
       </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -5600,6 +6295,11 @@
           <t>cpcdxHOwue3Iw0Yzymw8+g==</t>
         </is>
       </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -5637,6 +6337,11 @@
           <t>MCYLQa4P/4ljAUl7ESKogw==</t>
         </is>
       </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -5674,6 +6379,11 @@
           <t>KkhARNx/Llb2OJSz03CWKg==</t>
         </is>
       </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -5711,6 +6421,11 @@
           <t>LWdfhP7mPLoDaBGEvhr+Fw==</t>
         </is>
       </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -5748,6 +6463,11 @@
           <t>8O/uu0rYGMnBJ2pbXay+eQ==</t>
         </is>
       </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -5785,6 +6505,11 @@
           <t>AWu6H+P9dcP9YihpL36yzA==</t>
         </is>
       </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -5822,6 +6547,11 @@
           <t>ZPQl+WJXZQsjyexrb2bXkA==</t>
         </is>
       </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -5859,6 +6589,11 @@
           <t>Le8QXsZMHHQcC3ibUjSEJQ==</t>
         </is>
       </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -5896,6 +6631,11 @@
           <t>IaTB9uyJSKAgWgSHhVrbhA==</t>
         </is>
       </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -5933,6 +6673,11 @@
           <t>F/6+NSm+y5FXiKInSs7M2g==</t>
         </is>
       </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -5970,6 +6715,11 @@
           <t>mn9lEYYANljDRGHcqNBvtQ==</t>
         </is>
       </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -6007,6 +6757,11 @@
           <t>3seiTwsUdbt2XOGIpgrvBQ==</t>
         </is>
       </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -6044,6 +6799,11 @@
           <t>7JNMIaL9S/klMeLQ9T8Qew==</t>
         </is>
       </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -6081,6 +6841,11 @@
           <t>NXJ0D4Q0kY2sEYVFLbt/lg==</t>
         </is>
       </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -6118,6 +6883,11 @@
           <t>4Xh8NhFMAzfsTY3RppTAuw==</t>
         </is>
       </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -6155,6 +6925,11 @@
           <t>8lRHImL8Wl1EfViIUi3xDg==</t>
         </is>
       </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -6192,6 +6967,11 @@
           <t>o+wStSSkOCSekUDUwpgVrg==</t>
         </is>
       </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -6229,6 +7009,11 @@
           <t>WsFKqK+z0GxMHDt9mlFEpw==</t>
         </is>
       </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -6266,6 +7051,11 @@
           <t>QsA3rNdLxy+Pr9r10rOiHQ==</t>
         </is>
       </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -6303,6 +7093,11 @@
           <t>1pFB4zrg7XhD9G3Evp+sKg==</t>
         </is>
       </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -6340,6 +7135,11 @@
           <t>xxTdMSu4qr4DZ9XmmlpC0A==</t>
         </is>
       </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -6377,6 +7177,11 @@
           <t>W5zxCeYlbU3heM4I2wsNZw==</t>
         </is>
       </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -6414,6 +7219,11 @@
           <t>AjC+lVsXfGqjnYQ9dcQ5bA==</t>
         </is>
       </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -6451,6 +7261,11 @@
           <t>KFEs/mWNiis3KT/W8GCkVg==</t>
         </is>
       </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -6488,6 +7303,11 @@
           <t>1/R8BkQywgBJS329erV+/g==</t>
         </is>
       </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -6525,6 +7345,11 @@
           <t>4Ri4vxfexvxyUk7LNCXL+Q==</t>
         </is>
       </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -6562,6 +7387,11 @@
           <t>B1uVAUpQwZN+uOTr/4xYxA==</t>
         </is>
       </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -6599,6 +7429,11 @@
           <t>P6PmmIukp2YgokEyRRsymw==</t>
         </is>
       </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -6636,6 +7471,11 @@
           <t>EOrgJlLbJrbmC++dBtvRlg==</t>
         </is>
       </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -6673,6 +7513,11 @@
           <t>aR9Mv8dxJccGBahczQC2CA==</t>
         </is>
       </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -6710,6 +7555,11 @@
           <t>I+j7CuWreEDbcvZx0DcTlw==</t>
         </is>
       </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -6747,6 +7597,11 @@
           <t>YQoMTDos6Cs/o+H2aOcY0w==</t>
         </is>
       </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -6784,6 +7639,11 @@
           <t>gisz/E8dp/sdTImYz+tqjQ==</t>
         </is>
       </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -6821,6 +7681,11 @@
           <t>JpagVu212HtTTN/vQwy7MA==</t>
         </is>
       </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -6858,6 +7723,11 @@
           <t>lwYxdf7vSA3vKS+3Hcclwg==</t>
         </is>
       </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -6895,6 +7765,11 @@
           <t>QRF0HnOTvYlEN4HDwwkPBg==</t>
         </is>
       </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -6932,6 +7807,11 @@
           <t>rMu6LaIWWpLmQUO+Qndyjg==</t>
         </is>
       </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -6969,6 +7849,11 @@
           <t>66mmSOX29ZHEBQbXZWpM9w==</t>
         </is>
       </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -7006,6 +7891,11 @@
           <t>LwviyB/5xvnKNp2Xl5rybA==</t>
         </is>
       </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -7043,6 +7933,11 @@
           <t>z0pdxN+L778zT2XLkEl3rQ==</t>
         </is>
       </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -7080,6 +7975,11 @@
           <t>tJc6EwUB5wt1joV5IooMqg==</t>
         </is>
       </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -7117,6 +8017,11 @@
           <t>DCfdt7gRMOf7/fxA4Z0meA==</t>
         </is>
       </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -7154,6 +8059,11 @@
           <t>71J9czcAyKJVA85aKgl2sA==</t>
         </is>
       </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -7191,6 +8101,11 @@
           <t>rV614cVgT69wrVIJ26YA1w==</t>
         </is>
       </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -7228,6 +8143,11 @@
           <t>WGwGyMc2PGgcmDlaYyNbqg==</t>
         </is>
       </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -7265,6 +8185,11 @@
           <t>7nadLh9oJAk4SEg0YNkEhw==</t>
         </is>
       </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -7302,6 +8227,11 @@
           <t>/8cHEcpDKyf/uG730Zrh3A==</t>
         </is>
       </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -7339,6 +8269,11 @@
           <t>rrwi9R+qkJiq3ElgV43yBw==</t>
         </is>
       </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -7376,6 +8311,11 @@
           <t>pYsnfoAkDsAITAVnpzPh0w==</t>
         </is>
       </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -7413,6 +8353,11 @@
           <t>+cICHDsgXMsHohK9P09+qg==</t>
         </is>
       </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -7450,6 +8395,11 @@
           <t>YyQkXFLy67FDXjzT4CZk7g==</t>
         </is>
       </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -7487,6 +8437,11 @@
           <t>Yov+kLzFQuli+9OdPms07w==</t>
         </is>
       </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -7524,6 +8479,11 @@
           <t>lxrBajSlQiCnTBPErmRiUQ==</t>
         </is>
       </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -7561,6 +8521,11 @@
           <t>QqsDFGG/ANbSI0Zla2JkHQ==</t>
         </is>
       </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -7598,6 +8563,11 @@
           <t>z3jMnGvJGw7BJDIqB9EtmQ==</t>
         </is>
       </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -7635,6 +8605,11 @@
           <t>JvayF8uWG1V+/e+fhfS4VQ==</t>
         </is>
       </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -7672,6 +8647,11 @@
           <t>nGBICxaN3ZT+zLCZhQGozg==</t>
         </is>
       </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -7709,6 +8689,11 @@
           <t>Lbm4LraiTAjhCHd7Nx1bHQ==</t>
         </is>
       </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -7746,6 +8731,11 @@
           <t>8Ew0SfI53z6j7549FVUyRA==</t>
         </is>
       </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -7783,6 +8773,11 @@
           <t>4WEJeQIrtJCSsUF9SzYyYw==</t>
         </is>
       </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -7820,6 +8815,11 @@
           <t>6+MBwysXAR2dv1tyaMZFwA==</t>
         </is>
       </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -7857,6 +8857,11 @@
           <t>/hrGOw+FzFDUIbYRaMjMEg==</t>
         </is>
       </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -7894,6 +8899,11 @@
           <t>aFOX/z048eXOcthHxle+Dw==</t>
         </is>
       </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -7931,6 +8941,11 @@
           <t>IU58piexKhX8FkUmfOZlOw==</t>
         </is>
       </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -7968,6 +8983,11 @@
           <t>64JGdfchIyfzM1YRbt3sdQ==</t>
         </is>
       </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -8005,6 +9025,11 @@
           <t>c9kiZl07IjhSa5I/6u3mew==</t>
         </is>
       </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -8042,6 +9067,11 @@
           <t>juINdM3pLy32svR2VG2+8g==</t>
         </is>
       </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -8079,6 +9109,11 @@
           <t>HSauD0mhV020qn5HX7ezLQ==</t>
         </is>
       </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -8116,6 +9151,11 @@
           <t>fwbn18ke1F0hi43uysqhUQ==</t>
         </is>
       </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -8153,6 +9193,11 @@
           <t>qbYQ7lPrLZvYNL0gR5z3wQ==</t>
         </is>
       </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -8190,6 +9235,11 @@
           <t>7hera2KM7+KJzhJUOcXJuQ==</t>
         </is>
       </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -8227,6 +9277,11 @@
           <t>ixvcNfeQRihgj/goyicK8g==</t>
         </is>
       </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -8264,6 +9319,11 @@
           <t>FLBm57lxWawOTutZjp1rng==</t>
         </is>
       </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -8301,6 +9361,11 @@
           <t>S5gr1M3qa1SDiuI2ogSe8Q==</t>
         </is>
       </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -8338,6 +9403,11 @@
           <t>yHXFRSrxizPdLdv/0ARDtA==</t>
         </is>
       </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -8375,6 +9445,11 @@
           <t>P6EosMH5V99JafiCYTC51g==</t>
         </is>
       </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -8412,11 +9487,16 @@
           <t>K+NAtg18YUWTLG/48PBxJA==</t>
         </is>
       </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>QNxNQ/9XwU4E3O3+ntKURw==</t>
+          <t>AQNcdQBV1OTE9722YzaXXQ==</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -8447,6 +9527,11 @@
       <c r="G217" t="inlineStr">
         <is>
           <t>pXH/+uX2m9YAekvTLyiY3g==</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
@@ -8486,6 +9571,11 @@
           <t>QMKXnSfDhBj/SQh+10s8lw==</t>
         </is>
       </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -8523,6 +9613,11 @@
           <t>NnInM1x5kmM6b9f1/Y8rew==</t>
         </is>
       </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -8560,6 +9655,11 @@
           <t>kppQ9lkRr2r3HokB9wXzTQ==</t>
         </is>
       </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -8597,6 +9697,11 @@
           <t>myQqQmng1rejNttWjnMazw==</t>
         </is>
       </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -8634,6 +9739,11 @@
           <t>zXFZU/0BgM+fJkV9EkxS0A==</t>
         </is>
       </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -8671,6 +9781,11 @@
           <t>8uIhG6w9k8azfO2myw7yLw==</t>
         </is>
       </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -8708,6 +9823,11 @@
           <t>jTzPN+gRWG5Cxoa1kp/Tyw==</t>
         </is>
       </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -8745,6 +9865,11 @@
           <t>HS4zS9bxcLX7DPTRoJlk1Q==</t>
         </is>
       </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -8782,6 +9907,11 @@
           <t>/2Wza3Dhu3B8qLE0/T/Ofg==</t>
         </is>
       </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -8819,6 +9949,11 @@
           <t>g45DfTLl5NldCIVVLWtHcQ==</t>
         </is>
       </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -8856,6 +9991,11 @@
           <t>hB1RcLXNllruLnC00HroOg==</t>
         </is>
       </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -8893,6 +10033,11 @@
           <t>UgwStBpPa8cD5ybyFUTiMw==</t>
         </is>
       </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -8930,6 +10075,11 @@
           <t>EET3cDtqpD5uGRwmpWM7TQ==</t>
         </is>
       </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -8967,6 +10117,11 @@
           <t>jtaJ8QStVGuHWfn2kCchSA==</t>
         </is>
       </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -9004,6 +10159,11 @@
           <t>S13+VqsTJ3GSKDPkLqHg3Q==</t>
         </is>
       </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -9041,6 +10201,11 @@
           <t>RPdn0e10SrwtKQNoExrWpA==</t>
         </is>
       </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -9078,6 +10243,11 @@
           <t>c89/USyOLOnNLctFVH10Zw==</t>
         </is>
       </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -9115,6 +10285,11 @@
           <t>PGTLFVNRPhU9QMI3/LGkSA==</t>
         </is>
       </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -9152,6 +10327,11 @@
           <t>yMOV9DFLgs4qo2uN/yoghw==</t>
         </is>
       </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -9189,6 +10369,11 @@
           <t>4j0WynMU/pEZF9w4iZ/fpQ==</t>
         </is>
       </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -9226,6 +10411,11 @@
           <t>HoMtGdWr5qr+3rIMkwXg4A==</t>
         </is>
       </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -9263,6 +10453,11 @@
           <t>uSWLNRDDffe39YZ2tAtiFg==</t>
         </is>
       </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -9300,6 +10495,11 @@
           <t>lnmHvCKrRoUjLuN9CpsYPw==</t>
         </is>
       </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -9337,6 +10537,11 @@
           <t>xlnPPY7yOSdrStV0pzv+bg==</t>
         </is>
       </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -9374,6 +10579,11 @@
           <t>Fml1j9+goVEZBmmmvZmqHw==</t>
         </is>
       </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -9411,6 +10621,11 @@
           <t>r5zMoYTwan60yPSuN13EBg==</t>
         </is>
       </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -9448,6 +10663,11 @@
           <t>7U3HfldRjcKomi8u6GBzRQ==</t>
         </is>
       </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -9485,6 +10705,11 @@
           <t>zenPcJdNSgj3TNSUt1FCHA==</t>
         </is>
       </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -9522,6 +10747,11 @@
           <t>kIjCtW12WQZ9fwz3ZRrDuQ==</t>
         </is>
       </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -9559,6 +10789,11 @@
           <t>nR58v/RfztXpPC0dV8SEUQ==</t>
         </is>
       </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -9596,6 +10831,11 @@
           <t>btqC/m/7OyMmn3bgtZbPVw==</t>
         </is>
       </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -9633,6 +10873,11 @@
           <t>oybiY4E7hfGH4JB2g+7t7w==</t>
         </is>
       </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -9670,6 +10915,11 @@
           <t>L01VuFwaxce+0MDy5q3pfA==</t>
         </is>
       </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -9707,6 +10957,11 @@
           <t>v7NXd6E/zkC9xYNDY5fVOg==</t>
         </is>
       </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -9744,6 +10999,11 @@
           <t>HAfbeiXXJXEFw/T1HaDQGQ==</t>
         </is>
       </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -9781,6 +11041,11 @@
           <t>yev2d2nvUQkzw3wec9OlXw==</t>
         </is>
       </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -9818,6 +11083,11 @@
           <t>Wn5wBq6Q1XOhizpV5Y7LiQ==</t>
         </is>
       </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -9855,6 +11125,11 @@
           <t>PC3EYOrcdlZuH5LmY3WQoQ==</t>
         </is>
       </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -9892,6 +11167,11 @@
           <t>3sW0IsscfwCYQaplao/xJw==</t>
         </is>
       </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -9929,6 +11209,11 @@
           <t>QPTjJDOzCJ3hHmJilkogVg==</t>
         </is>
       </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -9966,6 +11251,11 @@
           <t>wSeg1WLH4bwY2t3btPk1og==</t>
         </is>
       </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -10003,6 +11293,11 @@
           <t>YpkOL/bqclm1OiPTGnopcQ==</t>
         </is>
       </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -10040,6 +11335,11 @@
           <t>W4TjhCriiK/sAjdgCvasOQ==</t>
         </is>
       </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -10077,6 +11377,11 @@
           <t>z16XihW9/yGpJIbyXrhX+Q==</t>
         </is>
       </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -10114,6 +11419,11 @@
           <t>L4m2bVnNfHN+qzTIxgWovw==</t>
         </is>
       </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -10151,6 +11461,11 @@
           <t>uB0BBonBrokJWPs8Kcp54g==</t>
         </is>
       </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -10188,6 +11503,11 @@
           <t>feD2Ni4f40wMN97Mdu9U4Q==</t>
         </is>
       </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -10225,6 +11545,11 @@
           <t>l3ELeCQtGxWF+O/ycIedbQ==</t>
         </is>
       </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -10262,6 +11587,11 @@
           <t>IUMEmNE8C6xgmp0CqjH+TA==</t>
         </is>
       </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -10299,6 +11629,11 @@
           <t>lBGuX6B+01d7YNLWpxnHpw==</t>
         </is>
       </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -10336,6 +11671,11 @@
           <t>NZ4efpedds3c3zA9ISxVxQ==</t>
         </is>
       </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -10373,6 +11713,11 @@
           <t>O7MShIUIOWFsyRONlokZSw==</t>
         </is>
       </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -10410,6 +11755,11 @@
           <t>oPk63dAoubV0+XSHneXi4Q==</t>
         </is>
       </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -10447,6 +11797,11 @@
           <t>70HEzQod3zEtFkzoeDtKFA==</t>
         </is>
       </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -10484,6 +11839,11 @@
           <t>+JXJgQughh6y5XNY4aCiAA==</t>
         </is>
       </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -10521,6 +11881,11 @@
           <t>XRjxs4K3W/PsHKubmo0fIw==</t>
         </is>
       </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -10558,6 +11923,11 @@
           <t>Dmk00PbAsuV1V25MkufRvQ==</t>
         </is>
       </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -10595,6 +11965,11 @@
           <t>Efr3VygMMuYVFSUFVj/Tug==</t>
         </is>
       </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -10632,6 +12007,11 @@
           <t>Cqziv2/uu05aZhcw6LlbNA==</t>
         </is>
       </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -10669,6 +12049,11 @@
           <t>br8A4MMTjpCPWzR3BBuyWA==</t>
         </is>
       </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -10706,6 +12091,11 @@
           <t>GSyEocp0tGPDtOcJiGFM0A==</t>
         </is>
       </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -10743,6 +12133,11 @@
           <t>NRNCFBaPQUCut/m7kQdu6A==</t>
         </is>
       </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -10780,6 +12175,11 @@
           <t>WoN9et/OlCYbv0t1E3WMIA==</t>
         </is>
       </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -10817,6 +12217,11 @@
           <t>rHbIxrVLe156w/AXCb5gpg==</t>
         </is>
       </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -10854,6 +12259,11 @@
           <t>bVwdV7c/CLaVrIbt8HXB+Q==</t>
         </is>
       </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -10891,6 +12301,11 @@
           <t>NIiWGQRfNZl4SU81MUl1/Q==</t>
         </is>
       </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -10928,6 +12343,11 @@
           <t>Y4oHkWPQPV59txPUYSC/WA==</t>
         </is>
       </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -10965,6 +12385,11 @@
           <t>mPe9mgg4PsLki4fyRqZS6g==</t>
         </is>
       </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -11002,6 +12427,11 @@
           <t>lQ0kxmSYXTJ1J8EmwnGn6A==</t>
         </is>
       </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -11039,6 +12469,11 @@
           <t>vtTWjZfHV207hh2wBYNYmg==</t>
         </is>
       </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -11076,6 +12511,11 @@
           <t>YnkM9p6jmHY3WNLkyRYECg==</t>
         </is>
       </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -11113,6 +12553,11 @@
           <t>AIUnsT4Agzlv97XigDUI2g==</t>
         </is>
       </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -11150,6 +12595,11 @@
           <t>Zja1g2YppC+F5Ll3Ktm+3g==</t>
         </is>
       </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -11187,6 +12637,11 @@
           <t>2QogoRc4blb6S1HpxO30Pw==</t>
         </is>
       </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -11224,21 +12679,26 @@
           <t>6lDC6XYDH4Kb4hYa/nGMjw==</t>
         </is>
       </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>7TxSgO5HjEOAVtNXKYlt0Rf/mwzHqPW8ffzlHeLoGuQ=</t>
+          <t>exOreXqBBHYOdQIBGXRzNg==</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>mC5Oy1t/j++G2FiO8OslvA==</t>
+          <t>vDPXMPiOntx7aNU2MSK2og==</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>jO23aVwWe77JwjiRkBgiQ9yBcr0V4GO4lmH4HIYtkac=</t>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -11259,23 +12719,28 @@
       <c r="G293" t="inlineStr">
         <is>
           <t>oeT586B1tRsLL0WzI/DZZA==</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>ToiX9M51sc+/818ujZA2aNmqLiJKAynCk+wIcn/w2xo=</t>
+          <t>sJwf5UYQ89nZxntYmB97+g==</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>mC5Oy1t/j++G2FiO8OslvA==</t>
+          <t>vDPXMPiOntx7aNU2MSK2og==</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>jO23aVwWe77JwjiRkBgiQ9yBcr0V4GO4lmH4HIYtkac=</t>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -11296,18 +12761,23 @@
       <c r="G294" t="inlineStr">
         <is>
           <t>BgwTCk89opxxdhr4/KF9Jg==</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>rPhFWmtlb1usjQ4Irrd+NplYo8DWwQArTaxBUWMYJuk=</t>
+          <t>rFJQE7LYLt60VlkTEEONjA==</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>A8hsI6GsFpCNCn2br7oY8Q==</t>
+          <t>vDPXMPiOntx7aNU2MSK2og==</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -11333,18 +12803,23 @@
       <c r="G295" t="inlineStr">
         <is>
           <t>TaPXBPjNGELmJv1oG6pw1A==</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>3HHHFxl4VMw3HnGZhEgAP9yBcr0V4GO4lmH4HIYtkac=</t>
+          <t>lkZ8Bt9YTJmh1Glh7A3O4A==</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>A8hsI6GsFpCNCn2br7oY8Q==</t>
+          <t>vDPXMPiOntx7aNU2MSK2og==</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -11370,18 +12845,23 @@
       <c r="G296" t="inlineStr">
         <is>
           <t>2F1mdlvERbyit3jvIdV+WA==</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>x0oVb0pku1WlkaBNMAGVD9yBcr0V4GO4lmH4HIYtkac=</t>
+          <t>b4iClNlD8mt+Lfq9aNOyBA==</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>A8hsI6GsFpCNCn2br7oY8Q==</t>
+          <t>vDPXMPiOntx7aNU2MSK2og==</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -11407,18 +12887,23 @@
       <c r="G297" t="inlineStr">
         <is>
           <t>bN669twnGNie72fn2TNVHQ==</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>31sTsgvT8NFmgcpl6YrZa5lYo8DWwQArTaxBUWMYJuk=</t>
+          <t>OKJRO2r9IKHeQOS4hdPd4g==</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>A8hsI6GsFpCNCn2br7oY8Q==</t>
+          <t>vDPXMPiOntx7aNU2MSK2og==</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -11444,23 +12929,28 @@
       <c r="G298" t="inlineStr">
         <is>
           <t>7E+V7asG6RHEAtd256KMFA==</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Owb57G4TbG991FfYTjjEH8qtIq6TyjijdQRxiCeJVwE=</t>
+          <t>hkovJne/rr6TICQ+XdCl0A==</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>mC5Oy1t/j++G2FiO8OslvA==</t>
+          <t>vDPXMPiOntx7aNU2MSK2og==</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>jO23aVwWe77JwjiRkBgiQ9yBcr0V4GO4lmH4HIYtkac=</t>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -11481,23 +12971,28 @@
       <c r="G299" t="inlineStr">
         <is>
           <t>BI7TdXNKQ7CpdVSrB7Aokg==</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>xDJliw3bz/vCJVgxDOSC5YNiG7C77eTdJJDGOeInB6I=</t>
+          <t>4muRzok5LqFMsxkcyGT6CA==</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>xJiiJwrHQBVifUNVq4xABQ==</t>
+          <t>vDPXMPiOntx7aNU2MSK2og==</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>jO23aVwWe77JwjiRkBgiQ9yBcr0V4GO4lmH4HIYtkac=</t>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -11518,23 +13013,28 @@
       <c r="G300" t="inlineStr">
         <is>
           <t>rogcnOrfKwpGJvH6jwtobA==</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>fpNUncyxdA0kxsZwi5/etqID2Y/dUoBNFtplBZ5BhrI=</t>
+          <t>T7slr9PkxixOtwhYS4dtag==</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>xJiiJwrHQBVifUNVq4xABQ==</t>
+          <t>vDPXMPiOntx7aNU2MSK2og==</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>jO23aVwWe77JwjiRkBgiQ9yBcr0V4GO4lmH4HIYtkac=</t>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -11555,23 +13055,28 @@
       <c r="G301" t="inlineStr">
         <is>
           <t>5osYYglFJDtde5V6Lqlzmw==</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>MhVpHpfZoAaqeoKSFSbHqPBsXwNbFaBIeK1oZ+nJ9fY=</t>
+          <t>sORLGNZBVP8W2szrG3esUw==</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>mC5Oy1t/j++G2FiO8OslvA==</t>
+          <t>vDPXMPiOntx7aNU2MSK2og==</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>jO23aVwWe77JwjiRkBgiQ9yBcr0V4GO4lmH4HIYtkac=</t>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -11592,23 +13097,28 @@
       <c r="G302" t="inlineStr">
         <is>
           <t>lwF4D5VfoFi87SLGfrLlVA==</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>sP0hhXRk6UF3lPqQTUi+cqID2Y/dUoBNFtplBZ5BhrI=</t>
+          <t>8x7rCs/eZeR9KICZo7Jk8Q==</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>xJiiJwrHQBVifUNVq4xABQ==</t>
+          <t>vDPXMPiOntx7aNU2MSK2og==</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>jO23aVwWe77JwjiRkBgiQ9yBcr0V4GO4lmH4HIYtkac=</t>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -11629,23 +13139,28 @@
       <c r="G303" t="inlineStr">
         <is>
           <t>8XnLxqJrXiPIG/ZF+Ljkpg==</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>VH5yUPiMjkxcWBbXDkqqVO6f9hQfBZNg4ATCN9wN738=</t>
+          <t>Hm67oLY2/T8zwaWh2P6JVw==</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>mC5Oy1t/j++G2FiO8OslvA==</t>
+          <t>vDPXMPiOntx7aNU2MSK2og==</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>jO23aVwWe77JwjiRkBgiQ9yBcr0V4GO4lmH4HIYtkac=</t>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -11666,23 +13181,28 @@
       <c r="G304" t="inlineStr">
         <is>
           <t>ooc67CB+JpltPE12rE2Ysg==</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>L9ETzmOVYt7Nq9HvT/uccvBsXwNbFaBIeK1oZ+nJ9fY=</t>
+          <t>q3bNS+zWbeXPjv7XyZJAqg==</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>mC5Oy1t/j++G2FiO8OslvA==</t>
+          <t>vDPXMPiOntx7aNU2MSK2og==</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>jO23aVwWe77JwjiRkBgiQ9yBcr0V4GO4lmH4HIYtkac=</t>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -11703,23 +13223,28 @@
       <c r="G305" t="inlineStr">
         <is>
           <t>hwYfrN0yVYjPwt8VfcYXSQ==</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>UePM+jK3B2tuykhz28G4aYNiG7C77eTdJJDGOeInB6I=</t>
+          <t>z73kEM0E1kBiwAKvfFjBfg==</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>xJiiJwrHQBVifUNVq4xABQ==</t>
+          <t>vDPXMPiOntx7aNU2MSK2og==</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>jO23aVwWe77JwjiRkBgiQ9yBcr0V4GO4lmH4HIYtkac=</t>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -11740,23 +13265,28 @@
       <c r="G306" t="inlineStr">
         <is>
           <t>G44GNaLR0bQdflgDtQC1XA==</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>4zfU1vxSCNtPWpPsp4dyPKID2Y/dUoBNFtplBZ5BhrI=</t>
+          <t>WuzJjX15OH79qSkOD/EJTg==</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>mC5Oy1t/j++G2FiO8OslvA==</t>
+          <t>vDPXMPiOntx7aNU2MSK2og==</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>jO23aVwWe77JwjiRkBgiQ9yBcr0V4GO4lmH4HIYtkac=</t>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -11777,23 +13307,28 @@
       <c r="G307" t="inlineStr">
         <is>
           <t>K55JZYOaHQee1Eg7S8veGQ==</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>aEwHKJMRA45k1/vPpnysWNmqLiJKAynCk+wIcn/w2xo=</t>
+          <t>0wPZZhmFVpJkUTRFEYQw9Q==</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>xJiiJwrHQBVifUNVq4xABQ==</t>
+          <t>vDPXMPiOntx7aNU2MSK2og==</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>jO23aVwWe77JwjiRkBgiQ9yBcr0V4GO4lmH4HIYtkac=</t>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -11814,23 +13349,28 @@
       <c r="G308" t="inlineStr">
         <is>
           <t>dQJYEhwvtZ6J3Vdi3WH/SA==</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>fE/Bed9IjZO162o56LH6Ov8vifOxT1xwN0jWcuZQhf0=</t>
+          <t>KYUD9is0y+18aR4lBvI3YQ==</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>xJiiJwrHQBVifUNVq4xABQ==</t>
+          <t>vDPXMPiOntx7aNU2MSK2og==</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>jO23aVwWe77JwjiRkBgiQ9yBcr0V4GO4lmH4HIYtkac=</t>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -11851,23 +13391,28 @@
       <c r="G309" t="inlineStr">
         <is>
           <t>Ij2hY96EVm0X7RjmxJM2xA==</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>48tQ6HWOX06X8wXcSpVVSv8vifOxT1xwN0jWcuZQhf0=</t>
+          <t>YT2Y2egEVaMrUwfPXjzCSA==</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>mC5Oy1t/j++G2FiO8OslvA==</t>
+          <t>vDPXMPiOntx7aNU2MSK2og==</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>jO23aVwWe77JwjiRkBgiQ9yBcr0V4GO4lmH4HIYtkac=</t>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -11888,6 +13433,2615 @@
       <c r="G310" t="inlineStr">
         <is>
           <t>TDSU6AkaW6mko/pctC609w==</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>/UhrOWWjzjPdiMKFFaqZtf8vifOxT1xwN0jWcuZQhf0=</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>ZqGew6+52Wvrnu8EiGwfGA==</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>L2IFElWkmTWm2tUYraPMAdyBcr0V4GO4lmH4HIYtkac=</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>ZqGew6+52Wvrnu8EiGwfGA==</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>DX+40Q0WZnp2dSQQC8fq6xE5L58vAqZTs5wGoNBxQJI=</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>sDJW6Jxrrp/X+kyuSIo29Q==</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>WDqBSRNNh7l4UGAoDuQ9Dw==</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>A+S6ItVmJOzdEJUiX7AjKf8vifOxT1xwN0jWcuZQhf0=</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>ZqGew6+52Wvrnu8EiGwfGA==</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>L2IFElWkmTWm2tUYraPMAdyBcr0V4GO4lmH4HIYtkac=</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>AS55JLApIHsptgNnhI6HbA==</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>wG9XtdHe0sgW9oHqu/Y9dVDXBRn+fT3++v1bdYMq5OI=</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>sDJW6Jxrrp/X+kyuSIo29Q==</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>p/dgqD8itnE4S7gsJPUspQ==</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>+88Il0GxzT5ztIuBg4m+VINiG7C77eTdJJDGOeInB6I=</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>ZqGew6+52Wvrnu8EiGwfGA==</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>L2IFElWkmTWm2tUYraPMAdyBcr0V4GO4lmH4HIYtkac=</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>NI/PiXKXkSFFhJD3fY0jvg==</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>NtLmgPg48GYemP90I2g7yEEUwq1nmJkuBlyvYcXvtc4=</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>sDJW6Jxrrp/X+kyuSIo29Q==</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>R0dW3RqOpL1X39aPaqcTWQ==</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>P5WtfpLjoHC0XypyASpa2ZlYo8DWwQArTaxBUWMYJuk=</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>ZqGew6+52Wvrnu8EiGwfGA==</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>L2IFElWkmTWm2tUYraPMAdyBcr0V4GO4lmH4HIYtkac=</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>rQwJgN4rTcVne67ymzjXDg==</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>6pgyif2Ro7SklEKYsE4y/bGG7b+2MGtKBVgIf5HSFGg=</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>sDJW6Jxrrp/X+kyuSIo29Q==</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>cfQuzoIXgbH+DZAvJQdrpw==</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>jF9KsbiCozVe+yHZouKzmkKRu1oNfVo3mgJ2kNTVROc=</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>ZqGew6+52Wvrnu8EiGwfGA==</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>L2IFElWkmTWm2tUYraPMAdyBcr0V4GO4lmH4HIYtkac=</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>rQwJgN4rTcVne67ymzjXDg==</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>GpounncsYMS8vpkIJaRSk/jGxaEA1JPu4jfzt9PCW6g=</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>sDJW6Jxrrp/X+kyuSIo29Q==</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>Aztei4bV0NWphoLwJDPaKw==</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>c55VqNgXmUOXBfzc+Pizm4NiG7C77eTdJJDGOeInB6I=</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>ZqGew6+52Wvrnu8EiGwfGA==</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>L2IFElWkmTWm2tUYraPMAdyBcr0V4GO4lmH4HIYtkac=</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>ZqGew6+52Wvrnu8EiGwfGA==</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>WCckfNWXy6RdHumtJHQy4goO75102Ykd0XSP6tYCcdI=</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>sDJW6Jxrrp/X+kyuSIo29Q==</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>dK7nalqvQyiU828hVZJEbg==</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>yTcd4jDYlpYwItvPMw7sYpk5FU2IhzJDWqxu0RzYhR0=</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>ZqGew6+52Wvrnu8EiGwfGA==</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>L2IFElWkmTWm2tUYraPMAdyBcr0V4GO4lmH4HIYtkac=</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>ZqGew6+52Wvrnu8EiGwfGA==</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>SN8Ex2/cuCQIe5LczmKHUScVxVTz84cJyn3aCehqdiA=</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>sDJW6Jxrrp/X+kyuSIo29Q==</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>3OHFpioxBdQZ2DPBcigGnA==</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>0DYer0Ar0jOSKHaiqNsad4NiG7C77eTdJJDGOeInB6I=</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>ZqGew6+52Wvrnu8EiGwfGA==</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>L2IFElWkmTWm2tUYraPMAdyBcr0V4GO4lmH4HIYtkac=</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>ZqGew6+52Wvrnu8EiGwfGA==</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>u764LL27Xs5/iBSeB1dzq2iJdULcTEUMjPLkSwVw+cM=</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>sDJW6Jxrrp/X+kyuSIo29Q==</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>iJC5AOmQHY3u09h83UQzag==</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>FtxGgvkEoOaVuVwK02dk8aOWp8n7KnmzB+vJJX/otrc=</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>PUdhH2Sa1+lHplBC7r0UoNyBcr0V4GO4lmH4HIYtkac=</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>OGpT6z054sisVDzVvcPSr9yBcr0V4GO4lmH4HIYtkac=</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>C60xDL+Bs0Ek/VLLHaYsSZL99XID3V5854gbYThYeO4=</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>ex3QWF22k+oh5CT55Nyu2/+13imXtdsz8djkd8CKNx8=</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>O57Bh5Rq3K2CxYCllzLSBg==</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>ujcXDdD7uv3/pYtuxW450VN85s4gxAhooK3Q1BJAA80=</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>PUdhH2Sa1+lHplBC7r0UoNyBcr0V4GO4lmH4HIYtkac=</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>jn+UyKTRYi2IN9YVcqoGbg==</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>9x9Y67uhRB003MI8XEOD7PR8tPaIpPT36Qn2eRmCNag=</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>ex3QWF22k+oh5CT55Nyu2/+13imXtdsz8djkd8CKNx8=</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>RBQVfLT/S1tQqNefjF1vSg==</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>VlIv3Q386kUsvwt6tIMrs+NYZgg8eGApl6RX1y6CR2I=</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>PUdhH2Sa1+lHplBC7r0UoNyBcr0V4GO4lmH4HIYtkac=</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>5EItVBdx1oHsqnCbY/LppQnTgMe8dQ3V9qe5SHe73I4=</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>nnj61EShlg+hoeHQxG7UhBtajhzqSc0/dQpFLa10KLs=</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>ex3QWF22k+oh5CT55Nyu2/+13imXtdsz8djkd8CKNx8=</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>AoaG1OK2KxiyMBVs0h4csQ==</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>b1+7lAoCU3+Nvtw9sMrJtdYRjGuGSUAsiim9UQY/jOI=</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>PUdhH2Sa1+lHplBC7r0UoNyBcr0V4GO4lmH4HIYtkac=</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>QfQMKNR0agLFrZZ3rSw7NG+UWUAIY1kGlmdp4iC/ImE=</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>HRgLt++wfsrDGj02+iUSm2pgXg/E2xzeWgzeqdbiCVA=</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>ex3QWF22k+oh5CT55Nyu2/+13imXtdsz8djkd8CKNx8=</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>HfpBKmOMI+t2mr+MuZFPZA==</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>JQkeFH60LV5pRdZXsBQ/e8ai6K43yn08tI3680zFg+U=</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>PUdhH2Sa1+lHplBC7r0UoNyBcr0V4GO4lmH4HIYtkac=</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>UZTlMRCpQ7JOrQRdT71ycGU3pb2VoytQjled2rA0Mm0=</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>TCWnuPuDcIrRHftmNjq4YdnUsMb/eWbD376sabAEeJY=</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>ex3QWF22k+oh5CT55Nyu2/+13imXtdsz8djkd8CKNx8=</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>yw1qZumXzxQrGQGO9vSJRw==</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>56wArVEwhcuyGkparM4/P9t2s9kTDPrcRCjPN3hCkaA=</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>PUdhH2Sa1+lHplBC7r0UoNyBcr0V4GO4lmH4HIYtkac=</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>Pfm4PLUyI3zJzNt5YJE4tc8g2pZ6WRz/Z1KHO/9KIcw=</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>VSzmEzjagMJa8a4LjyrUuSLRA0KHTpJrA7OXiAU169c=</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>ex3QWF22k+oh5CT55Nyu2/+13imXtdsz8djkd8CKNx8=</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>KDKU55PkT86pky9FW75AKw==</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>D4rpMSvIcIz1EyECfZwluMY/DYZI4jvQipkNMw4dv0A=</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>PUdhH2Sa1+lHplBC7r0UoNyBcr0V4GO4lmH4HIYtkac=</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>opgmx6ukgfyWCi8Y25EJTdpYafA2yOIuX/E8IeIoxuI=</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>XFwfw5GmJhfz+ev8B0zUJ8geDkXehrZHrvCXlzHTYEw=</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>ex3QWF22k+oh5CT55Nyu2/+13imXtdsz8djkd8CKNx8=</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>fO9mcYM6Sl3myw7i98gDhw==</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>7a68y7/9CjWtciVZ1JZQsINiG7C77eTdJJDGOeInB6I=</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>PUdhH2Sa1+lHplBC7r0UoNyBcr0V4GO4lmH4HIYtkac=</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>Bp59Hev9DKHMWQ6xgkwtdXTNi650BhaYIC55Q6KCIms=</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>pC9Sn8iraNDPEyGLAKktE4JuIEoiTBA7+sccHZsT0RM=</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>ex3QWF22k+oh5CT55Nyu2/+13imXtdsz8djkd8CKNx8=</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>ShK9cDZj1pJfQ7MWQa+sEA==</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>wNFc9yXofHzwseL1IhfnWIcfuXd2GyO4BiBiG3JgpHU=</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>PUdhH2Sa1+lHplBC7r0UoNyBcr0V4GO4lmH4HIYtkac=</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>jgld2TuBeT8i6K0G3IXFOr+9H+hDXjSMDiEjsrpEpnI=</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>oGYOt4D26UjHbte1irp7RKpgH4L09Fh/Rvs/wZvq3Yg=</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>ex3QWF22k+oh5CT55Nyu2/+13imXtdsz8djkd8CKNx8=</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>ssz9HSmpacCtI8Mlvx7t4w==</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Ns2RbOb5eFbJTjAXKw+vo8Y/DYZI4jvQipkNMw4dv0A=</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>PUdhH2Sa1+lHplBC7r0UoNyBcr0V4GO4lmH4HIYtkac=</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>KOe2T4X2QOe/qz+kWxHOg4yMG4FrQHHThae/azX5xJo=</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>wZU1wvGMx05LkoOioluUmRdWa5yc53hJeOmDvLmdFMY=</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>ex3QWF22k+oh5CT55Nyu2/+13imXtdsz8djkd8CKNx8=</t>
+        </is>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>3inYU4n0KsVYf7B40/yi+Q==</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>BfhZ7rw/tvt0S5nqH9jiXAO4wrAXwuJESPCuYhTc5R0=</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>PUdhH2Sa1+lHplBC7r0UoNyBcr0V4GO4lmH4HIYtkac=</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>NMFmmjH7haKYnUYw1uDCKuTVfd3Peu+Ch+3BpBTW7mQ=</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>Y8uHNYff7GInCNO6rHo/RF6fLeSc54eagr72RvWGwkk=</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>ex3QWF22k+oh5CT55Nyu2/+13imXtdsz8djkd8CKNx8=</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>mDatnoxqFGZ3Kef2GldAmA==</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>M6g7C2nIikBlboiJRK64qimC1wLsYMS+xp/cIp/vQL0=</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>PUdhH2Sa1+lHplBC7r0UoNyBcr0V4GO4lmH4HIYtkac=</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>bVrS3Jg5P9VdMkHSy7LfdlEb3/oiYXj2+YGkA06mehk=</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>13ymzmyvIuaaodywPv3TFQgNYiFCRrC9E/5Xg9IKv30=</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>ex3QWF22k+oh5CT55Nyu2/+13imXtdsz8djkd8CKNx8=</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>iAG0FLQd2glKEeaNJYaotg==</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>w5m6u/5ZYiYNTJzFZjdQ2tmqLiJKAynCk+wIcn/w2xo=</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>MvO97H/7t9ipgMveoJhWH/BsXwNbFaBIeK1oZ+nJ9fY=</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>866D9dy1l7PZ9Sym3tiVtCLfePaPOnUkKY8bBxVdKFM=</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>WcgGgTZ2kYok8qXIAIkJ/w==</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Gzuz1f/H6tnUTi4i9P3LgtmqLiJKAynCk+wIcn/w2xo=</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>MvO97H/7t9ipgMveoJhWH/BsXwNbFaBIeK1oZ+nJ9fY=</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>DiV8UZWsddEQC0u6OYcH/2QI5U60H9z5vzwXF5cjLzM=</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>GdF7XwR8Kq0IbRWY6C3vjw==</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>YGVRw7Tzj32L6d3GvsUBUfBsXwNbFaBIeK1oZ+nJ9fY=</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>MvO97H/7t9ipgMveoJhWH/BsXwNbFaBIeK1oZ+nJ9fY=</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>QYc73aPLFyqODVVJX/Oum81eSHVBalGREBkw7Jp4Abw=</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>CQi6jR856X+AHHODudNEOA==</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>5hlwKJV+FjUt2S/cR0CQxvBsXwNbFaBIeK1oZ+nJ9fY=</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>MvO97H/7t9ipgMveoJhWH/BsXwNbFaBIeK1oZ+nJ9fY=</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>0RXYiz6qHCPu+VQCyfUJYF8ZXw0X118PVy8pWg4s4+k=</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>uplrAfzI1nM5vgMP6EpYLA==</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>fj0kmhKfWtb7Fcj4mZCZB/BsXwNbFaBIeK1oZ+nJ9fY=</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>MvO97H/7t9ipgMveoJhWH/BsXwNbFaBIeK1oZ+nJ9fY=</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>fGO/QwMJcak0r1ivuo7naaiP1cxmmTARnAy4IeDKoHY=</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>U+WTVLDUHAEr17zKTt0+CA==</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>0rI1ehB6KzqFm9x0k5Nf/JlYo8DWwQArTaxBUWMYJuk=</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>MvO97H/7t9ipgMveoJhWH/BsXwNbFaBIeK1oZ+nJ9fY=</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>jQIKoOhzPFpSu1ULmRA1+7voyS1CsCVnE5tIDCWoyEg=</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>uICdBSJT6wo1YRnGluFRJQ==</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>ryMQQG2+s7CT27ovteBK04NiG7C77eTdJJDGOeInB6I=</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>MvO97H/7t9ipgMveoJhWH/BsXwNbFaBIeK1oZ+nJ9fY=</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>eQ1yu38G1AwHk23xAXxRUna077VaOHajZizB6hXgdIU=</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>7bw2ch4yvInZqI4kW0H/Vg==</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>ggNBO9XBTLEfxdd37fJ1Ty+CMQ2PZGW+/4eNBxz1EJI=</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>MvO97H/7t9ipgMveoJhWH/BsXwNbFaBIeK1oZ+nJ9fY=</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>BXOZ2Xr3DGZH1UCVMrv+KaPCBuCormd+v1i8+3QKjac=</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>vmxLorxPrdGbflk6KDTwZQ==</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>1WZO/oDO2g0Vl7wwsbVlTC+CMQ2PZGW+/4eNBxz1EJI=</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>MvO97H/7t9ipgMveoJhWH/BsXwNbFaBIeK1oZ+nJ9fY=</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>Q/X5bCfyb1f5VCQrgSvn1yaULfTUxwJJ3aFZOp7aF4M=</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>DMqTAp9tRkW1tHP6xHXRLA==</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>NqrT9MCFHYGiFdrqF2/ep5lYo8DWwQArTaxBUWMYJuk=</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>MvO97H/7t9ipgMveoJhWH/BsXwNbFaBIeK1oZ+nJ9fY=</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>dtQbIgJU0vElTqddcR/Soe2slE7rnIMRQU3kwD6aizM=</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>Za6f4gQYQzN/qGTQlp/ytA==</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>+GsPBHcbVJ2MzbGoZ9eqtaID2Y/dUoBNFtplBZ5BhrI=</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>eHGl8nkxNv1n3fn2SB7i3tyBcr0V4GO4lmH4HIYtkac=</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>Tgde4eUw6LS0xAuCyp1VYiUEENNd9xfN3066FpUj3mQ=</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>RKhXBDpod/oMykZro+2X6w==</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>RaeOPXX9FJz7dF+6aX41eZlYo8DWwQArTaxBUWMYJuk=</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>eHGl8nkxNv1n3fn2SB7i3tyBcr0V4GO4lmH4HIYtkac=</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>iNAzSHSEaPOCnxpLam4g+KbtazuJN8P/qEc0BwmkT5I=</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
+        </is>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>PB4Xqm0mFSBcF2XXvhLdNw==</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>dkfiuMXcGoNdko0bMVgws9mqLiJKAynCk+wIcn/w2xo=</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>eHGl8nkxNv1n3fn2SB7i3tyBcr0V4GO4lmH4HIYtkac=</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>CX9qJl40R5CO4UcSQrVPKS9f+ZfQ+iTCDpdFQOPt1To=</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>ZB1KNwPwQdX6GXDmc/wEMA==</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>XBRLzVa9gnpDWqscviCUBC+CMQ2PZGW+/4eNBxz1EJI=</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>eHGl8nkxNv1n3fn2SB7i3tyBcr0V4GO4lmH4HIYtkac=</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>0/NwL/tKAD1Odlv1PYT2SwVt4g5st+l12PUO3Oo9Djk=</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>0NBTn+y2TWCZk9GPZk7Plg==</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>n7WN6JZNcre668fDsrJcbi+CMQ2PZGW+/4eNBxz1EJI=</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>eHGl8nkxNv1n3fn2SB7i3tyBcr0V4GO4lmH4HIYtkac=</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>crTgpsBEP4DDtPdjsSPxjx7ZmAfVRL3BJwMJbRWUHkM=</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>eLBo/lrOhHxPqcGUXAQ2Qw==</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>xLs0KjFOOmD30L4sP5O0df8vifOxT1xwN0jWcuZQhf0=</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>eHGl8nkxNv1n3fn2SB7i3tyBcr0V4GO4lmH4HIYtkac=</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>cMZw56AzEQGb6T5rgNbYeL4ldigiTkA1ipjXByvnWFk=</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>SlSncjOeB404UZKR/dYEdg==</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>ZKw+41J59/9KZkjrR6MFX5lYo8DWwQArTaxBUWMYJuk=</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>eHGl8nkxNv1n3fn2SB7i3tyBcr0V4GO4lmH4HIYtkac=</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>rNqKNoAjmYUtzfhBza4wgpvgJZ6q/rbBmS6DqMX3whY=</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
+        </is>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>l5q312pofd6ZZjGFxp+KVA==</t>
+        </is>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>yzMzfkJ0dMm4KZkUy7Lqjhf/mwzHqPW8ffzlHeLoGuQ=</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>eHGl8nkxNv1n3fn2SB7i3tyBcr0V4GO4lmH4HIYtkac=</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>j4rhvPKHoiZDpkUw7bLYFcWYBfX2/iLz1LfZJQBUego=</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
+        </is>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>DwNjclA0+L8RT2Bq7XEKrw==</t>
+        </is>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>7ytmdVT59shuneIt+IJxc5lYo8DWwQArTaxBUWMYJuk=</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>eHGl8nkxNv1n3fn2SB7i3tyBcr0V4GO4lmH4HIYtkac=</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>X8YWYEou+T9a/GId91ItRioUyZmzD03t3L/mnfDQMB0=</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
+        </is>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>NOwVFc+uHzrpWwiA8/fj/g==</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>fF4ibVMsE9Zpapo14ZFqbaID2Y/dUoBNFtplBZ5BhrI=</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>eHGl8nkxNv1n3fn2SB7i3tyBcr0V4GO4lmH4HIYtkac=</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>hYfJJYRkqaMPFQSzqfL9LxkXsxKqXh61J3bnFNctNio=</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
+        </is>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>Z83IzqSgzq+CjcgN6HooPA==</t>
+        </is>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>5WvQlLFHgoCkTwYWGyrfCh/HB1GieD13awTflgO0eew=</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>PUdhH2Sa1+lHplBC7r0UoNyBcr0V4GO4lmH4HIYtkac=</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>6mz4edUj/Fpac7C+btcU101IG2Bw60m7hTGdt6YRC9Y=</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
+        </is>
+      </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>fkG1HgPJJeJ3Ddp9WN0Evw==</t>
+        </is>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>N01dNkyRq+7o77If+UH12dmqLiJKAynCk+wIcn/w2xo=</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>PUdhH2Sa1+lHplBC7r0UoNyBcr0V4GO4lmH4HIYtkac=</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>N4k8yiYcllsxXZIByPfB+S4j50sE49bhK6Ap3WYZl9s=</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
+        </is>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>6RRVf+XGo+8nYlbFCvCHGw==</t>
+        </is>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>zndbVCUaR3iYuRI4GS+oLj9U+jAIlaIuYRm99UM0V5o=</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>ghjSuMkuOXVgj3/1TJHbAFp/S+9aAKs1WrUxuUOwgtg=</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
+        </is>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>yRiQAb6570okKaV5CWJiyw==</t>
+        </is>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>YVKg2vADJvWAC6TEn/43ZKID2Y/dUoBNFtplBZ5BhrI=</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>PUdhH2Sa1+lHplBC7r0UoNyBcr0V4GO4lmH4HIYtkac=</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>ndDBN4ztAAUveLKuWtRbKSSRQFq9p1vGmQJVPHkTVlE=</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
+        </is>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>K0ne6qM4Wup9c1d4s1Ua/g==</t>
+        </is>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Wecseh4SbAooEwGgLngeFJlYo8DWwQArTaxBUWMYJuk=</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>HSB2wf2APyPA+d7IDhcrgA==</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>W9pdoz7MWNJWG+nN2+RmFtyBcr0V4GO4lmH4HIYtkac=</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>vDPXMPiOntx7aNU2MSK2og==</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>xim7XCEkHCrfHke58C/GZgTBF7B5A9XTanQgFxz2ajk=</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>JbMvhG0epJlk/Jcv+HPvZA==</t>
+        </is>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>IlBPO78nPP5ORJ4VEgGqwINiG7C77eTdJJDGOeInB6I=</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Tx0UKf5FMEecQrS0k6lzeA==</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>FuiAY9X7G+mooXEgtXzxJvBsXwNbFaBIeK1oZ+nJ9fY=</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>j+Xd7gGbcpFKEpXrPF+dDw==</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>F7phci3RrPZia3rSFpRhG0yNHwj3GhxSin2rof6ghr4=</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
+        </is>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>fGEVH2SJixgj+svN19X4kw==</t>
+        </is>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>TOC12V+VxuiSNwc54CEH/v8vifOxT1xwN0jWcuZQhf0=</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Tx0UKf5FMEecQrS0k6lzeA==</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>FuiAY9X7G+mooXEgtXzxJvBsXwNbFaBIeK1oZ+nJ9fY=</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>kfrczZ/TZa6U2Vq2Do/VvQ==</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>ZLqif0n2S7Ne+AN4SUc7jw5+pt1L9RjFvd6kFmmG4AU=</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
+        </is>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>SNbfuh2IKEetm4QF/AV55A==</t>
+        </is>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>By/EbvN399fPUkmDkS0TNRf/mwzHqPW8ffzlHeLoGuQ=</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Tx0UKf5FMEecQrS0k6lzeA==</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>FuiAY9X7G+mooXEgtXzxJvBsXwNbFaBIeK1oZ+nJ9fY=</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>GZqGO7ytkRB5NjWOWJKS1A==</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>tAH0diEl0fpldE0JFX7I8UCxDoCTHbJ/DRtwoDH+0DQ=</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
+        </is>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>Ou5LMs0l71Y/Uf+Sxoq0dA==</t>
+        </is>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>t0egssOzWI9cwfK/LTwhQTvW3I0FL6B9GPQtKD4jelo=</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>Tx0UKf5FMEecQrS0k6lzeA==</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>FuiAY9X7G+mooXEgtXzxJvBsXwNbFaBIeK1oZ+nJ9fY=</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>nFkwGAmhYX4928mdV9SOhw==</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>yVer7YF8D6U1pnXsYaOJhOOchkWrvAgtnr0mMcv0Y9Y=</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
+        </is>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>H+rSzfoqf2yLOE6VLZBeJw==</t>
+        </is>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>sf4UN+L5noZuz7tJrBFk2nSJfhiV2/PH5LPRxqaeUOQ=</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>Tx0UKf5FMEecQrS0k6lzeA==</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>FuiAY9X7G+mooXEgtXzxJvBsXwNbFaBIeK1oZ+nJ9fY=</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>y+pXAGmueAa6CmoZ80MUNQ==</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>xtZAOsx4FhhClkJMUI83izbXteNaz1tcviKn1z02klo=</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
+        </is>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>OSH5peUbNJzszuYqJg79Yg==</t>
+        </is>
+      </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>22PjfHhdzMBpsZJ6NsKhWDvW3I0FL6B9GPQtKD4jelo=</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>Tx0UKf5FMEecQrS0k6lzeA==</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>FuiAY9X7G+mooXEgtXzxJvBsXwNbFaBIeK1oZ+nJ9fY=</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>Qib/+zoWZ/AdFl1FzIQrng==</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>CsTUNqssa7L3koKahIBHuU3ofYXfs2jpG1BpRByhU6M=</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
+        </is>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>2OnrzAaou9k18h04o/wkaw==</t>
+        </is>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>qSZygCih4DsPoMLy432FMTvW3I0FL6B9GPQtKD4jelo=</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>Tx0UKf5FMEecQrS0k6lzeA==</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>EBGyShXc5eAAiLYjWREo8i+CMQ2PZGW+/4eNBxz1EJI=</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>NS9qaOQkP3HAL+IY3qqkZw==</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>y8Xp/S9E0NL3dfbQeGzdche1uWYtTbA2g4VfIHkr5dI=</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
+        </is>
+      </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>w7sIQnB8Grb7SEhgIfI6pQ==</t>
+        </is>
+      </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>+Oqx5Z9W63gYDU6rR27gWoAqjt3JqS6WXB/UGMrQbJA=</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>Tx0UKf5FMEecQrS0k6lzeA==</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>FuiAY9X7G+mooXEgtXzxJvBsXwNbFaBIeK1oZ+nJ9fY=</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>bp81z80cGsVcdphPwd8fHg==</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>FI5VqYd4iryWYw4psANe5Rb/tya+7vjAvILItOTdJac=</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
+        </is>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>XWxvrRkG4euvPJ16cLXPjA==</t>
+        </is>
+      </c>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>YqAxkUsiTrqS5EWJaR7grINiG7C77eTdJJDGOeInB6I=</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>Tx0UKf5FMEecQrS0k6lzeA==</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>FuiAY9X7G+mooXEgtXzxJvBsXwNbFaBIeK1oZ+nJ9fY=</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>6qUAOdh6udYKI0rBEGpWyhskqLs5QHcKt+p8ZPo810c=</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
+        </is>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>7jJkL0kW7Tq4+47O3lutjg==</t>
+        </is>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>

--- a/account.xlsx
+++ b/account.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H372"/>
+  <dimension ref="A1:H434"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15712,12 +15712,12 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>/vULcunlucLYuWSVhEINLQ==</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>vDPXMPiOntx7aNU2MSK2og==</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -15727,22 +15727,22 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>SnGhr1snpE+Nk3zCF6HCmg==</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>F0pknaQPsf+mOweP/kb9z1QLuEy9ExMsD/ZJBrTi+Hs=</t>
         </is>
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>JP6yqO8a1Y+U5hKV7JWoZQ==</t>
         </is>
       </c>
       <c r="G365" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>rkWgm15TtpUw5u5BKdTzTA==</t>
         </is>
       </c>
       <c r="H365" t="inlineStr">
@@ -15754,12 +15754,12 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>a4z2LtDG4Z62Gs0ZQzhhzQ==</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>vDPXMPiOntx7aNU2MSK2og==</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -15769,22 +15769,22 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>SnGhr1snpE+Nk3zCF6HCmg==</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>HyQYTctXSV81EskC9lUmpb+vR0Jj2vniC6c0EsSADKA=</t>
         </is>
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>JP6yqO8a1Y+U5hKV7JWoZQ==</t>
         </is>
       </c>
       <c r="G366" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>z2/7z82VxOnau+07FTMv4Q==</t>
         </is>
       </c>
       <c r="H366" t="inlineStr">
@@ -15796,37 +15796,37 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>Mj4wfpn+iAmjUyMPXvmX8Q==</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>vDPXMPiOntx7aNU2MSK2og==</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>sJwf5UYQ89nZxntYmB97+g==</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>SnGhr1snpE+Nk3zCF6HCmg==</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>4o2oWRYgvD9fxv/DVd3FVnEE5Vhp4Skp2BsU74OSkPM=</t>
         </is>
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>JP6yqO8a1Y+U5hKV7JWoZQ==</t>
         </is>
       </c>
       <c r="G367" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>/khNi9pQDougxyHZb1zCWQ==</t>
         </is>
       </c>
       <c r="H367" t="inlineStr">
@@ -15838,37 +15838,37 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>UPbUnA/HkfBkA20zbNdnpw==</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>vDPXMPiOntx7aNU2MSK2og==</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>hkovJne/rr6TICQ+XdCl0A==</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>SnGhr1snpE+Nk3zCF6HCmg==</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>c50bOsC978D3NIPrxI8zWe3tT/p0aJGu4XeIn20GRII=</t>
         </is>
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>JP6yqO8a1Y+U5hKV7JWoZQ==</t>
         </is>
       </c>
       <c r="G368" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>UgjrdKPzfItO5dTyR6+9Rg==</t>
         </is>
       </c>
       <c r="H368" t="inlineStr">
@@ -15880,37 +15880,37 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>0aC+qkqywyYAiVe6xToFqg==</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>vDPXMPiOntx7aNU2MSK2og==</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>T7slr9PkxixOtwhYS4dtag==</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>SnGhr1snpE+Nk3zCF6HCmg==</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>x+NhrJjSIgAjH7+dPlHbtVNGEGJ3EMtj8XE5SmsNOxU=</t>
         </is>
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>JP6yqO8a1Y+U5hKV7JWoZQ==</t>
         </is>
       </c>
       <c r="G369" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>jxS24swCenfwXXbjYrUfrg==</t>
         </is>
       </c>
       <c r="H369" t="inlineStr">
@@ -15922,37 +15922,37 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>FtkkRu5Ay+vHB2bMvs5JQA==</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>vDPXMPiOntx7aNU2MSK2og==</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>8x7rCs/eZeR9KICZo7Jk8Q==</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>SnGhr1snpE+Nk3zCF6HCmg==</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>CFg37eSOJmAJ3yRc2p+sks5yDoSk/f7kg7a/nxpkYkg=</t>
         </is>
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>JP6yqO8a1Y+U5hKV7JWoZQ==</t>
         </is>
       </c>
       <c r="G370" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>8qowq10Tak2o3eu/cmm76w==</t>
         </is>
       </c>
       <c r="H370" t="inlineStr">
@@ -15964,37 +15964,37 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>fgu42TjcX2BR17s52rgQRw==</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>vDPXMPiOntx7aNU2MSK2og==</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>Hm67oLY2/T8zwaWh2P6JVw==</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>SnGhr1snpE+Nk3zCF6HCmg==</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>ajJ5zRv7oFm/kRGWfbAQgLcvxlWjibmGhWHbAACgwso=</t>
         </is>
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>JP6yqO8a1Y+U5hKV7JWoZQ==</t>
         </is>
       </c>
       <c r="G371" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>sCxtyiDnq8dcZZA0PuMgpg==</t>
         </is>
       </c>
       <c r="H371" t="inlineStr">
@@ -16006,40 +16006,2644 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>aZKJL2x5Gqfw+t3yHRBrUg==</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>vDPXMPiOntx7aNU2MSK2og==</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>q3bNS+zWbeXPjv7XyZJAqg==</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>SnGhr1snpE+Nk3zCF6HCmg==</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>0pfurE8KfB2yiS8Rfsyetd9FwvhhHYLZKUr/IXyh4IU=</t>
         </is>
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>JP6yqO8a1Y+U5hKV7JWoZQ==</t>
         </is>
       </c>
       <c r="G372" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>xNuzuclFJO7V/Ph/WvrxVw==</t>
         </is>
       </c>
       <c r="H372" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>9tclojFZADKh345HW26dkw==</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>vDPXMPiOntx7aNU2MSK2og==</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>z73kEM0E1kBiwAKvfFjBfg==</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>SnGhr1snpE+Nk3zCF6HCmg==</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>ZPqNVk+zEDwyk9oWu6vOtSFSQ3BfBtZtTrg2v2aH68E=</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>JP6yqO8a1Y+U5hKV7JWoZQ==</t>
+        </is>
+      </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>WZTGtnoClEo+Ny6sT8gWpA==</t>
+        </is>
+      </c>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>dCt74z7feRorb7A/gLcDuQ==</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>vDPXMPiOntx7aNU2MSK2og==</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>WuzJjX15OH79qSkOD/EJTg==</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>SnGhr1snpE+Nk3zCF6HCmg==</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>KPJleubkm1JbwqJYJdyJPvOn2EJsA2BApsDD/fmRveU=</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>JP6yqO8a1Y+U5hKV7JWoZQ==</t>
+        </is>
+      </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>xdcbSducXMBeo9Zvp2ib0w==</t>
+        </is>
+      </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>ZczV++0ShuQQgYNvOnncGA==</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>vDPXMPiOntx7aNU2MSK2og==</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>0wPZZhmFVpJkUTRFEYQw9Q==</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>SnGhr1snpE+Nk3zCF6HCmg==</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>9GE11zBwsj8xAsXGmpI/tC+PtH47JyoqTOvUftN67+E=</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>JP6yqO8a1Y+U5hKV7JWoZQ==</t>
+        </is>
+      </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>qrUNfwUbSxJTYUxqf7uQMg==</t>
+        </is>
+      </c>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>bxZOhL0XbVSB3aNLs/hG1A==</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>vDPXMPiOntx7aNU2MSK2og==</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>SnGhr1snpE+Nk3zCF6HCmg==</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>qVejgl25fr9oooKRKjPZMM4nFMjFpGO23cr3Hsp/gB8=</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>JP6yqO8a1Y+U5hKV7JWoZQ==</t>
+        </is>
+      </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>VFmAhpt3GSXAYfd6KC8FoA==</t>
+        </is>
+      </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>sJwf5UYQ89nZxntYmB97+g==</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>vDPXMPiOntx7aNU2MSK2og==</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>SnGhr1snpE+Nk3zCF6HCmg==</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>5FkZ6344vWx2Mxetn23yNkwZKB+L7QdXe3P+EGstcQY=</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>JP6yqO8a1Y+U5hKV7JWoZQ==</t>
+        </is>
+      </c>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>VawI+AO+Xo7REiZmUd8nWg==</t>
+        </is>
+      </c>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>5QaspTAtqWkVzGNSPNQ6pA==</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>vDPXMPiOntx7aNU2MSK2og==</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>SnGhr1snpE+Nk3zCF6HCmg==</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>07xLj3dPYfaqlK2LEVXiBreTFq3KLfdfcQTPjTGG9v4=</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>JP6yqO8a1Y+U5hKV7JWoZQ==</t>
+        </is>
+      </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>XSJ1oFJURXj8gxYk2JF5dQ==</t>
+        </is>
+      </c>
+      <c r="H378" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>nqim+ZlQqJmyddCUJPp3Tw==</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>vDPXMPiOntx7aNU2MSK2og==</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>SnGhr1snpE+Nk3zCF6HCmg==</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>HNFzPox4DoUTRyws2OGpjAR0ZJJJw2E4U2wbairFa5E=</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>JP6yqO8a1Y+U5hKV7JWoZQ==</t>
+        </is>
+      </c>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>Ovks1mBlhFau/t3WOl0BmA==</t>
+        </is>
+      </c>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>4TE2GI3eMNx32Gkdv2/NSQ==</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>vDPXMPiOntx7aNU2MSK2og==</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>SnGhr1snpE+Nk3zCF6HCmg==</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>ZSkS4VqoDzbS4wLWNbfYztzISq1prIJIeh53oRTQGk0=</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>JP6yqO8a1Y+U5hKV7JWoZQ==</t>
+        </is>
+      </c>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>Ef+lBO50Xw0iBH/2UJD4Wg==</t>
+        </is>
+      </c>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>UEpjg1Uw5uZzIPt+kLNKqQ==</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>vDPXMPiOntx7aNU2MSK2og==</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>SnGhr1snpE+Nk3zCF6HCmg==</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>VR4dT9VXD27idKvvk4xNF8EuEYymZfQPU8Tpv0aKBmc=</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>JP6yqO8a1Y+U5hKV7JWoZQ==</t>
+        </is>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>bPykPpLzBqNgVHp0bpAViA==</t>
+        </is>
+      </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>hkovJne/rr6TICQ+XdCl0A==</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>vDPXMPiOntx7aNU2MSK2og==</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>SnGhr1snpE+Nk3zCF6HCmg==</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>okIdHZKBKMG8fTv9I208YO4N+EibPepnL5gRVZZfdo4=</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>JP6yqO8a1Y+U5hKV7JWoZQ==</t>
+        </is>
+      </c>
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>7jwZajxHHmqWmzR9Yx/oDg==</t>
+        </is>
+      </c>
+      <c r="H382" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>T7slr9PkxixOtwhYS4dtag==</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>vDPXMPiOntx7aNU2MSK2og==</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>SnGhr1snpE+Nk3zCF6HCmg==</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>QubnRYwPVKbnpzBfzZTym2ZlhpZozNGP78Wk7BqTTdc=</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>JP6yqO8a1Y+U5hKV7JWoZQ==</t>
+        </is>
+      </c>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>WB6zPPFD8RMPrFxZ/VmMiA==</t>
+        </is>
+      </c>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>8x7rCs/eZeR9KICZo7Jk8Q==</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>vDPXMPiOntx7aNU2MSK2og==</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>SnGhr1snpE+Nk3zCF6HCmg==</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>h1z2mUbhgPu1zB+2PaZgqtakm7h6KUh7k8gtnWMo4/I=</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>JP6yqO8a1Y+U5hKV7JWoZQ==</t>
+        </is>
+      </c>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>wj9OkVXuHoVsQbU5yujR6g==</t>
+        </is>
+      </c>
+      <c r="H384" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>4q9E0+zkaw9YcYD3kHiTeQ==</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>vDPXMPiOntx7aNU2MSK2og==</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>SnGhr1snpE+Nk3zCF6HCmg==</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>HfvN3spaMPP/ORPJ6kRZri6UaawwicimsBgckKv+wgY=</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>JP6yqO8a1Y+U5hKV7JWoZQ==</t>
+        </is>
+      </c>
+      <c r="G385" t="inlineStr">
+        <is>
+          <t>9GHTHDhpPB8mpacfdqieLA==</t>
+        </is>
+      </c>
+      <c r="H385" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Hm67oLY2/T8zwaWh2P6JVw==</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>vDPXMPiOntx7aNU2MSK2og==</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>SnGhr1snpE+Nk3zCF6HCmg==</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>HzBnWibwS55MP9MXTcDoZ9jUg1fRJ7SdRFHG7rt3kFY=</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>JP6yqO8a1Y+U5hKV7JWoZQ==</t>
+        </is>
+      </c>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>k3gNy0j6QYSkL2SE6fMlpg==</t>
+        </is>
+      </c>
+      <c r="H386" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>q/tZgcTu0diUiupe7D1gAA==</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>vDPXMPiOntx7aNU2MSK2og==</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>SnGhr1snpE+Nk3zCF6HCmg==</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>tZCiqT2nDehQf0XSTTC7yuOBqIwchW6UKYRXFO6465I=</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>JP6yqO8a1Y+U5hKV7JWoZQ==</t>
+        </is>
+      </c>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>zcQMQoP/1AD3bDlT+qvi5w==</t>
+        </is>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>I1jdXOV872xruxO2mwHhQg==</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>vDPXMPiOntx7aNU2MSK2og==</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>SnGhr1snpE+Nk3zCF6HCmg==</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>lo/DRUz+e36q1CxBFCxaE5vn5vcblVcw46phfxYweRA=</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>JP6yqO8a1Y+U5hKV7JWoZQ==</t>
+        </is>
+      </c>
+      <c r="G388" t="inlineStr">
+        <is>
+          <t>eyQgtZFSGXh3R00ln38adA==</t>
+        </is>
+      </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>pEe6nvbKi9hy9K8SunTsCg==</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>vDPXMPiOntx7aNU2MSK2og==</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>SnGhr1snpE+Nk3zCF6HCmg==</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>V/Vsi2KCvwhmZ5JU8SPK8T54mCOZemq7/7DSVEooXmI=</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>JP6yqO8a1Y+U5hKV7JWoZQ==</t>
+        </is>
+      </c>
+      <c r="G389" t="inlineStr">
+        <is>
+          <t>zMLA2TO+8bmm0I8EWzwpMQ==</t>
+        </is>
+      </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>spzx4lUjJofYPcgyPK/m9w==</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>vDPXMPiOntx7aNU2MSK2og==</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>SnGhr1snpE+Nk3zCF6HCmg==</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>16I0J8b+DBYGwWDyv0i7zMK93yOWTHkrLpN+wQxrYpw=</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>JP6yqO8a1Y+U5hKV7JWoZQ==</t>
+        </is>
+      </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>dTcJlVE3/7WMChtboWuMiw==</t>
+        </is>
+      </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>q3bNS+zWbeXPjv7XyZJAqg==</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>vDPXMPiOntx7aNU2MSK2og==</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>lzpD7uoEwSGxvmejvqYlFA==</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>x9rz74AtfLdVI08AOS+K50/T3KrTRIomWbYMdPKSnZM=</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>JP6yqO8a1Y+U5hKV7JWoZQ==</t>
+        </is>
+      </c>
+      <c r="G391" t="inlineStr">
+        <is>
+          <t>1a17Hiq0yNe67UXSB2b0Ag==</t>
+        </is>
+      </c>
+      <c r="H391" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>z73kEM0E1kBiwAKvfFjBfg==</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>vDPXMPiOntx7aNU2MSK2og==</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>lzpD7uoEwSGxvmejvqYlFA==</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>f608prN/eVC24WXHTG0l+xXSfeoXo51HUEg0wDw13vg=</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>JP6yqO8a1Y+U5hKV7JWoZQ==</t>
+        </is>
+      </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>sabyUJriRsFstQxZDZxHQg==</t>
+        </is>
+      </c>
+      <c r="H392" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>WuzJjX15OH79qSkOD/EJTg==</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>vDPXMPiOntx7aNU2MSK2og==</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>SnGhr1snpE+Nk3zCF6HCmg==</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>lYCQ0QfpRkoQ8WSdju80NWwqUnyWa+fPDmdNMqBJ2sw=</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>JP6yqO8a1Y+U5hKV7JWoZQ==</t>
+        </is>
+      </c>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>WrcfU/jUDPF40qX9XAQNOA==</t>
+        </is>
+      </c>
+      <c r="H393" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>0wPZZhmFVpJkUTRFEYQw9Q==</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>vDPXMPiOntx7aNU2MSK2og==</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>lzpD7uoEwSGxvmejvqYlFA==</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>sJ++Z8g+4KBwURrSSLo10uewzDrHgcCDtMX5qw+a6yk=</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>JP6yqO8a1Y+U5hKV7JWoZQ==</t>
+        </is>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>Q1moS7nUIc93CoAKSQq9KA==</t>
+        </is>
+      </c>
+      <c r="H394" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>iEa7ZMLfba7Dw5dnGBjBZTuaEVL17XW+Ii34kAluvRA=</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>xJiiJwrHQBVifUNVq4xABQ==</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>L9fJONgY/My56aoEqcX4xvBsXwNbFaBIeK1oZ+nJ9fY=</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>vDPXMPiOntx7aNU2MSK2og==</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>xR7uQmY10/J8SPCNqJ/gplHLYvdIOZkQ48UAb82bAfI=</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>p8qn1akZ8X0W1ss2rZbiFQ==</t>
+        </is>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>gdqH+h9Cpo7ws796yq6wGQ==</t>
+        </is>
+      </c>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>drGbIrbgIDnCy+omShFAu1wS/bxMDfaFhyKdHvLsg5U=</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>LI/qkATnyNo1UzrI9UlcdjnIDQILJoLr/RQ239xjNRg=</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>tsphBd/kE0lOEhGGd1hpdg==</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>WEeQGGioUA5alm9Y6bosk0+Z14O8knvc/BHIBlT2ddw=</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>p8qn1akZ8X0W1ss2rZbiFQ==</t>
+        </is>
+      </c>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>oqeEEPTVdK3LlXJOyzTK+Q==</t>
+        </is>
+      </c>
+      <c r="H396" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>d3d3BvJc0g5Y0w5K/SRkCNyBcr0V4GO4lmH4HIYtkac=</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>a6OXYTf6CwsBPHx4r9vNaBY7/mfym6bKI1Dj9ZTpctM=</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>VTl2OXM4IuF9ongPG6fkqw==</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>FBiw7G/TxZV12njX4/cfD3YpOl+0iAUIMMrILar9MFI=</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>p8qn1akZ8X0W1ss2rZbiFQ==</t>
+        </is>
+      </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>ZfmX85f1DW/wSCHK2bK2gA==</t>
+        </is>
+      </c>
+      <c r="H397" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>df4GXsZVMI/93PNtTqkD/g==</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>ENfiZPmFie4e9L1rdc+nXPPVYKGs5oyNJ/ov1be4fOc=</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>3hty6B5VqS4EihjbRJjZIw==</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>V7I6ZwwRHdecqqj4SDm4z5qEtyF1Y4daDGyNxobyaRo=</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>p8qn1akZ8X0W1ss2rZbiFQ==</t>
+        </is>
+      </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>QMJJNfDk4ZBVlOiDjgL5sw==</t>
+        </is>
+      </c>
+      <c r="H398" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>alZQFMvKscgpWRimT/H37w==</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>WXfmRT2JJMYeWIuEJNxp5xF+cgh0RauxlHDnR9Ht96g=</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>6gBwekF0RG5xcYa5rS0R2A==</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>ccNjqX8W1FIyQoiJCrbvNSa50uGFrMjWwwrRtNJyDrM=</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>p8qn1akZ8X0W1ss2rZbiFQ==</t>
+        </is>
+      </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>FEOiGYCwZyRPPUm4lpnQgQ==</t>
+        </is>
+      </c>
+      <c r="H399" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>eiyYo7qwVxmEAVN4OvnKGmyRSTEoSHU4+iCWZJsbCac=</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>p5DgM/bPzGAa7y1J/O+e0sCPM/rJGz6dakLvVg9olEU=</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>vHfy4xi2NW9VrnRYzyVrfw==</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>so7bJ9DCyMhxYPN7XnUMptb3MhfKsuyun4vl5OdDsjA=</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>p8qn1akZ8X0W1ss2rZbiFQ==</t>
+        </is>
+      </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>ScpUy6bIjPFhYWhTHkyj6Q==</t>
+        </is>
+      </c>
+      <c r="H400" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Y1qhDwtz9u9EHao8bDeYkKYXhXme0xKeOwb0vnn91ug=</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>yanyV/a+ELSZiKWd3LHETA2sOI0OpQBDdNsHtOgMKNY=</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>PXzEbILSHOBH3ShiBjActw==</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>iFaly52wErC6KvowZ9YUDmeehrMXxd1mot3KImhJ7aQ=</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>p8qn1akZ8X0W1ss2rZbiFQ==</t>
+        </is>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>XJQ6lfepfMl5AV9LP5z2HA==</t>
+        </is>
+      </c>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>q19sSJWP7cDCnjp159C/zEBixxt89FCsys/DWZD2tMY=</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>zPe3xz6R5QxTuz0irJGr5nYNY8Yl98DviE+LQbyYW8s=</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>AlMJB9Zl0zVg1MVdBtx+bg==</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>+O5dKRFdKzCto0LX+u1oaUOB5iN4uJ9ormQVnwwXGNY=</t>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>p8qn1akZ8X0W1ss2rZbiFQ==</t>
+        </is>
+      </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t>UCJ0McmWSCWgxhJrVJc9AQ==</t>
+        </is>
+      </c>
+      <c r="H402" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>FS5NzkvpoJmAkjgqWXHoftyBcr0V4GO4lmH4HIYtkac=</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>sd1BCkEHkvKFWvWxgL8LbTWD/g7ewzOO0RydJYCLy00=</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>1JV1OQZ9sOQEfUaXrAVFxw==</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>HciynhHSfS7iX71OOXcShp9tA6EsAB9ihOn1am2T/U8=</t>
+        </is>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>p8qn1akZ8X0W1ss2rZbiFQ==</t>
+        </is>
+      </c>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>MVt74JAWOa+kIyH4GloU/g==</t>
+        </is>
+      </c>
+      <c r="H403" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>KE1BnXVSXWd1gVtgEhQmGg==</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>VOtm8fSQEIY9p68LS5WwdUfbecNIuYB6rz1TtqNpUEI=</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>l8rjELBKcflV0xY8BtIIEQ==</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>wdLCqx4wx8e+UUkKNntlzrBWc9+HikQG1s7cvuH0Cy0=</t>
+        </is>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>p8qn1akZ8X0W1ss2rZbiFQ==</t>
+        </is>
+      </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>YUMlqk/oBeZAWK29YYkGEg==</t>
+        </is>
+      </c>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>dPnJdXjFpVr9tGwakAMNwMSe9bg3qm+lvSqf3067bPE=</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>wPj01GXOMYouugD2xFJdqg==</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>w/6LPpvl7QYfeNLRA7ZvJQ==</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>0xMabB5ib9mIzqtwidZmjr1iMLKp3bMKNyGfzS3NS+Q=</t>
+        </is>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>HU2JngIBSH8E+qXaY+ZaTA==</t>
+        </is>
+      </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>h1NMNhyE5h787+VHwlOiQA==</t>
+        </is>
+      </c>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>T53TuSBXfg0KTHwQp8lL3Fpd6mpRPmfa3m97UjuSuzk=</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>wPj01GXOMYouugD2xFJdqg==</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>w/6LPpvl7QYfeNLRA7ZvJQ==</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>7xfEiGapBvE4bA2ET7aT2C3bgH0g67nmshOPoc1C9JU=</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>HU2JngIBSH8E+qXaY+ZaTA==</t>
+        </is>
+      </c>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>wJ0/IDF3zTsmk9UqkErnWg==</t>
+        </is>
+      </c>
+      <c r="H406" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>LIisTqCHsB8XVXa+skPwCPEzNMmyu9GfHyri8F8B4pE=</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>wPj01GXOMYouugD2xFJdqg==</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>w/6LPpvl7QYfeNLRA7ZvJQ==</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>imQWaYpw82j8fXKXaq1VkWpqGnQsq1wiWuGzBNDe6D8=</t>
+        </is>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>HU2JngIBSH8E+qXaY+ZaTA==</t>
+        </is>
+      </c>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t>iUvDQ0E4zeaDzc4mwVOptQ==</t>
+        </is>
+      </c>
+      <c r="H407" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>jOwOYMpI97KOAPT++SzMPL7A76mvrw1CXi8bxGJrXQ8=</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>wPj01GXOMYouugD2xFJdqg==</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>w/6LPpvl7QYfeNLRA7ZvJQ==</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>CTWmsQr4QtZou/pR9iW/vDrDu98JVybEQPQAIhaQ2iI=</t>
+        </is>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>HU2JngIBSH8E+qXaY+ZaTA==</t>
+        </is>
+      </c>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t>S2oSX/ZHjJpifr//cFyb5Q==</t>
+        </is>
+      </c>
+      <c r="H408" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>LyTDG5zhQtJEXseyJCibIFpd6mpRPmfa3m97UjuSuzk=</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>wPj01GXOMYouugD2xFJdqg==</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>w/6LPpvl7QYfeNLRA7ZvJQ==</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>cXdBPT7nHi8sP+s/pTwews9O12pIfeYT0H623yIg2k0=</t>
+        </is>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>HU2JngIBSH8E+qXaY+ZaTA==</t>
+        </is>
+      </c>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>BGgBQzxgSFdCufcMwm3RGA==</t>
+        </is>
+      </c>
+      <c r="H409" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>VjB3VCnd7VBJr05ZUyXqMKlGZvl78x5KGHB0W4e9Xz8=</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>vDPXMPiOntx7aNU2MSK2og==</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>/j0a/I65Nlt3GX8aTvvNYg==</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>GOKuPz5Rn4CyVGPtn5AFtJHB55KaxCguWMPn19GUldA=</t>
+        </is>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>ex3QWF22k+oh5CT55Nyu2/+13imXtdsz8djkd8CKNx8=</t>
+        </is>
+      </c>
+      <c r="G410" t="inlineStr">
+        <is>
+          <t>QEcgIepTM71Q9QPxK4v7NA==</t>
+        </is>
+      </c>
+      <c r="H410" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>AcpyndeHCHJZaAgm7719QRf/mwzHqPW8ffzlHeLoGuQ=</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>xJiiJwrHQBVifUNVq4xABQ==</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>L9fJONgY/My56aoEqcX4xvBsXwNbFaBIeK1oZ+nJ9fY=</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>vDPXMPiOntx7aNU2MSK2og==</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>Q0VvkEDU/Gn4FL7L55dAgTBkdcynowzmCKdkWE/zL/0=</t>
+        </is>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>ex3QWF22k+oh5CT55Nyu2/+13imXtdsz8djkd8CKNx8=</t>
+        </is>
+      </c>
+      <c r="G411" t="inlineStr">
+        <is>
+          <t>fX1fYd9JWEvUTPjrtd458A==</t>
+        </is>
+      </c>
+      <c r="H411" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Fuv155uWypeiiwBINF0BxS1uWfwR2DT99ffbJhABf0I=</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>xJiiJwrHQBVifUNVq4xABQ==</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>L9fJONgY/My56aoEqcX4xvBsXwNbFaBIeK1oZ+nJ9fY=</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>vDPXMPiOntx7aNU2MSK2og==</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>Ln2Y07n6dKAL+s0Zwhx2BzK+qytyyurR5tqnsWy+8Og=</t>
+        </is>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>ex3QWF22k+oh5CT55Nyu2/+13imXtdsz8djkd8CKNx8=</t>
+        </is>
+      </c>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>5hBRktMiG0I4Mhl1nxwJyQ==</t>
+        </is>
+      </c>
+      <c r="H412" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>5SLoARw5R/hKtHc3+9/eDUeBxpTLmxqc74r4ntOMCRI=</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>xJiiJwrHQBVifUNVq4xABQ==</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>L9fJONgY/My56aoEqcX4xvBsXwNbFaBIeK1oZ+nJ9fY=</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>vDPXMPiOntx7aNU2MSK2og==</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>bu0fIWJ6mIyOexFFk7xv5OdtG7CMxS30hf/eyfWQubQ=</t>
+        </is>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>ex3QWF22k+oh5CT55Nyu2/+13imXtdsz8djkd8CKNx8=</t>
+        </is>
+      </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>xr3eY5aCphiiFrtZe5wE0g==</t>
+        </is>
+      </c>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>vWawpPTyd5s96VZOJ5KaS6ID2Y/dUoBNFtplBZ5BhrI=</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>xJiiJwrHQBVifUNVq4xABQ==</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>L9fJONgY/My56aoEqcX4xvBsXwNbFaBIeK1oZ+nJ9fY=</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>vDPXMPiOntx7aNU2MSK2og==</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>B0C7gsBF7x7dUZ0OAaPVj2+seT7yu5fC+ODNfQ9RvWU=</t>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>ex3QWF22k+oh5CT55Nyu2/+13imXtdsz8djkd8CKNx8=</t>
+        </is>
+      </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>MMoebLFf8x+tL8AoplO+SQ==</t>
+        </is>
+      </c>
+      <c r="H414" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>EvYvOMP+8K0t3ID+65t1AYNiG7C77eTdJJDGOeInB6I=</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>xJiiJwrHQBVifUNVq4xABQ==</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>L9fJONgY/My56aoEqcX4xvBsXwNbFaBIeK1oZ+nJ9fY=</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>vDPXMPiOntx7aNU2MSK2og==</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>RTjYZ0gl+8BPbThKNrXydI5ulACQpJeqRlwiXeKm3pI=</t>
+        </is>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>ex3QWF22k+oh5CT55Nyu2/+13imXtdsz8djkd8CKNx8=</t>
+        </is>
+      </c>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>vygaG5BjQL/HdPlLRW3rUA==</t>
+        </is>
+      </c>
+      <c r="H415" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>tm1UaOvdj3hIKuCGpXTnh8Y/DYZI4jvQipkNMw4dv0A=</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>xJiiJwrHQBVifUNVq4xABQ==</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>L9fJONgY/My56aoEqcX4xvBsXwNbFaBIeK1oZ+nJ9fY=</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>vDPXMPiOntx7aNU2MSK2og==</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>gRp/xwW97D7CnUJp9UsU9FMXSCKothTH9qNWdlVYeXE=</t>
+        </is>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>ex3QWF22k+oh5CT55Nyu2/+13imXtdsz8djkd8CKNx8=</t>
+        </is>
+      </c>
+      <c r="G416" t="inlineStr">
+        <is>
+          <t>v+k4WsdI4G9OkUAnQAAX7g==</t>
+        </is>
+      </c>
+      <c r="H416" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>bPMOozHSX60yt6ea9Pd/QQhDl6chowhZ6Hl/u+2FbAQ=</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>xJiiJwrHQBVifUNVq4xABQ==</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>L9fJONgY/My56aoEqcX4xvBsXwNbFaBIeK1oZ+nJ9fY=</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>vDPXMPiOntx7aNU2MSK2og==</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>jTaB8DLvjnymArGK5kz2WMR4qxDyfvgaTOd7G+VyYWE=</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>ex3QWF22k+oh5CT55Nyu2/+13imXtdsz8djkd8CKNx8=</t>
+        </is>
+      </c>
+      <c r="G417" t="inlineStr">
+        <is>
+          <t>9OoXfP2vFwVLbQIXYrDdIQ==</t>
+        </is>
+      </c>
+      <c r="H417" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>9KpjDlum4CcIegaX9gpdrdyBcr0V4GO4lmH4HIYtkac=</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>8MsiF15o1RTiFnJSOkmYjPSiUh/aBxd8s8WRm6yJe+Y=</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>5a1g5mxh2T6zF68CHiG9Tw==</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>/pP9Nng8n9VvZzrjulZ6FxYMwKTEYLSxZ5ISAcu0hKM=</t>
+        </is>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>ki01YY6jvlEQdHWdyBdUrg==</t>
+        </is>
+      </c>
+      <c r="G418" t="inlineStr">
+        <is>
+          <t>A17vucV63Fg8/6urpm36Ng==</t>
+        </is>
+      </c>
+      <c r="H418" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>is7nIZPQ7MGEhiIHdyMjUw==</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>clYhcUBAvevPEO/eR1LNMo85R3FjL5eRFZlDbWb4qcI=</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>VPZ7Tikoc9BorqIqld3Jxg==</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>bj0V3tKqHzmJQYx7DTWgMeisblJWgVn+OHJO8POJoqk=</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>ki01YY6jvlEQdHWdyBdUrg==</t>
+        </is>
+      </c>
+      <c r="G419" t="inlineStr">
+        <is>
+          <t>dXI1MP3VE+87UDut10PMyw==</t>
+        </is>
+      </c>
+      <c r="H419" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>sNr3o+WNf5YH68A0iPVmkWUh4b4aUzc7gSk/ldU/zTs=</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>53K8z31VP1UCCTFmkbgKHpRE8/JjVgGkOUIr7uxkfFs=</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>KkdD7BXcmyYO+KOEWVWPwA==</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>QLJiqMq2j6l8nsB/6Czd3NrgrWj6OEE1yJ109tnhkgc=</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>ki01YY6jvlEQdHWdyBdUrg==</t>
+        </is>
+      </c>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>wb7+m/JwwlGryW4SZzqUjg==</t>
+        </is>
+      </c>
+      <c r="H420" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>3AQFf/fAa4m5x+kymlSXXEBixxt89FCsys/DWZD2tMY=</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>1sHDmGOOAEUNKOrJyV8jJjHN9ZqW4cFC3tulyBENbWE=</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>jaoAwKqi41ql9o6ZCHNxYQ==</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>owb2+UhiOoE0pfxD15fCC0wc/dZpSQY3uvf2YnNDUIc=</t>
+        </is>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>ki01YY6jvlEQdHWdyBdUrg==</t>
+        </is>
+      </c>
+      <c r="G421" t="inlineStr">
+        <is>
+          <t>S8gBJzz77sJrkeNepvzD9g==</t>
+        </is>
+      </c>
+      <c r="H421" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>mL1Vu1hcRm/pWkNTyknVzXkDk4VTM+JcR3NzwUiEweg=</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>WtnbMVPZJ1l5yANO+2LWyvAA6gq18Yy+bMqx9jZsjEg=</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>rcccier5/TzAlUZP12gmXg==</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>mBf3mz6fsYiO7kMJBvIhn0WpmyL1adf2Uvdfc120DTM=</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>ki01YY6jvlEQdHWdyBdUrg==</t>
+        </is>
+      </c>
+      <c r="G422" t="inlineStr">
+        <is>
+          <t>0r28h8OaPqbQEqhZ2Ovs3A==</t>
+        </is>
+      </c>
+      <c r="H422" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>dCGu/+KQJNbxr6wTcQYLgmUh4b4aUzc7gSk/ldU/zTs=</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>q43gln1AD66x1WUd+gqazM8YQsIPQi7dzR3G9U5PD9c=</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>+0H2zJWE9vm4IRI9UG3Qlg==</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>9yXgkIq9YW8pX5l5+/HmuAagfneCLqMJ1lBZRREWXuk=</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>ki01YY6jvlEQdHWdyBdUrg==</t>
+        </is>
+      </c>
+      <c r="G423" t="inlineStr">
+        <is>
+          <t>tElVQcCg95zxJb5JnQQryQ==</t>
+        </is>
+      </c>
+      <c r="H423" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>0uXIKQvBhG2snLzOWXIm+kBixxt89FCsys/DWZD2tMY=</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>zT9B4IACkR3V7Kq3XcnlB52u0nRez4E74q6DqbNnwIw=</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>NyoZvlJx7utEq+j789iAfA==</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>P75XoWhfO9ap6ZZkJ1wLoQg29Qrenckkz5paBx1eW+4=</t>
+        </is>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>ki01YY6jvlEQdHWdyBdUrg==</t>
+        </is>
+      </c>
+      <c r="G424" t="inlineStr">
+        <is>
+          <t>cAsz0o6Dd5yLmneem4kMZg==</t>
+        </is>
+      </c>
+      <c r="H424" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>7Gc8rBH/1AnXE7MzYwcLUNwXi9/+w0HUFFlkK5icN0U=</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>Nq2yT73xaoDTCPnLGIsEs9frr4MVG603TrLw8xXq70Q=</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>v/jlCc4wMo8R4wUhMDXTjA==</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>UKJaP/XKjWGlmqYJj+S2a9U7bI11tiqvW34n/y/PKsA=</t>
+        </is>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>ki01YY6jvlEQdHWdyBdUrg==</t>
+        </is>
+      </c>
+      <c r="G425" t="inlineStr">
+        <is>
+          <t>/oROoSAn2TrPkTMUj97MFw==</t>
+        </is>
+      </c>
+      <c r="H425" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>5QD65iJSW4DqbYsfwAWkUA==</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>REtUbqDKy/ALU86K8rNVa0lFLy+d3MXt9QD1DNaof8k=</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>qUYFd6/joPLYkDKTh85F9w==</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>eaCy7qGrkqMpv0+xHGRXOaWcXnm0UDSk7Knj6tecgtY=</t>
+        </is>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>ki01YY6jvlEQdHWdyBdUrg==</t>
+        </is>
+      </c>
+      <c r="G426" t="inlineStr">
+        <is>
+          <t>liVJ9cqZyAGHRtTA64YY+g==</t>
+        </is>
+      </c>
+      <c r="H426" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>4HTK1ajCTk/Xo7+rCa2wUhxL7h/QRVrof844+qDPIjU=</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>zbhOOhaLY47iSZec+wpxIwgucZp9ig6Gje/gQVUB8gw=</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>AV+/N0MNBLZhuvPYfvTeMQ==</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>nQrbQLBQA5JNPB9GR2saVTjFsVRzGRY9QJfUjbw/PKU=</t>
+        </is>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>ki01YY6jvlEQdHWdyBdUrg==</t>
+        </is>
+      </c>
+      <c r="G427" t="inlineStr">
+        <is>
+          <t>kFjgmd7wck1aeiirmeqE+w==</t>
+        </is>
+      </c>
+      <c r="H427" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>j6h75tUGYscuunlBLZlB4YNiG7C77eTdJJDGOeInB6I=</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>CKgBqcCmb7MQgnKNXz8ymw==</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>L9fJONgY/My56aoEqcX4xvBsXwNbFaBIeK1oZ+nJ9fY=</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>CKgBqcCmb7MQgnKNXz8ymw==</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>U6+8C1DiP0/p2UHjYqg+6pnuRtynTDK/bz8eRHumKsY=</t>
+        </is>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>HU2JngIBSH8E+qXaY+ZaTA==</t>
+        </is>
+      </c>
+      <c r="G428" t="inlineStr">
+        <is>
+          <t>3sOdxI6M2/ifljPaH8AEcg==</t>
+        </is>
+      </c>
+      <c r="H428" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>rELtAK5a7CMco7ojlmSIxxf/mwzHqPW8ffzlHeLoGuQ=</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>CKgBqcCmb7MQgnKNXz8ymw==</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>L9fJONgY/My56aoEqcX4xvBsXwNbFaBIeK1oZ+nJ9fY=</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>CKgBqcCmb7MQgnKNXz8ymw==</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>sEEPE34WK2sPOsjyWjDneAyMunqBNy13I6oP9zKheig=</t>
+        </is>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>HU2JngIBSH8E+qXaY+ZaTA==</t>
+        </is>
+      </c>
+      <c r="G429" t="inlineStr">
+        <is>
+          <t>Mdo8947u8CQmzezvX6Oecg==</t>
+        </is>
+      </c>
+      <c r="H429" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>AKSfhzRHVttSddpTQ2IXrplYo8DWwQArTaxBUWMYJuk=</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>CKgBqcCmb7MQgnKNXz8ymw==</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>L9fJONgY/My56aoEqcX4xvBsXwNbFaBIeK1oZ+nJ9fY=</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>CKgBqcCmb7MQgnKNXz8ymw==</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>JpT7aFLCULHJn49lKCzXBi1++b//sZ5hwz1+cgcDIMc=</t>
+        </is>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>rrlHEY63bZMecq96E+WA/A==</t>
+        </is>
+      </c>
+      <c r="G430" t="inlineStr">
+        <is>
+          <t>u43xW2tBY9YplvC7GhxxRw==</t>
+        </is>
+      </c>
+      <c r="H430" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>ZZJZzopBy6VxBZ6FY3pkOKID2Y/dUoBNFtplBZ5BhrI=</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>CKgBqcCmb7MQgnKNXz8ymw==</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>L9fJONgY/My56aoEqcX4xvBsXwNbFaBIeK1oZ+nJ9fY=</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>CKgBqcCmb7MQgnKNXz8ymw==</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>lQ1qv7eLwrGYG5DHhJG0WbJf9HgfiGIAR1zgTtE50jY=</t>
+        </is>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>rrlHEY63bZMecq96E+WA/A==</t>
+        </is>
+      </c>
+      <c r="G431" t="inlineStr">
+        <is>
+          <t>F71KE7VpKD2dadj5rWpTGQ==</t>
+        </is>
+      </c>
+      <c r="H431" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>5ZKZjMHaDRUltiJdTJA/JYm/A8hpDP5cIol6HdPGjk4=</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>CKgBqcCmb7MQgnKNXz8ymw==</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>L9fJONgY/My56aoEqcX4xvBsXwNbFaBIeK1oZ+nJ9fY=</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>CKgBqcCmb7MQgnKNXz8ymw==</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>uUjA3K8tw6YSm3PSilCdVduZXCKFtCPk6xxll5UulkE=</t>
+        </is>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>rrlHEY63bZMecq96E+WA/A==</t>
+        </is>
+      </c>
+      <c r="G432" t="inlineStr">
+        <is>
+          <t>mWtYKt7vzY3kjTHrvKhlhQ==</t>
+        </is>
+      </c>
+      <c r="H432" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>6gCNtlUKBo4+5Bd4+EqA88q3/uffM/fqNnbe6+4wkJc=</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>CKgBqcCmb7MQgnKNXz8ymw==</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>L9fJONgY/My56aoEqcX4xvBsXwNbFaBIeK1oZ+nJ9fY=</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>CKgBqcCmb7MQgnKNXz8ymw==</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>zR0TaNMVbT1jBH3uNkCrWVbG3CkX6tmVlibsRavy9aA=</t>
+        </is>
+      </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>sDJW6Jxrrp/X+kyuSIo29Q==</t>
+        </is>
+      </c>
+      <c r="G433" t="inlineStr">
+        <is>
+          <t>cOz3gz5WpK8SKRlROfFWdA==</t>
+        </is>
+      </c>
+      <c r="H433" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Z3EmFYhqDsmrbLgDeorRny+CMQ2PZGW+/4eNBxz1EJI=</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>CKgBqcCmb7MQgnKNXz8ymw==</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>L9fJONgY/My56aoEqcX4xvBsXwNbFaBIeK1oZ+nJ9fY=</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>CKgBqcCmb7MQgnKNXz8ymw==</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>xSUVlFoHN/MeUgY1DIexeGh6vvTps0n4c8LDzSKLiZ8=</t>
+        </is>
+      </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>HU2JngIBSH8E+qXaY+ZaTA==</t>
+        </is>
+      </c>
+      <c r="G434" t="inlineStr">
+        <is>
+          <t>aCprjAqgiTZpcfPM5+2MTQ==</t>
+        </is>
+      </c>
+      <c r="H434" t="inlineStr">
         <is>
           <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>

--- a/account.xlsx
+++ b/account.xlsx
@@ -15796,37 +15796,37 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>B9Qac9xX6WOrMA1o4T89inSJfhiV2/PH5LPRxqaeUOQ=</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>FuiAY9X7G+mooXEgtXzxJvBsXwNbFaBIeK1oZ+nJ9fY=</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>v9ILf1wMh3pk8yAUgSgTIA==</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>e4WiYxwWQxypRk6Yy3xP+wjinuyoK7cqLNrxIBQwWAQ=</t>
         </is>
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>p8qn1akZ8X0W1ss2rZbiFQ==</t>
         </is>
       </c>
       <c r="G367" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>5UlA3Fbv/bA8WEhg3PtGrw==</t>
         </is>
       </c>
       <c r="H367" t="inlineStr">

--- a/account.xlsx
+++ b/account.xlsx
@@ -3070,7 +3070,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>VlIv3Q386kUsvwt6tIMrs+NYZgg8eGApl6RX1y6CR2I=</t>
+          <t>VlIv3Q386kUsvwt6tIMrsy1uWfwR2DT99ffbJhABf0I=</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3112,7 +3112,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>b1+7lAoCU3+Nvtw9sMrJtdYRjGuGSUAsiim9UQY/jOI=</t>
+          <t>b1+7lAoCU3+Nvtw9sMrJtbzoXjf/AseGFoXScCzuj94=</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3154,7 +3154,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>JQkeFH60LV5pRdZXsBQ/e8ai6K43yn08tI3680zFg+U=</t>
+          <t>JQkeFH60LV5pRdZXsBQ/e5qFhyym+P8h0iEbB8K+Nm4=</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -4209,7 +4209,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>wYimUtkKYLta8bEPUrtLmg==</t>
+          <t>ybd42F9YxY2vl43nSdrYsQ==</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4461,7 +4461,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>HSB2wf2APyPA+d7IDhcrgA==</t>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">

--- a/account.xlsx
+++ b/account.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H113"/>
+  <dimension ref="A1:H125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3473,7 +3473,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
+          <t>fPGhaV3udPODXmqmsSlSrQ==</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -3515,7 +3515,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
+          <t>fPGhaV3udPODXmqmsSlSrQ==</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -3557,7 +3557,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
+          <t>fPGhaV3udPODXmqmsSlSrQ==</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -3599,7 +3599,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
+          <t>fPGhaV3udPODXmqmsSlSrQ==</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
+          <t>fPGhaV3udPODXmqmsSlSrQ==</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -3683,7 +3683,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
+          <t>fPGhaV3udPODXmqmsSlSrQ==</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -3725,7 +3725,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
+          <t>fPGhaV3udPODXmqmsSlSrQ==</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -3767,7 +3767,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
+          <t>fPGhaV3udPODXmqmsSlSrQ==</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
+          <t>fPGhaV3udPODXmqmsSlSrQ==</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -3851,7 +3851,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
+          <t>fPGhaV3udPODXmqmsSlSrQ==</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -3893,7 +3893,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
+          <t>fPGhaV3udPODXmqmsSlSrQ==</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -3935,7 +3935,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
+          <t>fPGhaV3udPODXmqmsSlSrQ==</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -3977,7 +3977,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
+          <t>fPGhaV3udPODXmqmsSlSrQ==</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -4019,7 +4019,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
+          <t>fPGhaV3udPODXmqmsSlSrQ==</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -4061,7 +4061,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
+          <t>fPGhaV3udPODXmqmsSlSrQ==</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -4103,7 +4103,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
+          <t>fPGhaV3udPODXmqmsSlSrQ==</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -4145,7 +4145,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
+          <t>fPGhaV3udPODXmqmsSlSrQ==</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -4187,7 +4187,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
+          <t>fPGhaV3udPODXmqmsSlSrQ==</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -4229,7 +4229,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
+          <t>fPGhaV3udPODXmqmsSlSrQ==</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -4271,7 +4271,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
+          <t>fPGhaV3udPODXmqmsSlSrQ==</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -4313,7 +4313,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
+          <t>fPGhaV3udPODXmqmsSlSrQ==</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -4355,7 +4355,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
+          <t>fPGhaV3udPODXmqmsSlSrQ==</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -4397,7 +4397,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
+          <t>fPGhaV3udPODXmqmsSlSrQ==</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -4439,7 +4439,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
+          <t>fPGhaV3udPODXmqmsSlSrQ==</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -4481,7 +4481,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
+          <t>fPGhaV3udPODXmqmsSlSrQ==</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -4498,37 +4498,37 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>IlBPO78nPP5ORJ4VEgGqwINiG7C77eTdJJDGOeInB6I=</t>
+          <t>pCd2y4NYs7Y9GJBtpzCKURf/mwzHqPW8ffzlHeLoGuQ=</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Tx0UKf5FMEecQrS0k6lzeA==</t>
+          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>FuiAY9X7G+mooXEgtXzxJvBsXwNbFaBIeK1oZ+nJ9fY=</t>
+          <t>PO7TKkysuNeRhWDksHgOkMdF1NW37p0t14S1GE7kaTs=</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>j+Xd7gGbcpFKEpXrPF+dDw==</t>
+          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>F7phci3RrPZia3rSFpRhG0yNHwj3GhxSin2rof6ghr4=</t>
+          <t>FA0KAi/EICA+5cegMTkn/sbbeJhsY50S5VLGGiFNFhg=</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
+          <t>fPGhaV3udPODXmqmsSlSrQ==</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>8MpgqmLAri7pbz7da1WkfA==</t>
+          <t>pouOAIu69H+w97ip1FM3RA==</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -4540,7 +4540,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>TOC12V+VxuiSNwc54CEH/v8vifOxT1xwN0jWcuZQhf0=</t>
+          <t>IlBPO78nPP5ORJ4VEgGqwINiG7C77eTdJJDGOeInB6I=</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -4555,12 +4555,12 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>kfrczZ/TZa6U2Vq2Do/VvQ==</t>
+          <t>j+Xd7gGbcpFKEpXrPF+dDw==</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>ZLqif0n2S7Ne+AN4SUc7jw5+pt1L9RjFvd6kFmmG4AU=</t>
+          <t>F7phci3RrPZia3rSFpRhG0yNHwj3GhxSin2rof6ghr4=</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -4570,7 +4570,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>lAcPHJdTtIdVZ9UHIgBLMg==</t>
+          <t>8MpgqmLAri7pbz7da1WkfA==</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -4582,7 +4582,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>By/EbvN399fPUkmDkS0TNRf/mwzHqPW8ffzlHeLoGuQ=</t>
+          <t>TOC12V+VxuiSNwc54CEH/v8vifOxT1xwN0jWcuZQhf0=</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -4597,12 +4597,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>GZqGO7ytkRB5NjWOWJKS1A==</t>
+          <t>kfrczZ/TZa6U2Vq2Do/VvQ==</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>tAH0diEl0fpldE0JFX7I8UCxDoCTHbJ/DRtwoDH+0DQ=</t>
+          <t>ZLqif0n2S7Ne+AN4SUc7jw5+pt1L9RjFvd6kFmmG4AU=</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -4612,7 +4612,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>d2iPvrLqnnz6m8P/s1hmjw==</t>
+          <t>lAcPHJdTtIdVZ9UHIgBLMg==</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -4624,7 +4624,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>t0egssOzWI9cwfK/LTwhQTvW3I0FL6B9GPQtKD4jelo=</t>
+          <t>By/EbvN399fPUkmDkS0TNRf/mwzHqPW8ffzlHeLoGuQ=</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -4639,12 +4639,12 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>nFkwGAmhYX4928mdV9SOhw==</t>
+          <t>GZqGO7ytkRB5NjWOWJKS1A==</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>yVer7YF8D6U1pnXsYaOJhOOchkWrvAgtnr0mMcv0Y9Y=</t>
+          <t>tAH0diEl0fpldE0JFX7I8UCxDoCTHbJ/DRtwoDH+0DQ=</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -4654,7 +4654,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>RDeuZLaNJ8pmLMBAtgzCbg==</t>
+          <t>d2iPvrLqnnz6m8P/s1hmjw==</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -4666,7 +4666,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>sf4UN+L5noZuz7tJrBFk2nSJfhiV2/PH5LPRxqaeUOQ=</t>
+          <t>t0egssOzWI9cwfK/LTwhQTvW3I0FL6B9GPQtKD4jelo=</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -4681,12 +4681,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>y+pXAGmueAa6CmoZ80MUNQ==</t>
+          <t>nFkwGAmhYX4928mdV9SOhw==</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>xtZAOsx4FhhClkJMUI83izbXteNaz1tcviKn1z02klo=</t>
+          <t>yVer7YF8D6U1pnXsYaOJhOOchkWrvAgtnr0mMcv0Y9Y=</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>7L6aJ5XaZwSMyzBpQNd7MQ==</t>
+          <t>RDeuZLaNJ8pmLMBAtgzCbg==</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -4708,7 +4708,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>22PjfHhdzMBpsZJ6NsKhWDvW3I0FL6B9GPQtKD4jelo=</t>
+          <t>sf4UN+L5noZuz7tJrBFk2nSJfhiV2/PH5LPRxqaeUOQ=</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -4723,12 +4723,12 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Qib/+zoWZ/AdFl1FzIQrng==</t>
+          <t>y+pXAGmueAa6CmoZ80MUNQ==</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>CsTUNqssa7L3koKahIBHuU3ofYXfs2jpG1BpRByhU6M=</t>
+          <t>xtZAOsx4FhhClkJMUI83izbXteNaz1tcviKn1z02klo=</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -4738,7 +4738,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>iso4FonzkKdSVu/xiN3FFA==</t>
+          <t>7L6aJ5XaZwSMyzBpQNd7MQ==</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -4750,7 +4750,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>qSZygCih4DsPoMLy432FMTvW3I0FL6B9GPQtKD4jelo=</t>
+          <t>22PjfHhdzMBpsZJ6NsKhWDvW3I0FL6B9GPQtKD4jelo=</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -4760,17 +4760,17 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>EBGyShXc5eAAiLYjWREo8i+CMQ2PZGW+/4eNBxz1EJI=</t>
+          <t>FuiAY9X7G+mooXEgtXzxJvBsXwNbFaBIeK1oZ+nJ9fY=</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>NS9qaOQkP3HAL+IY3qqkZw==</t>
+          <t>Qib/+zoWZ/AdFl1FzIQrng==</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>y8Xp/S9E0NL3dfbQeGzdche1uWYtTbA2g4VfIHkr5dI=</t>
+          <t>CsTUNqssa7L3koKahIBHuU3ofYXfs2jpG1BpRByhU6M=</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -4780,7 +4780,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>+pfo0FxpULmzgrPf7rOeOw==</t>
+          <t>iso4FonzkKdSVu/xiN3FFA==</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -4792,7 +4792,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>+Oqx5Z9W63gYDU6rR27gWoAqjt3JqS6WXB/UGMrQbJA=</t>
+          <t>qSZygCih4DsPoMLy432FMTvW3I0FL6B9GPQtKD4jelo=</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -4802,17 +4802,17 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>FuiAY9X7G+mooXEgtXzxJvBsXwNbFaBIeK1oZ+nJ9fY=</t>
+          <t>EBGyShXc5eAAiLYjWREo8i+CMQ2PZGW+/4eNBxz1EJI=</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>ASzj3v39LERQTou7hTw+kg==</t>
+          <t>NS9qaOQkP3HAL+IY3qqkZw==</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>FI5VqYd4iryWYw4psANe5Rb/tya+7vjAvILItOTdJac=</t>
+          <t>y8Xp/S9E0NL3dfbQeGzdche1uWYtTbA2g4VfIHkr5dI=</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -4822,7 +4822,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>aeTaYW9GKV4feeLQGZ8xeg==</t>
+          <t>+pfo0FxpULmzgrPf7rOeOw==</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -4834,7 +4834,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>YqAxkUsiTrqS5EWJaR7grINiG7C77eTdJJDGOeInB6I=</t>
+          <t>+Oqx5Z9W63gYDU6rR27gWoAqjt3JqS6WXB/UGMrQbJA=</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4849,12 +4849,12 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
+          <t>ASzj3v39LERQTou7hTw+kg==</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>6qUAOdh6udYKI0rBEGpWyhskqLs5QHcKt+p8ZPo810c=</t>
+          <t>FI5VqYd4iryWYw4psANe5Rb/tya+7vjAvILItOTdJac=</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -4864,7 +4864,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>8T83ZIMgVwsmVJuSHfqp5g==</t>
+          <t>aeTaYW9GKV4feeLQGZ8xeg==</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -4876,37 +4876,37 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>B9Qac9xX6WOrMA1o4T89inSJfhiV2/PH5LPRxqaeUOQ=</t>
+          <t>YqAxkUsiTrqS5EWJaR7grINiG7C77eTdJJDGOeInB6I=</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
+          <t>Tx0UKf5FMEecQrS0k6lzeA==</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>FuiAY9X7G+mooXEgtXzxJvBsXwNbFaBIeK1oZ+nJ9fY=</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
           <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>FuiAY9X7G+mooXEgtXzxJvBsXwNbFaBIeK1oZ+nJ9fY=</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>v9ILf1wMh3pk8yAUgSgTIA==</t>
-        </is>
-      </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>e4WiYxwWQxypRk6Yy3xP+wjinuyoK7cqLNrxIBQwWAQ=</t>
+          <t>6qUAOdh6udYKI0rBEGpWyhskqLs5QHcKt+p8ZPo810c=</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>p8qn1akZ8X0W1ss2rZbiFQ==</t>
+          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>hH2zIt/hCh9Y63wiLJSHHA==</t>
+          <t>8T83ZIMgVwsmVJuSHfqp5g==</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5162,6 +5162,510 @@
         </is>
       </c>
       <c r="H113" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>sZCbMP9fj4oRBVfjxeAkGQ==</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>vIHq8pxswAB6S+5ROv585g==</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>vDPXMPiOntx7aNU2MSK2og==</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>I/W9pM0LNyYkJNDgHrl9Ww7UxkFR5r9Em4A4jfYx0iE=</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>rrlHEY63bZMecq96E+WA/A==</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>UTFDMhz+xu437BbHGPcRWg==</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>YtOwnakKiKMQJvCoXvFEj5lYo8DWwQArTaxBUWMYJuk=</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>YCnxlQfgWKDs6d6r5g8AOQ==</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>PUdhH2Sa1+lHplBC7r0UoNyBcr0V4GO4lmH4HIYtkac=</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>HffYJzS/18iaQpQ2Dwqs+A==</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>nHd6NT51R9e52ymXgZI/6Ji0+gkjOrCWSr9D1gRDrCs=</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>sDJW6Jxrrp/X+kyuSIo29Q==</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>hxNTJiVVSghB+WlUA9PmbQ==</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>XMk7j8yiZ2hSQVJj4bNArvBsXwNbFaBIeK1oZ+nJ9fY=</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>YCnxlQfgWKDs6d6r5g8AOQ==</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>PUdhH2Sa1+lHplBC7r0UoNyBcr0V4GO4lmH4HIYtkac=</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>HffYJzS/18iaQpQ2Dwqs+A==</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Ca0weZtVtKzWAA/MKqA/GwPiZuI7worJgAe9lkbjR8c=</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>sDJW6Jxrrp/X+kyuSIo29Q==</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>CG5UGs+AYa/otfUkzEhzJA==</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Q7mJ3Wv7Is3Wo3iC3/yZ44NiG7C77eTdJJDGOeInB6I=</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>VFcD85hpwa9pXsTwTSEmkg==</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>XMc2NxIX2CmoO8LNkGPZM3/mfWlpRhkrkn6OVjEPn5A=</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>VFcD85hpwa9pXsTwTSEmkg==</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>F7XRSVG5DkqumCEzqz8WQHAxrCXTnXXRBX+zSaY7kk8=</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>ex3QWF22k+oh5CT55Nyu2/+13imXtdsz8djkd8CKNx8=</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>KI0h4WU150XPouA/Yl5YNw==</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>rniUwaNyzqQ+e9FEHlbWbfBsXwNbFaBIeK1oZ+nJ9fY=</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>PUdhH2Sa1+lHplBC7r0UoNyBcr0V4GO4lmH4HIYtkac=</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>i2PYP8Y592lz5nHCW8rTAQ==</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>UGaLZjVN0wGxonWUBieTYOrOBcua3j89Qrk6SM21LN4=</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>ex3QWF22k+oh5CT55Nyu2/+13imXtdsz8djkd8CKNx8=</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>18jooV/u9oKBh5lXxHcZtw==</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>BWE+KMh8QStXkLcxew70ZIwDa1aXPJunGut4q9ETGiQ=</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>PUdhH2Sa1+lHplBC7r0UoNyBcr0V4GO4lmH4HIYtkac=</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>VFcD85hpwa9pXsTwTSEmkg==</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>xRifVReqtrB5U2X9WDAkZ71r+uV6iUqo4jviI6/vv2Y=</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>ex3QWF22k+oh5CT55Nyu2/+13imXtdsz8djkd8CKNx8=</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>erIPRXNOsgH1+i4P9HS+9w==</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>FuFaDBli6Y2liAWT5G0A44NiG7C77eTdJJDGOeInB6I=</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>PUdhH2Sa1+lHplBC7r0UoNyBcr0V4GO4lmH4HIYtkac=</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Vqdjiha+DpLHCoHNnBgM6w==</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>5eJHnYU5ysTvCI6oWVlu+szG8hYstgGcE55W/JNozeI=</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>ex3QWF22k+oh5CT55Nyu2/+13imXtdsz8djkd8CKNx8=</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Chn+kTGkdviUEsuyG0K4kw==</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>bzlJMmHjn5E+QrmRNILxsHSJfhiV2/PH5LPRxqaeUOQ=</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>xJiiJwrHQBVifUNVq4xABQ==</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>jO23aVwWe77JwjiRkBgiQ9yBcr0V4GO4lmH4HIYtkac=</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>vDPXMPiOntx7aNU2MSK2og==</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>3yKjmwb76uwB/IneqvSdXgAafKT2606NyIR9VKA/6Ik=</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>HU2JngIBSH8E+qXaY+ZaTA==</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>d+skkm0GQxsKs9ASWVXm2Q==</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>1FMZ2LoW0+AvlXNVGZKmwzUqYKrEDhSOdmLr5yS3LxE=</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>xJiiJwrHQBVifUNVq4xABQ==</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>jO23aVwWe77JwjiRkBgiQ9yBcr0V4GO4lmH4HIYtkac=</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>vDPXMPiOntx7aNU2MSK2og==</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>90/zumDhnBDhBoHx37LlQiqm6U0KAqQSeJOamUiq5Nk=</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>HU2JngIBSH8E+qXaY+ZaTA==</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Q4iF7lqy3ocQn1kr4PN7QQ==</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>th9jk5+tbIS8gtA6FRacqTUqYKrEDhSOdmLr5yS3LxE=</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>xJiiJwrHQBVifUNVq4xABQ==</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>jO23aVwWe77JwjiRkBgiQ9yBcr0V4GO4lmH4HIYtkac=</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>vDPXMPiOntx7aNU2MSK2og==</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>JHRh79VwkZ1FcOAMdDAn8DIe+qZCqmw3icTY2b7+xSk=</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>HU2JngIBSH8E+qXaY+ZaTA==</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>/geawIY+XU4U+eweZq/61w==</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
         <is>
           <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>

--- a/account.xlsx
+++ b/account.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,51 +467,41 @@
           <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0ELMm8VHJkm7JQZrb9ereVwS/bxMDfaFhyKdHvLsg5U=</t>
+          <t>+yl1EfwJ44Jv72y2VdX9hS+CMQ2PZGW+/4eNBxz1EJI=</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WUuikfwq96Mh17C/IL0XtbpqlJr+LkRyAw57zS7K3pI=</t>
+          <t>xJiiJwrHQBVifUNVq4xABQ==</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>PUdhH2Sa1+lHplBC7r0UoNyBcr0V4GO4lmH4HIYtkac=</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>QGsSConPUcRQaV6t8nBSAg==</t>
+          <t>MFZ1FEYqa1xl6oLca6rM+w==</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>AvCnKjitOhiOVtQOSA8K8LchH1GORHl3fcEgw70trRI=</t>
+          <t>7jPn//89zH1NbXJD4SQYNvRji0ULeg3eReJVUY52OzE=</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ki01YY6jvlEQdHWdyBdUrg==</t>
+          <t>ex3QWF22k+oh5CT55Nyu2/+13imXtdsz8djkd8CKNx8=</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>kcg4dv9vwUVSV28bSXh4rw==</t>
+          <t>n8+7AYjcIfeh0dRXHhv2sw==</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -520,16 +510,6 @@
         </is>
       </c>
       <c r="I2" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
         <is>
           <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
@@ -538,37 +518,37 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>bZCFEPUieInyQGlVqI4Wm2Uh4b4aUzc7gSk/ldU/zTs=</t>
+          <t>52a9936QG8G1Gg0EHtdPpOTCxlPIiEfmjbedC3qZDw0=</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>VXvXaitzHLY5Ta1W06HSyZWmWbdyl112D6GY2/auv4U=</t>
+          <t>xJiiJwrHQBVifUNVq4xABQ==</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>PUdhH2Sa1+lHplBC7r0UoNyBcr0V4GO4lmH4HIYtkac=</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>TVTGc4PNm0HcSEcb7iBryA==</t>
+          <t>qMBTMaOgXvmxDAN0kEytALjxUxmAzhgHtaUytoV6dlw=</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3vdQEUvucKqtxr9CUf7DEem5zv+kUdZ1voKcCh051b8=</t>
+          <t>vF63ZF8ySzDIscHtIZ6UyFZTmluWIbjAu8VfSY8qCeE=</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ki01YY6jvlEQdHWdyBdUrg==</t>
+          <t>ex3QWF22k+oh5CT55Nyu2/+13imXtdsz8djkd8CKNx8=</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>smqEW+AiYbidMNYCoRE+9g==</t>
+          <t>MsmO9rcLV8jpLF30msefeg==</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -577,16 +557,6 @@
         </is>
       </c>
       <c r="I3" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
@@ -595,37 +565,37 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>XOjSQwEd52Rg5Krntwr5BEBixxt89FCsys/DWZD2tMY=</t>
+          <t>EYM5VSJYDrUDgGCUMMlxEINiG7C77eTdJJDGOeInB6I=</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>J/awriIbdp0suDRw5oYUOMxAgGAo6iZKAHdLQVIaG9k=</t>
+          <t>xJiiJwrHQBVifUNVq4xABQ==</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>PUdhH2Sa1+lHplBC7r0UoNyBcr0V4GO4lmH4HIYtkac=</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>eiZgPQkcsMOw0oXK0g2BFQ==</t>
+          <t>SQFbE5WxiYIVCzbHP5mjvQ==</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>TCwVyX1lGq/bjmNUQ788Y1A7hab43hFyQ5uTGlICOdo=</t>
+          <t>GRytCkmMsixzc65VDOUgzZa4xPB6XKVSKuB2n/HIKv4=</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>ki01YY6jvlEQdHWdyBdUrg==</t>
+          <t>ex3QWF22k+oh5CT55Nyu2/+13imXtdsz8djkd8CKNx8=</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>4/GT3zY7KA8VSqiUtSGnWw==</t>
+          <t>8wUtM1Tu8plTEetGF4jH5A==</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -634,16 +604,6 @@
         </is>
       </c>
       <c r="I4" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
@@ -652,37 +612,37 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>VwjoR9fE2ML/r08UNr514Q==</t>
+          <t>q73HxukBvE+1YUysuYQVCRf/mwzHqPW8ffzlHeLoGuQ=</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>mcMHGXONMf8roV4ziSzmPzX2kfHzZAL9Tyam2pOgGn4=</t>
+          <t>xJiiJwrHQBVifUNVq4xABQ==</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>PUdhH2Sa1+lHplBC7r0UoNyBcr0V4GO4lmH4HIYtkac=</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>pnY52dh3mplZxLyjnHFr6g==</t>
+          <t>t+u+glDamuoUBRORJ/lH/g==</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>gfPB5YO44n2oTA7CWeF8VIt6ROdJYAhTeGDLBje5BPs=</t>
+          <t>y6sS9YYgipBtBHSWA/TS2OxlLYFh5HzdQBKWlC4WT9A=</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ki01YY6jvlEQdHWdyBdUrg==</t>
+          <t>ex3QWF22k+oh5CT55Nyu2/+13imXtdsz8djkd8CKNx8=</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>G4bbQogUYfJy4s/RWvskNA==</t>
+          <t>FAm1/aAoc5rdwJSIUXcK8g==</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -691,16 +651,6 @@
         </is>
       </c>
       <c r="I5" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
@@ -709,7 +659,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>+yl1EfwJ44Jv72y2VdX9hS+CMQ2PZGW+/4eNBxz1EJI=</t>
+          <t>30FsqxpKYv/TH4Izu+VuhloJ8trvtnr9bdb5J/KWDDk=</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -724,12 +674,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MFZ1FEYqa1xl6oLca6rM+w==</t>
+          <t>SYPy4i7DMzRYBd1E36Za3w==</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7jPn//89zH1NbXJD4SQYNvRji0ULeg3eReJVUY52OzE=</t>
+          <t>roWF+wYVEX6xDErhJauZHbDuDB/O62s8Zw/JZ5qlXUg=</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -739,7 +689,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>KkhARNx/Llb2OJSz03CWKg==</t>
+          <t>iDnYPlxSSZnqCUbK3ER/ew==</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -748,16 +698,6 @@
         </is>
       </c>
       <c r="I6" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
@@ -766,7 +706,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>30FsqxpKYv/TH4Izu+VuhloJ8trvtnr9bdb5J/KWDDk=</t>
+          <t>BAUbDr1mCd1DcySY9MUQxC1uWfwR2DT99ffbJhABf0I=</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -781,12 +721,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SYPy4i7DMzRYBd1E36Za3w==</t>
+          <t>CaV4QH+/UiiTOstZOEZysw==</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>roWF+wYVEX6xDErhJauZHbDuDB/O62s8Zw/JZ5qlXUg=</t>
+          <t>R4wHRKnsswbu8z1MPyYByTkZoZB+yGF/vdhpkQhHNB4=</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -796,7 +736,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>mn9lEYYANljDRGHcqNBvtQ==</t>
+          <t>xw40Q7GPNCZCXzdXcF0n3A==</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -805,16 +745,6 @@
         </is>
       </c>
       <c r="I7" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
@@ -823,7 +753,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ySPp7xV9mGDCspI+gBePseliSy2RwpAOPe6DD9FKldE=</t>
+          <t>hpmLigp7cygs6d2syG1ADvxxf0GiaerXbqUsUU8cSIc=</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -838,12 +768,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>+KCUtNWv0WIlsSytQvwNEA==</t>
+          <t>MorfFkSOvoHlnu/2I8kDMw==</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>rP2CqFRbHPSn/afzqkwKp5b1pLw9REpTN43f9uL/Up8=</t>
+          <t>DVtkO6wMyrwgP5z9e3Lf7nI/A3cB4MIPtPfGSkwpqG4=</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -853,7 +783,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>8lRHImL8Wl1EfViIUi3xDg==</t>
+          <t>eDXWSDskzkpk78CgZzKTXA==</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -862,16 +792,6 @@
         </is>
       </c>
       <c r="I8" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
@@ -880,37 +800,37 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IlBPO78nPP5ORJ4VEgGqwINiG7C77eTdJJDGOeInB6I=</t>
+          <t>ySPp7xV9mGDCspI+gBePseliSy2RwpAOPe6DD9FKldE=</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Tx0UKf5FMEecQrS0k6lzeA==</t>
+          <t>xJiiJwrHQBVifUNVq4xABQ==</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>FuiAY9X7G+mooXEgtXzxJvBsXwNbFaBIeK1oZ+nJ9fY=</t>
+          <t>PUdhH2Sa1+lHplBC7r0UoNyBcr0V4GO4lmH4HIYtkac=</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>j+Xd7gGbcpFKEpXrPF+dDw==</t>
+          <t>+KCUtNWv0WIlsSytQvwNEA==</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>F7phci3RrPZia3rSFpRhG0yNHwj3GhxSin2rof6ghr4=</t>
+          <t>rP2CqFRbHPSn/afzqkwKp5b1pLw9REpTN43f9uL/Up8=</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
+          <t>ex3QWF22k+oh5CT55Nyu2/+13imXtdsz8djkd8CKNx8=</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>OcbypbxcAcDCGvOecyLV5Q==</t>
+          <t>8lRHImL8Wl1EfViIUi3xDg==</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -919,16 +839,6 @@
         </is>
       </c>
       <c r="I9" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
@@ -937,37 +847,37 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>TOC12V+VxuiSNwc54CEH/v8vifOxT1xwN0jWcuZQhf0=</t>
+          <t>FtxGgvkEoOaVuVwK02dk8aOWp8n7KnmzB+vJJX/otrc=</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Tx0UKf5FMEecQrS0k6lzeA==</t>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>FuiAY9X7G+mooXEgtXzxJvBsXwNbFaBIeK1oZ+nJ9fY=</t>
+          <t>PUdhH2Sa1+lHplBC7r0UoNyBcr0V4GO4lmH4HIYtkac=</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>kfrczZ/TZa6U2Vq2Do/VvQ==</t>
+          <t>OGpT6z054sisVDzVvcPSr9yBcr0V4GO4lmH4HIYtkac=</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ZLqif0n2S7Ne+AN4SUc7jw5+pt1L9RjFvd6kFmmG4AU=</t>
+          <t>C60xDL+Bs0Ek/VLLHaYsSZL99XID3V5854gbYThYeO4=</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
+          <t>ex3QWF22k+oh5CT55Nyu2/+13imXtdsz8djkd8CKNx8=</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>/DGBKoFzt8NEES0wNselYA==</t>
+          <t>e9HCn/sPDXJ/xL3cWxAOiw==</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -976,16 +886,6 @@
         </is>
       </c>
       <c r="I10" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
@@ -994,37 +894,37 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>By/EbvN399fPUkmDkS0TNRf/mwzHqPW8ffzlHeLoGuQ=</t>
+          <t>ujcXDdD7uv3/pYtuxW450VN85s4gxAhooK3Q1BJAA80=</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Tx0UKf5FMEecQrS0k6lzeA==</t>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>FuiAY9X7G+mooXEgtXzxJvBsXwNbFaBIeK1oZ+nJ9fY=</t>
+          <t>PUdhH2Sa1+lHplBC7r0UoNyBcr0V4GO4lmH4HIYtkac=</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>GZqGO7ytkRB5NjWOWJKS1A==</t>
+          <t>jn+UyKTRYi2IN9YVcqoGbg==</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>tAH0diEl0fpldE0JFX7I8UCxDoCTHbJ/DRtwoDH+0DQ=</t>
+          <t>9x9Y67uhRB003MI8XEOD7PR8tPaIpPT36Qn2eRmCNag=</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
+          <t>ex3QWF22k+oh5CT55Nyu2/+13imXtdsz8djkd8CKNx8=</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>iV+MTZfoeTA5lLXNLmTWOw==</t>
+          <t>WMpHoUqIwpiNrlZu9HyB8Q==</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1033,16 +933,6 @@
         </is>
       </c>
       <c r="I11" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
@@ -1051,37 +941,37 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>+Oqx5Z9W63gYDU6rR27gWoAqjt3JqS6WXB/UGMrQbJA=</t>
+          <t>VlIv3Q386kUsvwt6tIMrsy1uWfwR2DT99ffbJhABf0I=</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Tx0UKf5FMEecQrS0k6lzeA==</t>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>FuiAY9X7G+mooXEgtXzxJvBsXwNbFaBIeK1oZ+nJ9fY=</t>
+          <t>PUdhH2Sa1+lHplBC7r0UoNyBcr0V4GO4lmH4HIYtkac=</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
+          <t>5EItVBdx1oHsqnCbY/LppQnTgMe8dQ3V9qe5SHe73I4=</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>FI5VqYd4iryWYw4psANe5Rb/tya+7vjAvILItOTdJac=</t>
+          <t>nnj61EShlg+hoeHQxG7UhBtajhzqSc0/dQpFLa10KLs=</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
+          <t>ex3QWF22k+oh5CT55Nyu2/+13imXtdsz8djkd8CKNx8=</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>4dPpQn5ZAhGtN76nd9ht9Q==</t>
+          <t>e6cJBe86+dNkrl2JAwGiPQ==</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1090,16 +980,6 @@
         </is>
       </c>
       <c r="I12" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
@@ -1108,37 +988,37 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>YqAxkUsiTrqS5EWJaR7grINiG7C77eTdJJDGOeInB6I=</t>
+          <t>b1+7lAoCU3+Nvtw9sMrJtbzoXjf/AseGFoXScCzuj94=</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Tx0UKf5FMEecQrS0k6lzeA==</t>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>FuiAY9X7G+mooXEgtXzxJvBsXwNbFaBIeK1oZ+nJ9fY=</t>
+          <t>PUdhH2Sa1+lHplBC7r0UoNyBcr0V4GO4lmH4HIYtkac=</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
+          <t>QfQMKNR0agLFrZZ3rSw7NG+UWUAIY1kGlmdp4iC/ImE=</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>6qUAOdh6udYKI0rBEGpWyhskqLs5QHcKt+p8ZPo810c=</t>
+          <t>HRgLt++wfsrDGj02+iUSm2pgXg/E2xzeWgzeqdbiCVA=</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
+          <t>ex3QWF22k+oh5CT55Nyu2/+13imXtdsz8djkd8CKNx8=</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>rd+xXuAaQrvHSm+wA2cKEA==</t>
+          <t>QPLF//Z9YvjzUoLY+/6ORQ==</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1147,16 +1027,6 @@
         </is>
       </c>
       <c r="I13" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
         <is>
           <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
@@ -1165,37 +1035,37 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>JQkeFH60LV5pRdZXsBQ/e5qFhyym+P8h0iEbB8K+Nm4=</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>PUdhH2Sa1+lHplBC7r0UoNyBcr0V4GO4lmH4HIYtkac=</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>UZTlMRCpQ7JOrQRdT71ycGU3pb2VoytQjled2rA0Mm0=</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>TCWnuPuDcIrRHftmNjq4YdnUsMb/eWbD376sabAEeJY=</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>ex3QWF22k+oh5CT55Nyu2/+13imXtdsz8djkd8CKNx8=</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>1QtJrhSO0KvHDs9VNc1JaA==</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1204,16 +1074,6 @@
         </is>
       </c>
       <c r="I14" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
         <is>
           <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
@@ -1222,37 +1082,37 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>56wArVEwhcuyGkparM4/P9t2s9kTDPrcRCjPN3hCkaA=</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>PUdhH2Sa1+lHplBC7r0UoNyBcr0V4GO4lmH4HIYtkac=</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>Pfm4PLUyI3zJzNt5YJE4tc8g2pZ6WRz/Z1KHO/9KIcw=</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>VSzmEzjagMJa8a4LjyrUuSLRA0KHTpJrA7OXiAU169c=</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>ex3QWF22k+oh5CT55Nyu2/+13imXtdsz8djkd8CKNx8=</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>Fc8OhNW1sXHp44ii0yX1mQ==</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1261,16 +1121,6 @@
         </is>
       </c>
       <c r="I15" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
         <is>
           <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
@@ -1279,37 +1129,37 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>7a68y7/9CjWtciVZ1JZQsINiG7C77eTdJJDGOeInB6I=</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>PUdhH2Sa1+lHplBC7r0UoNyBcr0V4GO4lmH4HIYtkac=</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>Bp59Hev9DKHMWQ6xgkwtdXTNi650BhaYIC55Q6KCIms=</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>pC9Sn8iraNDPEyGLAKktE4JuIEoiTBA7+sccHZsT0RM=</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>ex3QWF22k+oh5CT55Nyu2/+13imXtdsz8djkd8CKNx8=</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>hohf3+zxOmtAdCi/PmhBjw==</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1318,16 +1168,6 @@
         </is>
       </c>
       <c r="I16" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
         <is>
           <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
@@ -1336,37 +1176,37 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>wNFc9yXofHzwseL1IhfnWIcfuXd2GyO4BiBiG3JgpHU=</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>PUdhH2Sa1+lHplBC7r0UoNyBcr0V4GO4lmH4HIYtkac=</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>jgld2TuBeT8i6K0G3IXFOr+9H+hDXjSMDiEjsrpEpnI=</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>oGYOt4D26UjHbte1irp7RKpgH4L09Fh/Rvs/wZvq3Yg=</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>ex3QWF22k+oh5CT55Nyu2/+13imXtdsz8djkd8CKNx8=</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>nYuJ/nwdc4BfFk4HunSCPA==</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1375,16 +1215,6 @@
         </is>
       </c>
       <c r="I17" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
@@ -1393,37 +1223,37 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>Ns2RbOb5eFbJTjAXKw+vo8Y/DYZI4jvQipkNMw4dv0A=</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>PUdhH2Sa1+lHplBC7r0UoNyBcr0V4GO4lmH4HIYtkac=</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>KOe2T4X2QOe/qz+kWxHOg4yMG4FrQHHThae/azX5xJo=</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>wZU1wvGMx05LkoOioluUmRdWa5yc53hJeOmDvLmdFMY=</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>ex3QWF22k+oh5CT55Nyu2/+13imXtdsz8djkd8CKNx8=</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>bsZr0FaGyQiBRNfD+Ohx6Q==</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1432,16 +1262,6 @@
         </is>
       </c>
       <c r="I18" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
         <is>
           <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
@@ -1450,37 +1270,37 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>BfhZ7rw/tvt0S5nqH9jiXAO4wrAXwuJESPCuYhTc5R0=</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>PUdhH2Sa1+lHplBC7r0UoNyBcr0V4GO4lmH4HIYtkac=</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>NMFmmjH7haKYnUYw1uDCKuTVfd3Peu+Ch+3BpBTW7mQ=</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>Y8uHNYff7GInCNO6rHo/RF6fLeSc54eagr72RvWGwkk=</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>ex3QWF22k+oh5CT55Nyu2/+13imXtdsz8djkd8CKNx8=</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>2F9vRLOPrB6IVXwKE4iwRA==</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1489,16 +1309,6 @@
         </is>
       </c>
       <c r="I19" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
         <is>
           <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
@@ -1507,37 +1317,37 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>M6g7C2nIikBlboiJRK64qimC1wLsYMS+xp/cIp/vQL0=</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>PUdhH2Sa1+lHplBC7r0UoNyBcr0V4GO4lmH4HIYtkac=</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>bVrS3Jg5P9VdMkHSy7LfdlEb3/oiYXj2+YGkA06mehk=</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>13ymzmyvIuaaodywPv3TFQgNYiFCRrC9E/5Xg9IKv30=</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>ex3QWF22k+oh5CT55Nyu2/+13imXtdsz8djkd8CKNx8=</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>HcXYbondLi/LYB9nwZ+LTw==</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1546,16 +1356,6 @@
         </is>
       </c>
       <c r="I20" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
         <is>
           <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
@@ -1564,32 +1364,32 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>w5m6u/5ZYiYNTJzFZjdQ2tmqLiJKAynCk+wIcn/w2xo=</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>94eO+aHuFFQ+lK6MiV71Jw==</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>MvO97H/7t9ipgMveoJhWH/BsXwNbFaBIeK1oZ+nJ9fY=</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>866D9dy1l7PZ9Sym3tiVtCLfePaPOnUkKY8bBxVdKFM=</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>fPGhaV3udPODXmqmsSlSrQ==</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1603,16 +1403,6 @@
         </is>
       </c>
       <c r="I21" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
         <is>
           <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
@@ -1621,32 +1411,32 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>Gzuz1f/H6tnUTi4i9P3LgtmqLiJKAynCk+wIcn/w2xo=</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>MvO97H/7t9ipgMveoJhWH/BsXwNbFaBIeK1oZ+nJ9fY=</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>DiV8UZWsddEQC0u6OYcH/2QI5U60H9z5vzwXF5cjLzM=</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>fPGhaV3udPODXmqmsSlSrQ==</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1660,16 +1450,6 @@
         </is>
       </c>
       <c r="I22" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
         <is>
           <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
@@ -1678,32 +1458,32 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>YGVRw7Tzj32L6d3GvsUBUfBsXwNbFaBIeK1oZ+nJ9fY=</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>MvO97H/7t9ipgMveoJhWH/BsXwNbFaBIeK1oZ+nJ9fY=</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>QYc73aPLFyqODVVJX/Oum81eSHVBalGREBkw7Jp4Abw=</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>fPGhaV3udPODXmqmsSlSrQ==</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1717,16 +1497,6 @@
         </is>
       </c>
       <c r="I23" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
         <is>
           <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
@@ -1735,32 +1505,32 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>5hlwKJV+FjUt2S/cR0CQxvBsXwNbFaBIeK1oZ+nJ9fY=</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>MvO97H/7t9ipgMveoJhWH/BsXwNbFaBIeK1oZ+nJ9fY=</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>0RXYiz6qHCPu+VQCyfUJYF8ZXw0X118PVy8pWg4s4+k=</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>fPGhaV3udPODXmqmsSlSrQ==</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1778,12 +1548,989 @@
           <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>fj0kmhKfWtb7Fcj4mZCZB/BsXwNbFaBIeK1oZ+nJ9fY=</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>MvO97H/7t9ipgMveoJhWH/BsXwNbFaBIeK1oZ+nJ9fY=</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>fGO/QwMJcak0r1ivuo7naaiP1cxmmTARnAy4IeDKoHY=</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>fPGhaV3udPODXmqmsSlSrQ==</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>0rI1ehB6KzqFm9x0k5Nf/JlYo8DWwQArTaxBUWMYJuk=</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>MvO97H/7t9ipgMveoJhWH/BsXwNbFaBIeK1oZ+nJ9fY=</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>jQIKoOhzPFpSu1ULmRA1+7voyS1CsCVnE5tIDCWoyEg=</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>fPGhaV3udPODXmqmsSlSrQ==</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ryMQQG2+s7CT27ovteBK04NiG7C77eTdJJDGOeInB6I=</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>MvO97H/7t9ipgMveoJhWH/BsXwNbFaBIeK1oZ+nJ9fY=</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>eQ1yu38G1AwHk23xAXxRUna077VaOHajZizB6hXgdIU=</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>fPGhaV3udPODXmqmsSlSrQ==</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ggNBO9XBTLEfxdd37fJ1Ty+CMQ2PZGW+/4eNBxz1EJI=</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>MvO97H/7t9ipgMveoJhWH/BsXwNbFaBIeK1oZ+nJ9fY=</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>BXOZ2Xr3DGZH1UCVMrv+KaPCBuCormd+v1i8+3QKjac=</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>fPGhaV3udPODXmqmsSlSrQ==</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>1WZO/oDO2g0Vl7wwsbVlTC+CMQ2PZGW+/4eNBxz1EJI=</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>MvO97H/7t9ipgMveoJhWH/BsXwNbFaBIeK1oZ+nJ9fY=</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Q/X5bCfyb1f5VCQrgSvn1yaULfTUxwJJ3aFZOp7aF4M=</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>fPGhaV3udPODXmqmsSlSrQ==</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>NqrT9MCFHYGiFdrqF2/ep5lYo8DWwQArTaxBUWMYJuk=</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>MvO97H/7t9ipgMveoJhWH/BsXwNbFaBIeK1oZ+nJ9fY=</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>dtQbIgJU0vElTqddcR/Soe2slE7rnIMRQU3kwD6aizM=</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>fPGhaV3udPODXmqmsSlSrQ==</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>+GsPBHcbVJ2MzbGoZ9eqtaID2Y/dUoBNFtplBZ5BhrI=</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>eHGl8nkxNv1n3fn2SB7i3tyBcr0V4GO4lmH4HIYtkac=</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Tgde4eUw6LS0xAuCyp1VYiUEENNd9xfN3066FpUj3mQ=</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>fPGhaV3udPODXmqmsSlSrQ==</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>RaeOPXX9FJz7dF+6aX41eZlYo8DWwQArTaxBUWMYJuk=</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>eHGl8nkxNv1n3fn2SB7i3tyBcr0V4GO4lmH4HIYtkac=</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>iNAzSHSEaPOCnxpLam4g+KbtazuJN8P/qEc0BwmkT5I=</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>fPGhaV3udPODXmqmsSlSrQ==</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>dkfiuMXcGoNdko0bMVgws9mqLiJKAynCk+wIcn/w2xo=</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>eHGl8nkxNv1n3fn2SB7i3tyBcr0V4GO4lmH4HIYtkac=</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>CX9qJl40R5CO4UcSQrVPKS9f+ZfQ+iTCDpdFQOPt1To=</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>fPGhaV3udPODXmqmsSlSrQ==</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>XBRLzVa9gnpDWqscviCUBC+CMQ2PZGW+/4eNBxz1EJI=</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>eHGl8nkxNv1n3fn2SB7i3tyBcr0V4GO4lmH4HIYtkac=</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0/NwL/tKAD1Odlv1PYT2SwVt4g5st+l12PUO3Oo9Djk=</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>fPGhaV3udPODXmqmsSlSrQ==</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>n7WN6JZNcre668fDsrJcbi+CMQ2PZGW+/4eNBxz1EJI=</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>eHGl8nkxNv1n3fn2SB7i3tyBcr0V4GO4lmH4HIYtkac=</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>crTgpsBEP4DDtPdjsSPxjx7ZmAfVRL3BJwMJbRWUHkM=</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>fPGhaV3udPODXmqmsSlSrQ==</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>xLs0KjFOOmD30L4sP5O0df8vifOxT1xwN0jWcuZQhf0=</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>eHGl8nkxNv1n3fn2SB7i3tyBcr0V4GO4lmH4HIYtkac=</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>cMZw56AzEQGb6T5rgNbYeL4ldigiTkA1ipjXByvnWFk=</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>fPGhaV3udPODXmqmsSlSrQ==</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>ZKw+41J59/9KZkjrR6MFX5lYo8DWwQArTaxBUWMYJuk=</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>eHGl8nkxNv1n3fn2SB7i3tyBcr0V4GO4lmH4HIYtkac=</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>rNqKNoAjmYUtzfhBza4wgpvgJZ6q/rbBmS6DqMX3whY=</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>fPGhaV3udPODXmqmsSlSrQ==</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>yzMzfkJ0dMm4KZkUy7Lqjhf/mwzHqPW8ffzlHeLoGuQ=</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>eHGl8nkxNv1n3fn2SB7i3tyBcr0V4GO4lmH4HIYtkac=</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>j4rhvPKHoiZDpkUw7bLYFcWYBfX2/iLz1LfZJQBUego=</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>fPGhaV3udPODXmqmsSlSrQ==</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>7ytmdVT59shuneIt+IJxc5lYo8DWwQArTaxBUWMYJuk=</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ybd42F9YxY2vl43nSdrYsQ==</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>W9pdoz7MWNJWG+nN2+RmFtyBcr0V4GO4lmH4HIYtkac=</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>X8YWYEou+T9a/GId91ItRioUyZmzD03t3L/mnfDQMB0=</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>fPGhaV3udPODXmqmsSlSrQ==</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>fF4ibVMsE9Zpapo14ZFqbaID2Y/dUoBNFtplBZ5BhrI=</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>eHGl8nkxNv1n3fn2SB7i3tyBcr0V4GO4lmH4HIYtkac=</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>hYfJJYRkqaMPFQSzqfL9LxkXsxKqXh61J3bnFNctNio=</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>fPGhaV3udPODXmqmsSlSrQ==</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>5WvQlLFHgoCkTwYWGyrfCh/HB1GieD13awTflgO0eew=</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>PUdhH2Sa1+lHplBC7r0UoNyBcr0V4GO4lmH4HIYtkac=</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>6mz4edUj/Fpac7C+btcU101IG2Bw60m7hTGdt6YRC9Y=</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>fPGhaV3udPODXmqmsSlSrQ==</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>N01dNkyRq+7o77If+UH12dmqLiJKAynCk+wIcn/w2xo=</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>PUdhH2Sa1+lHplBC7r0UoNyBcr0V4GO4lmH4HIYtkac=</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>N4k8yiYcllsxXZIByPfB+S4j50sE49bhK6Ap3WYZl9s=</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>fPGhaV3udPODXmqmsSlSrQ==</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>zndbVCUaR3iYuRI4GS+oLj9U+jAIlaIuYRm99UM0V5o=</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ghjSuMkuOXVgj3/1TJHbAFp/S+9aAKs1WrUxuUOwgtg=</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>fPGhaV3udPODXmqmsSlSrQ==</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>YVKg2vADJvWAC6TEn/43ZKID2Y/dUoBNFtplBZ5BhrI=</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>PUdhH2Sa1+lHplBC7r0UoNyBcr0V4GO4lmH4HIYtkac=</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ndDBN4ztAAUveLKuWtRbKSSRQFq9p1vGmQJVPHkTVlE=</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>fPGhaV3udPODXmqmsSlSrQ==</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Wecseh4SbAooEwGgLngeFJlYo8DWwQArTaxBUWMYJuk=</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>W9pdoz7MWNJWG+nN2+RmFtyBcr0V4GO4lmH4HIYtkac=</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>vDPXMPiOntx7aNU2MSK2og==</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>xim7XCEkHCrfHke58C/GZgTBF7B5A9XTanQgFxz2ajk=</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>fPGhaV3udPODXmqmsSlSrQ==</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>

--- a/account.xlsx
+++ b/account.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,21 +457,11 @@
           <t>Lxq7mcX/7ihu6U5BjiCR/A==</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>+yl1EfwJ44Jv72y2VdX9hS+CMQ2PZGW+/4eNBxz1EJI=</t>
+          <t>52a9936QG8G1Gg0EHtdPpOTCxlPIiEfmjbedC3qZDw0=</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -486,12 +476,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MFZ1FEYqa1xl6oLca6rM+w==</t>
+          <t>qMBTMaOgXvmxDAN0kEytALjxUxmAzhgHtaUytoV6dlw=</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7jPn//89zH1NbXJD4SQYNvRji0ULeg3eReJVUY52OzE=</t>
+          <t>vF63ZF8ySzDIscHtIZ6UyFZTmluWIbjAu8VfSY8qCeE=</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -501,24 +491,14 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>n8+7AYjcIfeh0dRXHhv2sw==</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>MsmO9rcLV8jpLF30msefeg==</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>52a9936QG8G1Gg0EHtdPpOTCxlPIiEfmjbedC3qZDw0=</t>
+          <t>BAUbDr1mCd1DcySY9MUQxC1uWfwR2DT99ffbJhABf0I=</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -533,12 +513,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>qMBTMaOgXvmxDAN0kEytALjxUxmAzhgHtaUytoV6dlw=</t>
+          <t>CaV4QH+/UiiTOstZOEZysw==</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>vF63ZF8ySzDIscHtIZ6UyFZTmluWIbjAu8VfSY8qCeE=</t>
+          <t>R4wHRKnsswbu8z1MPyYByTkZoZB+yGF/vdhpkQhHNB4=</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -548,24 +528,14 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>MsmO9rcLV8jpLF30msefeg==</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>xw40Q7GPNCZCXzdXcF0n3A==</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EYM5VSJYDrUDgGCUMMlxEINiG7C77eTdJJDGOeInB6I=</t>
+          <t>hpmLigp7cygs6d2syG1ADvxxf0GiaerXbqUsUU8cSIc=</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -580,12 +550,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SQFbE5WxiYIVCzbHP5mjvQ==</t>
+          <t>MorfFkSOvoHlnu/2I8kDMw==</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>GRytCkmMsixzc65VDOUgzZa4xPB6XKVSKuB2n/HIKv4=</t>
+          <t>DVtkO6wMyrwgP5z9e3Lf7nI/A3cB4MIPtPfGSkwpqG4=</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -595,24 +565,14 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>8wUtM1Tu8plTEetGF4jH5A==</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>eDXWSDskzkpk78CgZzKTXA==</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>q73HxukBvE+1YUysuYQVCRf/mwzHqPW8ffzlHeLoGuQ=</t>
+          <t>ySPp7xV9mGDCspI+gBePseliSy2RwpAOPe6DD9FKldE=</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -627,12 +587,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>t+u+glDamuoUBRORJ/lH/g==</t>
+          <t>+KCUtNWv0WIlsSytQvwNEA==</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>y6sS9YYgipBtBHSWA/TS2OxlLYFh5HzdQBKWlC4WT9A=</t>
+          <t>rP2CqFRbHPSn/afzqkwKp5b1pLw9REpTN43f9uL/Up8=</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -642,29 +602,19 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>FAm1/aAoc5rdwJSIUXcK8g==</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>8lRHImL8Wl1EfViIUi3xDg==</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>30FsqxpKYv/TH4Izu+VuhloJ8trvtnr9bdb5J/KWDDk=</t>
+          <t>FtxGgvkEoOaVuVwK02dk8aOWp8n7KnmzB+vJJX/otrc=</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>xJiiJwrHQBVifUNVq4xABQ==</t>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -674,12 +624,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SYPy4i7DMzRYBd1E36Za3w==</t>
+          <t>OGpT6z054sisVDzVvcPSr9yBcr0V4GO4lmH4HIYtkac=</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>roWF+wYVEX6xDErhJauZHbDuDB/O62s8Zw/JZ5qlXUg=</t>
+          <t>C60xDL+Bs0Ek/VLLHaYsSZL99XID3V5854gbYThYeO4=</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -689,29 +639,19 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>iDnYPlxSSZnqCUbK3ER/ew==</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>e9HCn/sPDXJ/xL3cWxAOiw==</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BAUbDr1mCd1DcySY9MUQxC1uWfwR2DT99ffbJhABf0I=</t>
+          <t>ujcXDdD7uv3/pYtuxW450VN85s4gxAhooK3Q1BJAA80=</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>xJiiJwrHQBVifUNVq4xABQ==</t>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -721,12 +661,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CaV4QH+/UiiTOstZOEZysw==</t>
+          <t>jn+UyKTRYi2IN9YVcqoGbg==</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>R4wHRKnsswbu8z1MPyYByTkZoZB+yGF/vdhpkQhHNB4=</t>
+          <t>9x9Y67uhRB003MI8XEOD7PR8tPaIpPT36Qn2eRmCNag=</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -736,29 +676,19 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>xw40Q7GPNCZCXzdXcF0n3A==</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>WMpHoUqIwpiNrlZu9HyB8Q==</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>hpmLigp7cygs6d2syG1ADvxxf0GiaerXbqUsUU8cSIc=</t>
+          <t>VlIv3Q386kUsvwt6tIMrsy1uWfwR2DT99ffbJhABf0I=</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>xJiiJwrHQBVifUNVq4xABQ==</t>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -768,12 +698,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MorfFkSOvoHlnu/2I8kDMw==</t>
+          <t>5EItVBdx1oHsqnCbY/LppQnTgMe8dQ3V9qe5SHe73I4=</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>DVtkO6wMyrwgP5z9e3Lf7nI/A3cB4MIPtPfGSkwpqG4=</t>
+          <t>nnj61EShlg+hoeHQxG7UhBtajhzqSc0/dQpFLa10KLs=</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -783,29 +713,19 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>eDXWSDskzkpk78CgZzKTXA==</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>e6cJBe86+dNkrl2JAwGiPQ==</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ySPp7xV9mGDCspI+gBePseliSy2RwpAOPe6DD9FKldE=</t>
+          <t>b1+7lAoCU3+Nvtw9sMrJtbzoXjf/AseGFoXScCzuj94=</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>xJiiJwrHQBVifUNVq4xABQ==</t>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -815,12 +735,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>+KCUtNWv0WIlsSytQvwNEA==</t>
+          <t>QfQMKNR0agLFrZZ3rSw7NG+UWUAIY1kGlmdp4iC/ImE=</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>rP2CqFRbHPSn/afzqkwKp5b1pLw9REpTN43f9uL/Up8=</t>
+          <t>HRgLt++wfsrDGj02+iUSm2pgXg/E2xzeWgzeqdbiCVA=</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -830,24 +750,14 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>8lRHImL8Wl1EfViIUi3xDg==</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>QPLF//Z9YvjzUoLY+/6ORQ==</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>FtxGgvkEoOaVuVwK02dk8aOWp8n7KnmzB+vJJX/otrc=</t>
+          <t>JQkeFH60LV5pRdZXsBQ/e5qFhyym+P8h0iEbB8K+Nm4=</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -862,12 +772,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>OGpT6z054sisVDzVvcPSr9yBcr0V4GO4lmH4HIYtkac=</t>
+          <t>UZTlMRCpQ7JOrQRdT71ycGU3pb2VoytQjled2rA0Mm0=</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>C60xDL+Bs0Ek/VLLHaYsSZL99XID3V5854gbYThYeO4=</t>
+          <t>TCWnuPuDcIrRHftmNjq4YdnUsMb/eWbD376sabAEeJY=</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -877,24 +787,14 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>e9HCn/sPDXJ/xL3cWxAOiw==</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>1QtJrhSO0KvHDs9VNc1JaA==</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ujcXDdD7uv3/pYtuxW450VN85s4gxAhooK3Q1BJAA80=</t>
+          <t>56wArVEwhcuyGkparM4/P9t2s9kTDPrcRCjPN3hCkaA=</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -909,12 +809,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>jn+UyKTRYi2IN9YVcqoGbg==</t>
+          <t>Pfm4PLUyI3zJzNt5YJE4tc8g2pZ6WRz/Z1KHO/9KIcw=</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>9x9Y67uhRB003MI8XEOD7PR8tPaIpPT36Qn2eRmCNag=</t>
+          <t>VSzmEzjagMJa8a4LjyrUuSLRA0KHTpJrA7OXiAU169c=</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -924,24 +824,14 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>WMpHoUqIwpiNrlZu9HyB8Q==</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>Fc8OhNW1sXHp44ii0yX1mQ==</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>VlIv3Q386kUsvwt6tIMrsy1uWfwR2DT99ffbJhABf0I=</t>
+          <t>7a68y7/9CjWtciVZ1JZQsINiG7C77eTdJJDGOeInB6I=</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -956,12 +846,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5EItVBdx1oHsqnCbY/LppQnTgMe8dQ3V9qe5SHe73I4=</t>
+          <t>Bp59Hev9DKHMWQ6xgkwtdXTNi650BhaYIC55Q6KCIms=</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>nnj61EShlg+hoeHQxG7UhBtajhzqSc0/dQpFLa10KLs=</t>
+          <t>pC9Sn8iraNDPEyGLAKktE4JuIEoiTBA7+sccHZsT0RM=</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -971,24 +861,14 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>e6cJBe86+dNkrl2JAwGiPQ==</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>hohf3+zxOmtAdCi/PmhBjw==</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>b1+7lAoCU3+Nvtw9sMrJtbzoXjf/AseGFoXScCzuj94=</t>
+          <t>wNFc9yXofHzwseL1IhfnWIcfuXd2GyO4BiBiG3JgpHU=</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1003,12 +883,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>QfQMKNR0agLFrZZ3rSw7NG+UWUAIY1kGlmdp4iC/ImE=</t>
+          <t>jgld2TuBeT8i6K0G3IXFOr+9H+hDXjSMDiEjsrpEpnI=</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>HRgLt++wfsrDGj02+iUSm2pgXg/E2xzeWgzeqdbiCVA=</t>
+          <t>oGYOt4D26UjHbte1irp7RKpgH4L09Fh/Rvs/wZvq3Yg=</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1018,24 +898,14 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>QPLF//Z9YvjzUoLY+/6ORQ==</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>nYuJ/nwdc4BfFk4HunSCPA==</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>JQkeFH60LV5pRdZXsBQ/e5qFhyym+P8h0iEbB8K+Nm4=</t>
+          <t>Ns2RbOb5eFbJTjAXKw+vo8Y/DYZI4jvQipkNMw4dv0A=</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1050,12 +920,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>UZTlMRCpQ7JOrQRdT71ycGU3pb2VoytQjled2rA0Mm0=</t>
+          <t>KOe2T4X2QOe/qz+kWxHOg4yMG4FrQHHThae/azX5xJo=</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>TCWnuPuDcIrRHftmNjq4YdnUsMb/eWbD376sabAEeJY=</t>
+          <t>wZU1wvGMx05LkoOioluUmRdWa5yc53hJeOmDvLmdFMY=</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1065,24 +935,14 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1QtJrhSO0KvHDs9VNc1JaA==</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>bsZr0FaGyQiBRNfD+Ohx6Q==</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>56wArVEwhcuyGkparM4/P9t2s9kTDPrcRCjPN3hCkaA=</t>
+          <t>BfhZ7rw/tvt0S5nqH9jiXAO4wrAXwuJESPCuYhTc5R0=</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1097,12 +957,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Pfm4PLUyI3zJzNt5YJE4tc8g2pZ6WRz/Z1KHO/9KIcw=</t>
+          <t>NMFmmjH7haKYnUYw1uDCKuTVfd3Peu+Ch+3BpBTW7mQ=</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>VSzmEzjagMJa8a4LjyrUuSLRA0KHTpJrA7OXiAU169c=</t>
+          <t>Y8uHNYff7GInCNO6rHo/RF6fLeSc54eagr72RvWGwkk=</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1112,24 +972,14 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Fc8OhNW1sXHp44ii0yX1mQ==</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>2F9vRLOPrB6IVXwKE4iwRA==</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>7a68y7/9CjWtciVZ1JZQsINiG7C77eTdJJDGOeInB6I=</t>
+          <t>M6g7C2nIikBlboiJRK64qimC1wLsYMS+xp/cIp/vQL0=</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1144,12 +994,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Bp59Hev9DKHMWQ6xgkwtdXTNi650BhaYIC55Q6KCIms=</t>
+          <t>bVrS3Jg5P9VdMkHSy7LfdlEb3/oiYXj2+YGkA06mehk=</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>pC9Sn8iraNDPEyGLAKktE4JuIEoiTBA7+sccHZsT0RM=</t>
+          <t>13ymzmyvIuaaodywPv3TFQgNYiFCRrC9E/5Xg9IKv30=</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1159,71 +1009,51 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>hohf3+zxOmtAdCi/PmhBjw==</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>HcXYbondLi/LYB9nwZ+LTw==</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>wNFc9yXofHzwseL1IhfnWIcfuXd2GyO4BiBiG3JgpHU=</t>
+          <t>w5m6u/5ZYiYNTJzFZjdQ2tmqLiJKAynCk+wIcn/w2xo=</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>wYimUtkKYLta8bEPUrtLmg==</t>
+          <t>94eO+aHuFFQ+lK6MiV71Jw==</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PUdhH2Sa1+lHplBC7r0UoNyBcr0V4GO4lmH4HIYtkac=</t>
+          <t>MvO97H/7t9ipgMveoJhWH/BsXwNbFaBIeK1oZ+nJ9fY=</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>jgld2TuBeT8i6K0G3IXFOr+9H+hDXjSMDiEjsrpEpnI=</t>
+          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>oGYOt4D26UjHbte1irp7RKpgH4L09Fh/Rvs/wZvq3Yg=</t>
+          <t>866D9dy1l7PZ9Sym3tiVtCLfePaPOnUkKY8bBxVdKFM=</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>ex3QWF22k+oh5CT55Nyu2/+13imXtdsz8djkd8CKNx8=</t>
+          <t>fPGhaV3udPODXmqmsSlSrQ==</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>nYuJ/nwdc4BfFk4HunSCPA==</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>BSEcrIp4BRukCassFFNc9w==</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Ns2RbOb5eFbJTjAXKw+vo8Y/DYZI4jvQipkNMw4dv0A=</t>
+          <t>Gzuz1f/H6tnUTi4i9P3LgtmqLiJKAynCk+wIcn/w2xo=</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1233,44 +1063,34 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PUdhH2Sa1+lHplBC7r0UoNyBcr0V4GO4lmH4HIYtkac=</t>
+          <t>MvO97H/7t9ipgMveoJhWH/BsXwNbFaBIeK1oZ+nJ9fY=</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>KOe2T4X2QOe/qz+kWxHOg4yMG4FrQHHThae/azX5xJo=</t>
+          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>wZU1wvGMx05LkoOioluUmRdWa5yc53hJeOmDvLmdFMY=</t>
+          <t>DiV8UZWsddEQC0u6OYcH/2QI5U60H9z5vzwXF5cjLzM=</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>ex3QWF22k+oh5CT55Nyu2/+13imXtdsz8djkd8CKNx8=</t>
+          <t>fPGhaV3udPODXmqmsSlSrQ==</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>bsZr0FaGyQiBRNfD+Ohx6Q==</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>ahMva8ORRHYMBxaQFIpTkg==</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BfhZ7rw/tvt0S5nqH9jiXAO4wrAXwuJESPCuYhTc5R0=</t>
+          <t>YGVRw7Tzj32L6d3GvsUBUfBsXwNbFaBIeK1oZ+nJ9fY=</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1280,44 +1100,34 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>PUdhH2Sa1+lHplBC7r0UoNyBcr0V4GO4lmH4HIYtkac=</t>
+          <t>MvO97H/7t9ipgMveoJhWH/BsXwNbFaBIeK1oZ+nJ9fY=</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NMFmmjH7haKYnUYw1uDCKuTVfd3Peu+Ch+3BpBTW7mQ=</t>
+          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Y8uHNYff7GInCNO6rHo/RF6fLeSc54eagr72RvWGwkk=</t>
+          <t>QYc73aPLFyqODVVJX/Oum81eSHVBalGREBkw7Jp4Abw=</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ex3QWF22k+oh5CT55Nyu2/+13imXtdsz8djkd8CKNx8=</t>
+          <t>fPGhaV3udPODXmqmsSlSrQ==</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2F9vRLOPrB6IVXwKE4iwRA==</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>fdLIylT1DN3s7yLx1KRxig==</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>M6g7C2nIikBlboiJRK64qimC1wLsYMS+xp/cIp/vQL0=</t>
+          <t>5hlwKJV+FjUt2S/cR0CQxvBsXwNbFaBIeK1oZ+nJ9fY=</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1327,49 +1137,39 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>PUdhH2Sa1+lHplBC7r0UoNyBcr0V4GO4lmH4HIYtkac=</t>
+          <t>MvO97H/7t9ipgMveoJhWH/BsXwNbFaBIeK1oZ+nJ9fY=</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>bVrS3Jg5P9VdMkHSy7LfdlEb3/oiYXj2+YGkA06mehk=</t>
+          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>13ymzmyvIuaaodywPv3TFQgNYiFCRrC9E/5Xg9IKv30=</t>
+          <t>0RXYiz6qHCPu+VQCyfUJYF8ZXw0X118PVy8pWg4s4+k=</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>ex3QWF22k+oh5CT55Nyu2/+13imXtdsz8djkd8CKNx8=</t>
+          <t>fPGhaV3udPODXmqmsSlSrQ==</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>HcXYbondLi/LYB9nwZ+LTw==</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>Lci24sMEJvkdSHvEyUayjg==</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>w5m6u/5ZYiYNTJzFZjdQ2tmqLiJKAynCk+wIcn/w2xo=</t>
+          <t>fj0kmhKfWtb7Fcj4mZCZB/BsXwNbFaBIeK1oZ+nJ9fY=</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>94eO+aHuFFQ+lK6MiV71Jw==</t>
+          <t>wYimUtkKYLta8bEPUrtLmg==</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1384,7 +1184,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>866D9dy1l7PZ9Sym3tiVtCLfePaPOnUkKY8bBxVdKFM=</t>
+          <t>fGO/QwMJcak0r1ivuo7naaiP1cxmmTARnAy4IeDKoHY=</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1394,24 +1194,14 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>aPHV8ZHV7K15oEeztMOotg==</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Gzuz1f/H6tnUTi4i9P3LgtmqLiJKAynCk+wIcn/w2xo=</t>
+          <t>0rI1ehB6KzqFm9x0k5Nf/JlYo8DWwQArTaxBUWMYJuk=</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1431,7 +1221,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>DiV8UZWsddEQC0u6OYcH/2QI5U60H9z5vzwXF5cjLzM=</t>
+          <t>jQIKoOhzPFpSu1ULmRA1+7voyS1CsCVnE5tIDCWoyEg=</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1441,24 +1231,14 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>GAO1HXmwh/Mvg/qnjKDP3A==</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>YGVRw7Tzj32L6d3GvsUBUfBsXwNbFaBIeK1oZ+nJ9fY=</t>
+          <t>ryMQQG2+s7CT27ovteBK04NiG7C77eTdJJDGOeInB6I=</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1478,7 +1258,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>QYc73aPLFyqODVVJX/Oum81eSHVBalGREBkw7Jp4Abw=</t>
+          <t>eQ1yu38G1AwHk23xAXxRUna077VaOHajZizB6hXgdIU=</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1488,24 +1268,14 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>uekWivsY7IBxQ9wsdUZNCA==</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5hlwKJV+FjUt2S/cR0CQxvBsXwNbFaBIeK1oZ+nJ9fY=</t>
+          <t>ggNBO9XBTLEfxdd37fJ1Ty+CMQ2PZGW+/4eNBxz1EJI=</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1525,7 +1295,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0RXYiz6qHCPu+VQCyfUJYF8ZXw0X118PVy8pWg4s4+k=</t>
+          <t>BXOZ2Xr3DGZH1UCVMrv+KaPCBuCormd+v1i8+3QKjac=</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1535,24 +1305,14 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>eG6x+G8NZVyjF2rS/Hs7QQ==</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>fj0kmhKfWtb7Fcj4mZCZB/BsXwNbFaBIeK1oZ+nJ9fY=</t>
+          <t>1WZO/oDO2g0Vl7wwsbVlTC+CMQ2PZGW+/4eNBxz1EJI=</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1572,7 +1332,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>fGO/QwMJcak0r1ivuo7naaiP1cxmmTARnAy4IeDKoHY=</t>
+          <t>Q/X5bCfyb1f5VCQrgSvn1yaULfTUxwJJ3aFZOp7aF4M=</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1582,24 +1342,14 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>7U71izTEAYUWvZkPy3jMFw==</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>0rI1ehB6KzqFm9x0k5Nf/JlYo8DWwQArTaxBUWMYJuk=</t>
+          <t>NqrT9MCFHYGiFdrqF2/ep5lYo8DWwQArTaxBUWMYJuk=</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1619,7 +1369,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>jQIKoOhzPFpSu1ULmRA1+7voyS1CsCVnE5tIDCWoyEg=</t>
+          <t>dtQbIgJU0vElTqddcR/Soe2slE7rnIMRQU3kwD6aizM=</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1629,24 +1379,14 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>+rCAeOp53YO933Z2mxnuQw==</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ryMQQG2+s7CT27ovteBK04NiG7C77eTdJJDGOeInB6I=</t>
+          <t>+GsPBHcbVJ2MzbGoZ9eqtaID2Y/dUoBNFtplBZ5BhrI=</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1656,7 +1396,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>MvO97H/7t9ipgMveoJhWH/BsXwNbFaBIeK1oZ+nJ9fY=</t>
+          <t>eHGl8nkxNv1n3fn2SB7i3tyBcr0V4GO4lmH4HIYtkac=</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1666,7 +1406,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>eQ1yu38G1AwHk23xAXxRUna077VaOHajZizB6hXgdIU=</t>
+          <t>Tgde4eUw6LS0xAuCyp1VYiUEENNd9xfN3066FpUj3mQ=</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1676,24 +1416,14 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>SX66yqu4QjrLQ7IpgkpPHA==</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ggNBO9XBTLEfxdd37fJ1Ty+CMQ2PZGW+/4eNBxz1EJI=</t>
+          <t>RaeOPXX9FJz7dF+6aX41eZlYo8DWwQArTaxBUWMYJuk=</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1703,7 +1433,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>MvO97H/7t9ipgMveoJhWH/BsXwNbFaBIeK1oZ+nJ9fY=</t>
+          <t>eHGl8nkxNv1n3fn2SB7i3tyBcr0V4GO4lmH4HIYtkac=</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1713,7 +1443,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>BXOZ2Xr3DGZH1UCVMrv+KaPCBuCormd+v1i8+3QKjac=</t>
+          <t>iNAzSHSEaPOCnxpLam4g+KbtazuJN8P/qEc0BwmkT5I=</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1723,24 +1453,14 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>VqV2L4CPo6RPPqOYIZ4BAA==</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1WZO/oDO2g0Vl7wwsbVlTC+CMQ2PZGW+/4eNBxz1EJI=</t>
+          <t>dkfiuMXcGoNdko0bMVgws9mqLiJKAynCk+wIcn/w2xo=</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1750,7 +1470,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>MvO97H/7t9ipgMveoJhWH/BsXwNbFaBIeK1oZ+nJ9fY=</t>
+          <t>eHGl8nkxNv1n3fn2SB7i3tyBcr0V4GO4lmH4HIYtkac=</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1760,7 +1480,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Q/X5bCfyb1f5VCQrgSvn1yaULfTUxwJJ3aFZOp7aF4M=</t>
+          <t>CX9qJl40R5CO4UcSQrVPKS9f+ZfQ+iTCDpdFQOPt1To=</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1770,24 +1490,14 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>Rvzm7q6NAkaHyHEds8SBiQ==</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>NqrT9MCFHYGiFdrqF2/ep5lYo8DWwQArTaxBUWMYJuk=</t>
+          <t>XBRLzVa9gnpDWqscviCUBC+CMQ2PZGW+/4eNBxz1EJI=</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1797,7 +1507,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>MvO97H/7t9ipgMveoJhWH/BsXwNbFaBIeK1oZ+nJ9fY=</t>
+          <t>eHGl8nkxNv1n3fn2SB7i3tyBcr0V4GO4lmH4HIYtkac=</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1807,7 +1517,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>dtQbIgJU0vElTqddcR/Soe2slE7rnIMRQU3kwD6aizM=</t>
+          <t>0/NwL/tKAD1Odlv1PYT2SwVt4g5st+l12PUO3Oo9Djk=</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1817,24 +1527,14 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>agla+dYZZ3GS5nu9xR9Jcg==</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>+GsPBHcbVJ2MzbGoZ9eqtaID2Y/dUoBNFtplBZ5BhrI=</t>
+          <t>n7WN6JZNcre668fDsrJcbi+CMQ2PZGW+/4eNBxz1EJI=</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1854,7 +1554,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Tgde4eUw6LS0xAuCyp1VYiUEENNd9xfN3066FpUj3mQ=</t>
+          <t>crTgpsBEP4DDtPdjsSPxjx7ZmAfVRL3BJwMJbRWUHkM=</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1864,24 +1564,14 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>wDB7kil1Wya/pjZF9ImG6g==</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>RaeOPXX9FJz7dF+6aX41eZlYo8DWwQArTaxBUWMYJuk=</t>
+          <t>xLs0KjFOOmD30L4sP5O0df8vifOxT1xwN0jWcuZQhf0=</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1901,7 +1591,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>iNAzSHSEaPOCnxpLam4g+KbtazuJN8P/qEc0BwmkT5I=</t>
+          <t>cMZw56AzEQGb6T5rgNbYeL4ldigiTkA1ipjXByvnWFk=</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1911,24 +1601,14 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>g2utr1ie7E3VV8IUyGX/5A==</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>dkfiuMXcGoNdko0bMVgws9mqLiJKAynCk+wIcn/w2xo=</t>
+          <t>ZKw+41J59/9KZkjrR6MFX5lYo8DWwQArTaxBUWMYJuk=</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1948,7 +1628,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>CX9qJl40R5CO4UcSQrVPKS9f+ZfQ+iTCDpdFQOPt1To=</t>
+          <t>rNqKNoAjmYUtzfhBza4wgpvgJZ6q/rbBmS6DqMX3whY=</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1958,24 +1638,14 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>9Qk968NoKaS9tM1GXXMTZw==</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>XBRLzVa9gnpDWqscviCUBC+CMQ2PZGW+/4eNBxz1EJI=</t>
+          <t>yzMzfkJ0dMm4KZkUy7Lqjhf/mwzHqPW8ffzlHeLoGuQ=</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1995,7 +1665,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0/NwL/tKAD1Odlv1PYT2SwVt4g5st+l12PUO3Oo9Djk=</t>
+          <t>j4rhvPKHoiZDpkUw7bLYFcWYBfX2/iLz1LfZJQBUego=</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2005,34 +1675,24 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>mLK2DASijAPUf7eycuAulw==</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>n7WN6JZNcre668fDsrJcbi+CMQ2PZGW+/4eNBxz1EJI=</t>
+          <t>7ytmdVT59shuneIt+IJxc5lYo8DWwQArTaxBUWMYJuk=</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>wYimUtkKYLta8bEPUrtLmg==</t>
+          <t>ybd42F9YxY2vl43nSdrYsQ==</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>eHGl8nkxNv1n3fn2SB7i3tyBcr0V4GO4lmH4HIYtkac=</t>
+          <t>W9pdoz7MWNJWG+nN2+RmFtyBcr0V4GO4lmH4HIYtkac=</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2042,7 +1702,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>crTgpsBEP4DDtPdjsSPxjx7ZmAfVRL3BJwMJbRWUHkM=</t>
+          <t>X8YWYEou+T9a/GId91ItRioUyZmzD03t3L/mnfDQMB0=</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2052,24 +1712,14 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>NUEEctdz2nF6E4YH1uWLxA==</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>xLs0KjFOOmD30L4sP5O0df8vifOxT1xwN0jWcuZQhf0=</t>
+          <t>fF4ibVMsE9Zpapo14ZFqbaID2Y/dUoBNFtplBZ5BhrI=</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2089,7 +1739,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>cMZw56AzEQGb6T5rgNbYeL4ldigiTkA1ipjXByvnWFk=</t>
+          <t>hYfJJYRkqaMPFQSzqfL9LxkXsxKqXh61J3bnFNctNio=</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2099,24 +1749,14 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>m4PBHcmndEI7ecO0Kvi5Ew==</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ZKw+41J59/9KZkjrR6MFX5lYo8DWwQArTaxBUWMYJuk=</t>
+          <t>5WvQlLFHgoCkTwYWGyrfCh/HB1GieD13awTflgO0eew=</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2126,7 +1766,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>eHGl8nkxNv1n3fn2SB7i3tyBcr0V4GO4lmH4HIYtkac=</t>
+          <t>PUdhH2Sa1+lHplBC7r0UoNyBcr0V4GO4lmH4HIYtkac=</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2136,7 +1776,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>rNqKNoAjmYUtzfhBza4wgpvgJZ6q/rbBmS6DqMX3whY=</t>
+          <t>6mz4edUj/Fpac7C+btcU101IG2Bw60m7hTGdt6YRC9Y=</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2146,24 +1786,14 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>/CIKUsPVw0qUQz8g8qO/tA==</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>yzMzfkJ0dMm4KZkUy7Lqjhf/mwzHqPW8ffzlHeLoGuQ=</t>
+          <t>N01dNkyRq+7o77If+UH12dmqLiJKAynCk+wIcn/w2xo=</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2173,7 +1803,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>eHGl8nkxNv1n3fn2SB7i3tyBcr0V4GO4lmH4HIYtkac=</t>
+          <t>PUdhH2Sa1+lHplBC7r0UoNyBcr0V4GO4lmH4HIYtkac=</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2183,7 +1813,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>j4rhvPKHoiZDpkUw7bLYFcWYBfX2/iLz1LfZJQBUego=</t>
+          <t>N4k8yiYcllsxXZIByPfB+S4j50sE49bhK6Ap3WYZl9s=</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2193,34 +1823,24 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>VmQNk7LbBs9iuxv0QKzWOg==</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>7ytmdVT59shuneIt+IJxc5lYo8DWwQArTaxBUWMYJuk=</t>
+          <t>zndbVCUaR3iYuRI4GS+oLj9U+jAIlaIuYRm99UM0V5o=</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ybd42F9YxY2vl43nSdrYsQ==</t>
+          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>W9pdoz7MWNJWG+nN2+RmFtyBcr0V4GO4lmH4HIYtkac=</t>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2230,7 +1850,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>X8YWYEou+T9a/GId91ItRioUyZmzD03t3L/mnfDQMB0=</t>
+          <t>ghjSuMkuOXVgj3/1TJHbAFp/S+9aAKs1WrUxuUOwgtg=</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2240,24 +1860,14 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>uTGrqDs0P4cTLiSmKr26Qw==</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>fF4ibVMsE9Zpapo14ZFqbaID2Y/dUoBNFtplBZ5BhrI=</t>
+          <t>YVKg2vADJvWAC6TEn/43ZKID2Y/dUoBNFtplBZ5BhrI=</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2267,7 +1877,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>eHGl8nkxNv1n3fn2SB7i3tyBcr0V4GO4lmH4HIYtkac=</t>
+          <t>PUdhH2Sa1+lHplBC7r0UoNyBcr0V4GO4lmH4HIYtkac=</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2277,7 +1887,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>hYfJJYRkqaMPFQSzqfL9LxkXsxKqXh61J3bnFNctNio=</t>
+          <t>ndDBN4ztAAUveLKuWtRbKSSRQFq9p1vGmQJVPHkTVlE=</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2287,24 +1897,14 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>dzYAYonXOqBUH9dtVZ9S6g==</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>5WvQlLFHgoCkTwYWGyrfCh/HB1GieD13awTflgO0eew=</t>
+          <t>Wecseh4SbAooEwGgLngeFJlYo8DWwQArTaxBUWMYJuk=</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2314,17 +1914,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>PUdhH2Sa1+lHplBC7r0UoNyBcr0V4GO4lmH4HIYtkac=</t>
+          <t>W9pdoz7MWNJWG+nN2+RmFtyBcr0V4GO4lmH4HIYtkac=</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
+          <t>vDPXMPiOntx7aNU2MSK2og==</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>6mz4edUj/Fpac7C+btcU101IG2Bw60m7hTGdt6YRC9Y=</t>
+          <t>xim7XCEkHCrfHke58C/GZgTBF7B5A9XTanQgFxz2ajk=</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2334,205 +1934,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>N01dNkyRq+7o77If+UH12dmqLiJKAynCk+wIcn/w2xo=</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>wYimUtkKYLta8bEPUrtLmg==</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>PUdhH2Sa1+lHplBC7r0UoNyBcr0V4GO4lmH4HIYtkac=</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>N4k8yiYcllsxXZIByPfB+S4j50sE49bhK6Ap3WYZl9s=</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>fPGhaV3udPODXmqmsSlSrQ==</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>zndbVCUaR3iYuRI4GS+oLj9U+jAIlaIuYRm99UM0V5o=</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>ghjSuMkuOXVgj3/1TJHbAFp/S+9aAKs1WrUxuUOwgtg=</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>fPGhaV3udPODXmqmsSlSrQ==</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>YVKg2vADJvWAC6TEn/43ZKID2Y/dUoBNFtplBZ5BhrI=</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>wYimUtkKYLta8bEPUrtLmg==</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>PUdhH2Sa1+lHplBC7r0UoNyBcr0V4GO4lmH4HIYtkac=</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>GKB5NJRoh2Q3/4eWLtO14g==</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>ndDBN4ztAAUveLKuWtRbKSSRQFq9p1vGmQJVPHkTVlE=</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>fPGhaV3udPODXmqmsSlSrQ==</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Wecseh4SbAooEwGgLngeFJlYo8DWwQArTaxBUWMYJuk=</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>wYimUtkKYLta8bEPUrtLmg==</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>W9pdoz7MWNJWG+nN2+RmFtyBcr0V4GO4lmH4HIYtkac=</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>vDPXMPiOntx7aNU2MSK2og==</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>xim7XCEkHCrfHke58C/GZgTBF7B5A9XTanQgFxz2ajk=</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>fPGhaV3udPODXmqmsSlSrQ==</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+          <t>uQyoIZ8incWDfxc6ixpMlg==</t>
         </is>
       </c>
     </row>

--- a/account.xlsx
+++ b/account.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,6 +457,11 @@
           <t>Lxq7mcX/7ihu6U5BjiCR/A==</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -491,7 +496,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>MsmO9rcLV8jpLF30msefeg==</t>
+          <t>UxBHDKnAEJIFJBnI6sbysg==</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
@@ -528,7 +538,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>xw40Q7GPNCZCXzdXcF0n3A==</t>
+          <t>XrPir9HpBjAClDpzJcJ6OA==</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
@@ -565,7 +580,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>eDXWSDskzkpk78CgZzKTXA==</t>
+          <t>r/z0b4BaZRIcGIRJxtW2Ng==</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
@@ -605,6 +625,11 @@
           <t>8lRHImL8Wl1EfViIUi3xDg==</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -639,7 +664,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>e9HCn/sPDXJ/xL3cWxAOiw==</t>
+          <t>HUGsi+lGuZB7KG3EEs+yuA==</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
@@ -676,7 +706,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>WMpHoUqIwpiNrlZu9HyB8Q==</t>
+          <t>SgxuyuDNofyULJVXPJ7ixA==</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
@@ -713,7 +748,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>e6cJBe86+dNkrl2JAwGiPQ==</t>
+          <t>Cq/yWJN/8tKYcZPCC13jIQ==</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
@@ -750,7 +790,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>QPLF//Z9YvjzUoLY+/6ORQ==</t>
+          <t>pTVRakxnzrhXimhBcO+v6w==</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
@@ -787,7 +832,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1QtJrhSO0KvHDs9VNc1JaA==</t>
+          <t>n/1yUkVe+BadBsnIX2mfWQ==</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
@@ -824,7 +874,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Fc8OhNW1sXHp44ii0yX1mQ==</t>
+          <t>VZQYZk3yZTxex2H2P7rLhg==</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
@@ -861,7 +916,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>hohf3+zxOmtAdCi/PmhBjw==</t>
+          <t>Ux36rwuoKJtxhlJRh5VYBA==</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
@@ -898,7 +958,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>nYuJ/nwdc4BfFk4HunSCPA==</t>
+          <t>8VarWot6q2/t7aXycvDIug==</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
@@ -935,7 +1000,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>bsZr0FaGyQiBRNfD+Ohx6Q==</t>
+          <t>/09ihv3XI0rOTD803KKp6g==</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
@@ -972,7 +1042,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2F9vRLOPrB6IVXwKE4iwRA==</t>
+          <t>fLtAL7zVpFBqwFiVH64OYA==</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1084,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>HcXYbondLi/LYB9nwZ+LTw==</t>
+          <t>Tz06n7q+W/W3fj5WNkt0vA==</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
@@ -1021,7 +1101,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>94eO+aHuFFQ+lK6MiV71Jw==</t>
+          <t>FCG0ZZ7WG54ArVoYLIDn/A==</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1047,6 +1127,11 @@
       <c r="G17" t="inlineStr">
         <is>
           <t>BSEcrIp4BRukCassFFNc9w==</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>
@@ -1086,6 +1171,11 @@
           <t>ahMva8ORRHYMBxaQFIpTkg==</t>
         </is>
       </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1123,6 +1213,11 @@
           <t>fdLIylT1DN3s7yLx1KRxig==</t>
         </is>
       </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1160,6 +1255,11 @@
           <t>Lci24sMEJvkdSHvEyUayjg==</t>
         </is>
       </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1197,6 +1297,11 @@
           <t>aPHV8ZHV7K15oEeztMOotg==</t>
         </is>
       </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1234,6 +1339,11 @@
           <t>GAO1HXmwh/Mvg/qnjKDP3A==</t>
         </is>
       </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1271,6 +1381,11 @@
           <t>uekWivsY7IBxQ9wsdUZNCA==</t>
         </is>
       </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1308,6 +1423,11 @@
           <t>eG6x+G8NZVyjF2rS/Hs7QQ==</t>
         </is>
       </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1345,6 +1465,11 @@
           <t>7U71izTEAYUWvZkPy3jMFw==</t>
         </is>
       </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1382,6 +1507,11 @@
           <t>+rCAeOp53YO933Z2mxnuQw==</t>
         </is>
       </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1419,6 +1549,11 @@
           <t>SX66yqu4QjrLQ7IpgkpPHA==</t>
         </is>
       </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1456,6 +1591,11 @@
           <t>VqV2L4CPo6RPPqOYIZ4BAA==</t>
         </is>
       </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1493,6 +1633,11 @@
           <t>Rvzm7q6NAkaHyHEds8SBiQ==</t>
         </is>
       </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1530,6 +1675,11 @@
           <t>agla+dYZZ3GS5nu9xR9Jcg==</t>
         </is>
       </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1567,6 +1717,11 @@
           <t>wDB7kil1Wya/pjZF9ImG6g==</t>
         </is>
       </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1604,6 +1759,11 @@
           <t>g2utr1ie7E3VV8IUyGX/5A==</t>
         </is>
       </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1641,6 +1801,11 @@
           <t>9Qk968NoKaS9tM1GXXMTZw==</t>
         </is>
       </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1678,6 +1843,11 @@
           <t>mLK2DASijAPUf7eycuAulw==</t>
         </is>
       </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1715,6 +1885,11 @@
           <t>NUEEctdz2nF6E4YH1uWLxA==</t>
         </is>
       </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1752,6 +1927,11 @@
           <t>m4PBHcmndEI7ecO0Kvi5Ew==</t>
         </is>
       </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1789,6 +1969,11 @@
           <t>/CIKUsPVw0qUQz8g8qO/tA==</t>
         </is>
       </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1826,6 +2011,11 @@
           <t>VmQNk7LbBs9iuxv0QKzWOg==</t>
         </is>
       </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1863,6 +2053,11 @@
           <t>uTGrqDs0P4cTLiSmKr26Qw==</t>
         </is>
       </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1900,6 +2095,11 @@
           <t>dzYAYonXOqBUH9dtVZ9S6g==</t>
         </is>
       </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1935,6 +2135,11 @@
       <c r="G41" t="inlineStr">
         <is>
           <t>uQyoIZ8incWDfxc6ixpMlg==</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
     </row>

--- a/account.xlsx
+++ b/account.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2143,6 +2143,258 @@
         </is>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>0ELMm8VHJkm7JQZrb9ereVwS/bxMDfaFhyKdHvLsg5U=</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>WUuikfwq96Mh17C/IL0XtbpqlJr+LkRyAw57zS7K3pI=</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>QGsSConPUcRQaV6t8nBSAg==</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>AvCnKjitOhiOVtQOSA8K8LchH1GORHl3fcEgw70trRI=</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>ki01YY6jvlEQdHWdyBdUrg==</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>zOHN14ROYBNSpDwVhm878A==</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>bZCFEPUieInyQGlVqI4Wm2Uh4b4aUzc7gSk/ldU/zTs=</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>VXvXaitzHLY5Ta1W06HSyZWmWbdyl112D6GY2/auv4U=</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>TVTGc4PNm0HcSEcb7iBryA==</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>3vdQEUvucKqtxr9CUf7DEem5zv+kUdZ1voKcCh051b8=</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>ki01YY6jvlEQdHWdyBdUrg==</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>wfOx9rg4Rd12/tVwO7Uk7A==</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>XOjSQwEd52Rg5Krntwr5BEBixxt89FCsys/DWZD2tMY=</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>J/awriIbdp0suDRw5oYUOMxAgGAo6iZKAHdLQVIaG9k=</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>eiZgPQkcsMOw0oXK0g2BFQ==</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>TCwVyX1lGq/bjmNUQ788Y1A7hab43hFyQ5uTGlICOdo=</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>ki01YY6jvlEQdHWdyBdUrg==</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>8jUodXObNkg5sU64+nAdYA==</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>VwjoR9fE2ML/r08UNr514Q==</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>mcMHGXONMf8roV4ziSzmPzX2kfHzZAL9Tyam2pOgGn4=</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>pnY52dh3mplZxLyjnHFr6g==</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>gfPB5YO44n2oTA7CWeF8VIt6ROdJYAhTeGDLBje5BPs=</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>ki01YY6jvlEQdHWdyBdUrg==</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>HcE3xI6r8Tljg8UEynXn5Q==</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>+yl1EfwJ44Jv72y2VdX9hS+CMQ2PZGW+/4eNBxz1EJI=</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>xJiiJwrHQBVifUNVq4xABQ==</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>PUdhH2Sa1+lHplBC7r0UoNyBcr0V4GO4lmH4HIYtkac=</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>MFZ1FEYqa1xl6oLca6rM+w==</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>7jPn//89zH1NbXJD4SQYNvRji0ULeg3eReJVUY52OzE=</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>ex3QWF22k+oh5CT55Nyu2/+13imXtdsz8djkd8CKNx8=</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Xqva4e5DkoCCH+eLQgewfw==</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>30FsqxpKYv/TH4Izu+VuhloJ8trvtnr9bdb5J/KWDDk=</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>xJiiJwrHQBVifUNVq4xABQ==</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>PUdhH2Sa1+lHplBC7r0UoNyBcr0V4GO4lmH4HIYtkac=</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>SYPy4i7DMzRYBd1E36Za3w==</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>roWF+wYVEX6xDErhJauZHbDuDB/O62s8Zw/JZ5qlXUg=</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>ex3QWF22k+oh5CT55Nyu2/+13imXtdsz8djkd8CKNx8=</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>NS7HZ2lNgY6lz+s795iQAA==</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/account.xlsx
+++ b/account.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,6 +462,26 @@
           <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -504,6 +524,26 @@
           <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -533,15 +573,35 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>fPGhaV3udPODXmqmsSlSrQ==</t>
+          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>lAcPHJdTtIdVZ9UHIgBLMg==</t>
+          <t>/DGBKoFzt8NEES0wNselYA==</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
         <is>
           <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
@@ -575,15 +635,35 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>fPGhaV3udPODXmqmsSlSrQ==</t>
+          <t>bvZ1rvuIwp2Bc/iBMa30Ow==</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>d2iPvrLqnnz6m8P/s1hmjw==</t>
+          <t>iV+MTZfoeTA5lLXNLmTWOw==</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
@@ -630,6 +710,26 @@
           <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -672,6 +772,26 @@
           <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -714,6 +834,26 @@
           <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -752,6 +892,150 @@
         </is>
       </c>
       <c r="H8" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
         <is>
           <t>CW/OIpqt5q2CDf9Iai8MXg==</t>
         </is>
